--- a/web/FPT_Final.xlsx
+++ b/web/FPT_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B25FA8-E965-405F-84C2-A605C83504FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34699C87-B8A2-4B4C-A63D-8275B6B34D13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="217">
   <si>
     <t>&lt; 1</t>
   </si>
@@ -1185,12 +1185,18 @@
   <si>
     <t>From Men living with HIV(MLHIV) with biological children &lt;19 yrs with no partners or whose partner status is unknown</t>
   </si>
+  <si>
+    <t>From Women living with HIV(WLHIV) who have biological children including Pregnant</t>
+  </si>
+  <si>
+    <t>Women living with HIV(WLHIV) who have biological children including Pregnant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,20 +1429,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Browallia New"/>
@@ -1603,7 +1595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -2540,21 +2532,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </left>
       <right/>
@@ -2822,7 +2799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3019,15 +2996,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3043,7 +3015,7 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3058,46 +3030,46 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,24 +3105,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3165,10 +3137,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3187,34 +3159,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3223,451 +3195,215 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="97" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3775,40 +3511,276 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{931A1C79-423E-4C1D-A52E-ECC68AACDB72}"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="192">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4926,26 +4898,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5473,16 +5425,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -6205,8 +6147,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{AD82AD95-1030-4F11-9231-CBE77875848A}">
-      <tableStyleElement type="wholeTable" dxfId="194"/>
-      <tableStyleElement type="headerRow" dxfId="193"/>
+      <tableStyleElement type="wholeTable" dxfId="191"/>
+      <tableStyleElement type="headerRow" dxfId="190"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6526,823 +6468,829 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="48" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" style="88" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="88"/>
+    <col min="1" max="1" width="41.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="48" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" style="85" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" s="89" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:5" s="86" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="95" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="184"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="202"/>
+      <c r="B4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="95" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="185"/>
-      <c r="B5" s="92" t="s">
+      <c r="A5" s="203"/>
+      <c r="B5" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="95" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="190"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="95" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="184"/>
-      <c r="B8" s="94" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="95" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="185"/>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="203"/>
+      <c r="B9" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="95" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="190"/>
     </row>
     <row r="11" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="95" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="189"/>
-      <c r="B12" s="94" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="95" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="189"/>
-      <c r="B13" s="92" t="s">
+      <c r="A13" s="196"/>
+      <c r="B13" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="95" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="190"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="95" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="194"/>
-      <c r="B16" s="92" t="s">
+      <c r="A16" s="208"/>
+      <c r="B16" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="194"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="208"/>
+      <c r="B17" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="194"/>
-      <c r="B18" s="140" t="s">
+      <c r="A18" s="208"/>
+      <c r="B18" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="95" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="194"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="208"/>
+      <c r="B19" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="194"/>
-      <c r="B20" s="92" t="s">
+      <c r="A20" s="208"/>
+      <c r="B20" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:22" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="194"/>
-      <c r="B21" s="141" t="s">
+      <c r="A21" s="208"/>
+      <c r="B21" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="95" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="194"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="208"/>
+      <c r="B22" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="98"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="195"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="209"/>
+      <c r="B23" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="98"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="95" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="191"/>
-      <c r="B25" s="142" t="s">
+      <c r="A25" s="205"/>
+      <c r="B25" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="95" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="192"/>
-      <c r="B26" s="140" t="s">
+      <c r="A26" s="206"/>
+      <c r="B26" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="188"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
     </row>
     <row r="28" spans="1:22" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="189" t="s">
+      <c r="A28" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="95" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="189"/>
-      <c r="B29" s="94" t="s">
+      <c r="A29" s="196"/>
+      <c r="B29" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="95" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="189"/>
-      <c r="B30" s="92" t="s">
+      <c r="A30" s="196"/>
+      <c r="B30" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="174" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="165"/>
-      <c r="B31" s="166" t="s">
+    <row r="31" spans="1:22" s="171" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="162"/>
+      <c r="B31" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168">
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165">
         <f t="shared" ref="F31:P31" si="0">F28+F29+F30</f>
         <v>0</v>
       </c>
-      <c r="G31" s="168">
+      <c r="G31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="168">
+      <c r="H31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="168">
+      <c r="I31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="168">
+      <c r="J31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="168">
+      <c r="K31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="168">
+      <c r="L31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="168">
+      <c r="M31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="168">
+      <c r="N31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="168">
+      <c r="O31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="168">
+      <c r="P31" s="165">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="172">
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="169">
         <v>32</v>
       </c>
-      <c r="V31" s="173"/>
+      <c r="V31" s="170"/>
     </row>
     <row r="32" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="190"/>
     </row>
     <row r="33" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="95" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="188"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="190"/>
     </row>
     <row r="35" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="201"/>
-      <c r="B36" s="92" t="s">
+      <c r="A36" s="197"/>
+      <c r="B36" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="186" t="s">
+      <c r="A37" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
     </row>
     <row r="38" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="199" t="s">
+      <c r="A38" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="199"/>
-      <c r="B39" s="92" t="s">
+      <c r="A39" s="194"/>
+      <c r="B39" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C39" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="103" t="s">
+      <c r="D39" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="188"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="190"/>
     </row>
     <row r="41" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="135" t="s">
+      <c r="C41" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="190"/>
     </row>
     <row r="43" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="202" t="s">
+      <c r="A43" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="103" t="s">
+      <c r="D43" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="203"/>
-      <c r="B44" s="176" t="s">
+      <c r="A44" s="199"/>
+      <c r="B44" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="135" t="s">
+      <c r="C44" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D44" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="95" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="204"/>
-      <c r="B45" s="175" t="s">
+      <c r="A45" s="200"/>
+      <c r="B45" s="172" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="135" t="s">
+      <c r="C45" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="164"/>
-      <c r="E45" s="116"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="113"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="200" t="s">
+      <c r="A47" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="135" t="s">
+      <c r="C47" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="98" t="s">
+      <c r="E47" s="95" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="200"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="195"/>
+      <c r="B48" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="135" t="s">
+      <c r="C48" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="95" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="200"/>
-      <c r="B49" s="92" t="s">
+      <c r="A49" s="195"/>
+      <c r="B49" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="98" t="s">
+      <c r="E49" s="95" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="135" t="s">
+      <c r="C50" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="98" t="s">
+      <c r="D50" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="98" t="s">
+      <c r="E50" s="95" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="187"/>
-      <c r="C51" s="187"/>
-      <c r="D51" s="187"/>
-      <c r="E51" s="188"/>
-    </row>
-    <row r="52" spans="1:5" s="99" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="196" t="s">
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="190"/>
+    </row>
+    <row r="52" spans="1:5" s="96" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="135" t="s">
+      <c r="C52" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="98" t="s">
+      <c r="D52" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="99" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196"/>
-      <c r="B53" s="100" t="s">
+    <row r="53" spans="1:5" s="96" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="191"/>
+      <c r="B53" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="135" t="s">
+      <c r="C53" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="98" t="s">
+      <c r="D53" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="98" t="s">
+      <c r="E53" s="95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="99" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="196"/>
-      <c r="B54" s="97" t="s">
+    <row r="54" spans="1:5" s="96" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="191"/>
+      <c r="B54" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="98" t="s">
+      <c r="D54" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="98" t="s">
+      <c r="E54" s="95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="99" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="196"/>
-      <c r="B55" s="101" t="s">
+    <row r="55" spans="1:5" s="96" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="191"/>
+      <c r="B55" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="135" t="s">
+      <c r="C55" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="98" t="s">
+      <c r="D55" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="98" t="s">
+      <c r="E55" s="95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="99" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="196"/>
-      <c r="B56" s="100" t="s">
+    <row r="56" spans="1:5" s="96" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="191"/>
+      <c r="B56" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="98" t="s">
+      <c r="D56" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="98" t="s">
+      <c r="E56" s="95" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{98394013-72EF-49FD-9276-6D8C15A8A250}"/>
   <mergeCells count="22">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A15:A23"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A6:E6"/>
@@ -7359,136 +7307,130 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A15:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="192" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="191" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="notContainsBlanks" dxfId="190" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="187" priority="33">
       <formula>LEN(TRIM(Q31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="notContainsBlanks" dxfId="189" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="186" priority="32">
       <formula>LEN(TRIM(S31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="notContainsBlanks" dxfId="188" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="185" priority="31">
       <formula>LEN(TRIM(S31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="187" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:O31">
-    <cfRule type="cellIs" dxfId="186" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:O31">
-    <cfRule type="cellIs" dxfId="185" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:O31">
-    <cfRule type="expression" dxfId="184" priority="26">
+    <cfRule type="expression" dxfId="181" priority="26">
       <formula>F33&gt;F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="183" priority="19">
+    <cfRule type="expression" dxfId="180" priority="19">
       <formula>(F35+F36)&gt;F31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="20">
+    <cfRule type="expression" dxfId="179" priority="20">
       <formula>F33&gt;F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="181" priority="17">
+    <cfRule type="expression" dxfId="178" priority="17">
       <formula>(G35+G36)&gt;G31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="18">
+    <cfRule type="expression" dxfId="177" priority="18">
       <formula>G33&gt;G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="179" priority="15">
+    <cfRule type="expression" dxfId="176" priority="15">
       <formula>(H35+H36)&gt;H31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="16">
+    <cfRule type="expression" dxfId="175" priority="16">
       <formula>H33&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="177" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>(I35+I36)&gt;I31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="14">
+    <cfRule type="expression" dxfId="173" priority="14">
       <formula>I33&gt;I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="175" priority="11">
+    <cfRule type="expression" dxfId="172" priority="11">
       <formula>(J35+J36)&gt;J31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="12">
+    <cfRule type="expression" dxfId="171" priority="12">
       <formula>J33&gt;J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="173" priority="9">
+    <cfRule type="expression" dxfId="170" priority="9">
       <formula>(K35+K36)&gt;K31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="10">
+    <cfRule type="expression" dxfId="169" priority="10">
       <formula>K33&gt;K31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="171" priority="7">
+    <cfRule type="expression" dxfId="168" priority="7">
       <formula>(L35+L36)&gt;L31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="8">
+    <cfRule type="expression" dxfId="167" priority="8">
       <formula>L33&gt;L31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="169" priority="5">
+    <cfRule type="expression" dxfId="166" priority="5">
       <formula>(M35+M36)&gt;M31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="6">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>M33&gt;M31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="167" priority="3">
+    <cfRule type="expression" dxfId="164" priority="3">
       <formula>(N35+N36)&gt;N31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="163" priority="4">
       <formula>N33&gt;N31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>(O35+O36)&gt;O31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="2">
+    <cfRule type="expression" dxfId="161" priority="2">
       <formula>O33&gt;O31</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7510,18 +7452,18 @@
   </sheetPr>
   <dimension ref="A1:AH120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="47" zoomScaleNormal="47" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="49" zoomScaleNormal="49" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A32" sqref="A32:E32"/>
       <selection pane="topRight" activeCell="A32" sqref="A32:E32"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:E32"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="78" style="71" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="158.28515625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="152.7109375" style="35" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="15" width="7.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
@@ -7538,66 +7480,66 @@
       <c r="A1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="289" t="s">
+      <c r="C1" s="255"/>
+      <c r="D1" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="290"/>
-      <c r="F1" s="275" t="s">
+      <c r="E1" s="257"/>
+      <c r="F1" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="276"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="289" t="s">
+      <c r="G1" s="242"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="290"/>
+      <c r="L1" s="257"/>
       <c r="M1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="275">
+      <c r="O1" s="241">
         <v>2020</v>
       </c>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="284" t="s">
+      <c r="P1" s="242"/>
+      <c r="Q1" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="285"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
       <c r="U1" s="51">
         <v>0</v>
       </c>
       <c r="V1" s="44"/>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="34.35" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
       <c r="R2" s="28"/>
       <c r="U2" s="51">
         <v>1</v>
@@ -7636,109 +7578,109 @@
       <c r="V3" s="45"/>
     </row>
     <row r="4" spans="1:22" s="13" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="258" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="292"/>
-      <c r="C4" s="277" t="s">
+      <c r="B4" s="259"/>
+      <c r="C4" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
       <c r="U4" s="51">
         <v>3</v>
       </c>
       <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="280" t="s">
+      <c r="A5" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="281"/>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="281"/>
-      <c r="R5" s="282"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="283"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="248"/>
+      <c r="S5" s="247"/>
+      <c r="T5" s="249"/>
       <c r="U5" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256" t="s">
+      <c r="D6" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="256"/>
-      <c r="J6" s="261" t="s">
+      <c r="I6" s="253"/>
+      <c r="J6" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="262"/>
-      <c r="L6" s="256" t="s">
+      <c r="K6" s="270"/>
+      <c r="L6" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256" t="s">
+      <c r="M6" s="253"/>
+      <c r="N6" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="256"/>
-      <c r="P6" s="259" t="s">
+      <c r="O6" s="253"/>
+      <c r="P6" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="257" t="s">
+      <c r="Q6" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="263" t="s">
+      <c r="R6" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="265" t="s">
+      <c r="S6" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="278" t="s">
+      <c r="T6" s="244" t="s">
         <v>20</v>
       </c>
       <c r="U6" s="52">
@@ -7747,88 +7689,88 @@
       <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="272"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="177" t="s">
+      <c r="A7" s="280"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="177" t="s">
+      <c r="H7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="177" t="s">
+      <c r="I7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="177" t="s">
+      <c r="J7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="177" t="s">
+      <c r="L7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="177" t="s">
+      <c r="M7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="177" t="s">
+      <c r="N7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="177" t="s">
+      <c r="O7" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="266"/>
-      <c r="T7" s="279"/>
+      <c r="P7" s="268"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="274"/>
+      <c r="T7" s="245"/>
       <c r="U7" s="52">
         <v>20</v>
       </c>
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="284" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="328" t="s">
+      <c r="B8" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="106" t="str">
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="103" t="str">
         <f>CONCATENATE(IF(P8&lt;P13," * TX_Curr Q3 FY 20 FPT01-01 "&amp;$P$6&amp;" should not be more than TX_Curr reviewed FPT01-05 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R8" s="237" t="str">
+      <c r="R8" s="289" t="str">
         <f>CONCATENATE(Q8,Q10,Q11,Q9,Q13,Q15,Q16)</f>
         <v/>
       </c>
       <c r="S8" s="22"/>
-      <c r="T8" s="205" t="str">
+      <c r="T8" s="292" t="str">
         <f>CONCATENATE(S16,S15,S14,S13,S12,S11,S10,S9,S8)</f>
         <v/>
       </c>
@@ -7837,139 +7779,139 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="233"/>
-      <c r="B9" s="329" t="s">
+      <c r="A9" s="281"/>
+      <c r="B9" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="106" t="str">
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="103" t="str">
         <f>CONCATENATE(IF(P9&lt;P14," * TX_Curr BaselineFPT01-02 "&amp;$P$6&amp;" should be more than or equal to TX_Curr reviewed FPT01-06 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R9" s="238"/>
+      <c r="R9" s="290"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="206"/>
+      <c r="T9" s="293"/>
       <c r="U9" s="52">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="233"/>
-      <c r="B10" s="329" t="s">
+      <c r="A10" s="281"/>
+      <c r="B10" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="106" t="str">
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="103" t="str">
         <f>CONCATENATE(IF(P10&lt;P15," * TX_Curr baseline FPT01-03 "&amp;$P$6&amp;" should be more than or equal to TX_Curr reviewed FPT01-07 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R10" s="238"/>
+      <c r="R10" s="290"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="206"/>
+      <c r="T10" s="293"/>
       <c r="U10" s="52">
         <v>23</v>
       </c>
       <c r="V10" s="48"/>
     </row>
     <row r="11" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="233"/>
-      <c r="B11" s="120" t="s">
+      <c r="A11" s="281"/>
+      <c r="B11" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="124">
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121">
         <f t="shared" ref="P11" si="0">P8+P9+P10</f>
         <v>0</v>
       </c>
       <c r="Q11" s="62"/>
-      <c r="R11" s="238"/>
+      <c r="R11" s="290"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="206"/>
+      <c r="T11" s="293"/>
       <c r="U11" s="52">
         <v>17</v>
       </c>
       <c r="V11" s="47"/>
     </row>
     <row r="12" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="247"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="247"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="248"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="206"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="302"/>
+      <c r="O12" s="302"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="290"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="293"/>
       <c r="U12" s="52">
         <v>18</v>
       </c>
       <c r="V12" s="47"/>
     </row>
     <row r="13" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="330" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="116" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="43"/>
@@ -7984,22 +7926,22 @@
       <c r="M13" s="37"/>
       <c r="N13" s="43"/>
       <c r="O13" s="37"/>
-      <c r="P13" s="326"/>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="238"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="306"/>
+      <c r="R13" s="290"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="206"/>
+      <c r="T13" s="293"/>
       <c r="U13" s="52">
         <v>25</v>
       </c>
       <c r="V13" s="49"/>
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="233"/>
-      <c r="B14" s="330" t="s">
+      <c r="A14" s="281"/>
+      <c r="B14" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="116" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="26"/>
@@ -8014,22 +7956,22 @@
       <c r="M14" s="36"/>
       <c r="N14" s="26"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="327"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="238"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="306"/>
+      <c r="R14" s="290"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="206"/>
+      <c r="T14" s="293"/>
       <c r="U14" s="52">
         <v>26</v>
       </c>
       <c r="V14" s="49"/>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="233"/>
-      <c r="B15" s="330" t="s">
+      <c r="A15" s="281"/>
+      <c r="B15" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="116" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="26"/>
@@ -8044,69 +7986,69 @@
       <c r="M15" s="36"/>
       <c r="N15" s="26"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="327"/>
+      <c r="P15" s="183"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="238"/>
+      <c r="R15" s="290"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="206"/>
+      <c r="T15" s="293"/>
       <c r="U15" s="52">
         <v>27</v>
       </c>
       <c r="V15" s="49"/>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="233"/>
-      <c r="B16" s="120" t="s">
+      <c r="A16" s="281"/>
+      <c r="B16" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124">
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121">
         <f t="shared" ref="P16" si="1">P13+P14+P15</f>
         <v>0</v>
       </c>
       <c r="Q16" s="20"/>
-      <c r="R16" s="239"/>
+      <c r="R16" s="291"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="207"/>
+      <c r="T16" s="294"/>
       <c r="U16" s="52">
         <v>28</v>
       </c>
       <c r="V16" s="49"/>
     </row>
     <row r="17" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="301" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
-      <c r="N17" s="247"/>
-      <c r="O17" s="247"/>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="105"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302"/>
+      <c r="M17" s="302"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="102"/>
       <c r="R17" s="60"/>
       <c r="S17" s="64"/>
       <c r="T17" s="61"/>
@@ -8116,28 +8058,28 @@
       <c r="V17" s="47"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="233" t="s">
+      <c r="A18" s="281" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="145" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="148">
+      <c r="D18" s="143"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145">
         <f>SUM(D18:O18)</f>
         <v>0</v>
       </c>
@@ -8145,194 +8087,194 @@
         <f>CONCATENATE(IF(D23&gt;D18," * Known Status from WLHIV FPT01-13 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(E23&gt;E18," * Known Status from WLHIV FPT01-13 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(F23&gt;F18," * Known Status from WLHIV FPT01-13 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(G23&gt;G18," * Known Status from WLHIV FPT01-13 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(H23&gt;H18," * Known Status from WLHIV FPT01-13 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(I23&gt;I18," * Known Status from WLHIV FPT01-13 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(J23&gt;J18," * Known Status from WLHIV FPT01-13 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(K23&gt;K18," * Known Status from WLHIV FPT01-13 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(L23&gt;L18," * Known Status from WLHIV FPT01-13 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(M23&gt;M18," * Known Status from WLHIV FPT01-13 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(N23&gt;N18," * Known Status from WLHIV FPT01-13 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(O23&gt;O18," * Known Status from WLHIV FPT01-13 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R18" s="208" t="str">
+      <c r="R18" s="286" t="str">
         <f>CONCATENATE(Q18,Q19,Q20,Q21,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31)</f>
         <v/>
       </c>
       <c r="S18" s="39"/>
-      <c r="T18" s="240"/>
+      <c r="T18" s="295"/>
       <c r="U18" s="52">
         <v>29</v>
       </c>
       <c r="V18" s="49"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="233"/>
-      <c r="B19" s="113" t="s">
+      <c r="A19" s="281"/>
+      <c r="B19" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130">
+      <c r="D19" s="146"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127">
         <f>SUM(D19:O19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="108" t="str">
+      <c r="Q19" s="105" t="str">
         <f>CONCATENATE(IF(D26&gt;D19," * Known Status from MLHIV FPT01-16 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(E26&gt;E19," * Known Status from MLHIV FPT01-16 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(F26&gt;F19," * Known Status from MLHIV FPT01-16 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(G26&gt;G19," * Known Status from MLHIV FPT01-16 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(H26&gt;H19," * Known Status from MLHIV FPT01-16 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(I26&gt;I19," * Known Status from MLHIV FPT01-16 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(J26&gt;J19," * Known Status from MLHIV FPT01-16 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(K26&gt;K19," * Known Status from MLHIV FPT01-16 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(L26&gt;L19," * Known Status from MLHIV FPT01-16 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(M26&gt;M19," * Known Status from MLHIV FPT01-16 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(N26&gt;N19," * Known Status from MLHIV FPT01-16 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(O26&gt;O19," * Known Status from MLHIV FPT01-16 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R19" s="235"/>
+      <c r="R19" s="287"/>
       <c r="S19" s="39"/>
-      <c r="T19" s="241"/>
+      <c r="T19" s="296"/>
       <c r="U19" s="52">
         <v>30</v>
       </c>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="233"/>
-      <c r="B20" s="114" t="s">
+      <c r="A20" s="281"/>
+      <c r="B20" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="324"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="325"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
-      <c r="N20" s="325"/>
-      <c r="O20" s="325"/>
-      <c r="P20" s="130">
+      <c r="D20" s="180"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="127">
         <f>SUM(D20:O20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="106" t="str">
+      <c r="Q20" s="103" t="str">
         <f>CONCATENATE(IF(D29&gt;D20," * Known Status from C/ALHIV FPT01-19 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(E29&gt;E20," * Known Status from C/ALHIV FPT01-19 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(F29&gt;F20," * Known Status from C/ALHIV FPT01-19 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(G29&gt;G20," * Known Status from C/ALHIV FPT01-19 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(H29&gt;H20," * Known Status from C/ALHIV FPT01-19 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(I29&gt;I20," * Known Status from C/ALHIV FPT01-19 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(J29&gt;J20," * Known Status from C/ALHIV FPT01-19 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(K29&gt;K20," * Known Status from C/ALHIV FPT01-19 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(L29&gt;L20," * Known Status from C/ALHIV FPT01-19 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(M29&gt;M20," * Known Status from C/ALHIV FPT01-19 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(N29&gt;N20," * Known Status from C/ALHIV FPT01-19 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(O29&gt;O20," * Known Status from C/ALHIV FPT01-19 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R20" s="235"/>
+      <c r="R20" s="287"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="241"/>
+      <c r="T20" s="296"/>
       <c r="U20" s="52">
         <v>31</v>
       </c>
       <c r="V20" s="49"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="233"/>
-      <c r="B21" s="120" t="s">
+      <c r="A21" s="281"/>
+      <c r="B21" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="128">
         <f t="shared" ref="D21:O21" si="2">D18+D19+D20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="132">
+      <c r="E21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="132">
+      <c r="G21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="132">
+      <c r="I21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="132">
+      <c r="J21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="132">
+      <c r="K21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="132">
+      <c r="L21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="132">
+      <c r="M21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="132">
+      <c r="N21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="132">
+      <c r="O21" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="133">
+      <c r="P21" s="130">
         <f>P18+P19+P20</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="235"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="287"/>
       <c r="S21" s="39"/>
-      <c r="T21" s="241"/>
+      <c r="T21" s="296"/>
       <c r="U21" s="52">
         <v>32</v>
       </c>
       <c r="V21" s="49"/>
     </row>
     <row r="22" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="246" t="s">
+      <c r="A22" s="301" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="247"/>
-      <c r="C22" s="247"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="249"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="241"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="304"/>
+      <c r="K22" s="304"/>
+      <c r="L22" s="304"/>
+      <c r="M22" s="304"/>
+      <c r="N22" s="304"/>
+      <c r="O22" s="304"/>
+      <c r="P22" s="305"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="287"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="296"/>
       <c r="U22" s="52">
         <v>18</v>
       </c>
       <c r="V22" s="47"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="33.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="243" t="s">
+      <c r="A23" s="298" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="124" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="67">
@@ -8383,87 +8325,87 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="144">
+      <c r="P23" s="141">
         <f>SUM(D23:O23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="235"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="287"/>
       <c r="S23" s="39"/>
-      <c r="T23" s="241"/>
+      <c r="T23" s="296"/>
       <c r="U23" s="52">
         <v>29</v>
       </c>
       <c r="V23" s="49"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="244"/>
-      <c r="B24" s="109" t="s">
+      <c r="A24" s="299"/>
+      <c r="B24" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="144">
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="141">
         <f t="shared" ref="P24:P31" si="4">SUM(D24:O24)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="235"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="287"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="241"/>
+      <c r="T24" s="296"/>
       <c r="U24" s="52"/>
       <c r="V24" s="49"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="244"/>
-      <c r="B25" s="109" t="s">
+      <c r="A25" s="299"/>
+      <c r="B25" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="144">
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="235"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="287"/>
       <c r="S25" s="39"/>
-      <c r="T25" s="241"/>
+      <c r="T25" s="296"/>
       <c r="U25" s="52"/>
       <c r="V25" s="49"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="244"/>
-      <c r="B26" s="111" t="s">
+      <c r="A26" s="299"/>
+      <c r="B26" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="124" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="67">
@@ -8514,87 +8456,87 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="144">
+      <c r="P26" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="235"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="287"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="241"/>
+      <c r="T26" s="296"/>
       <c r="U26" s="52">
         <v>30</v>
       </c>
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="244"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="299"/>
+      <c r="B27" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="144">
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="235"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="287"/>
       <c r="S27" s="39"/>
-      <c r="T27" s="241"/>
+      <c r="T27" s="296"/>
       <c r="U27" s="52"/>
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="244"/>
-      <c r="B28" s="109" t="s">
+      <c r="A28" s="299"/>
+      <c r="B28" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="144">
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="235"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="287"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="241"/>
+      <c r="T28" s="296"/>
       <c r="U28" s="52"/>
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="244"/>
-      <c r="B29" s="111" t="s">
+      <c r="A29" s="299"/>
+      <c r="B29" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="124" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="67">
@@ -8645,89 +8587,89 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="144">
+      <c r="P29" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="235"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="287"/>
       <c r="S29" s="39"/>
-      <c r="T29" s="241"/>
+      <c r="T29" s="296"/>
       <c r="U29" s="52">
         <v>31</v>
       </c>
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="244"/>
-      <c r="B30" s="109" t="s">
+      <c r="A30" s="299"/>
+      <c r="B30" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="144">
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="235"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="287"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="241"/>
+      <c r="T30" s="296"/>
       <c r="U30" s="52"/>
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="245"/>
-      <c r="B31" s="109" t="s">
+      <c r="A31" s="300"/>
+      <c r="B31" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="144">
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="235"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="287"/>
       <c r="S31" s="39"/>
-      <c r="T31" s="241"/>
+      <c r="T31" s="296"/>
       <c r="U31" s="52"/>
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="298" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="124" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="67">
@@ -8782,21 +8724,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="235"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="287"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="241"/>
+      <c r="T32" s="296"/>
       <c r="U32" s="52">
         <v>29</v>
       </c>
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="244"/>
+      <c r="A33" s="299"/>
       <c r="B33" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="67">
@@ -8851,21 +8793,21 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="235"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="287"/>
       <c r="S33" s="39"/>
-      <c r="T33" s="241"/>
+      <c r="T33" s="296"/>
       <c r="U33" s="52">
         <v>30</v>
       </c>
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22" s="7" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="245"/>
-      <c r="B34" s="110" t="s">
+      <c r="A34" s="300"/>
+      <c r="B34" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="124" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="67">
@@ -8920,17 +8862,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="236"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="288"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="242"/>
+      <c r="T34" s="297"/>
       <c r="U34" s="52">
         <v>32</v>
       </c>
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="154" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="67"/>
@@ -8958,13 +8900,13 @@
       <c r="V35" s="47"/>
     </row>
     <row r="36" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="284" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="127" t="s">
+      <c r="B36" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="124" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="67">
@@ -9019,24 +8961,24 @@
         <f>SUM(D36:O36)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="208" t="str">
+      <c r="Q36" s="103"/>
+      <c r="R36" s="286" t="str">
         <f>CONCATENATE(Q36,Q37,Q38,Q39,Q41,Q43,Q44)</f>
         <v/>
       </c>
       <c r="S36" s="39"/>
-      <c r="T36" s="250"/>
+      <c r="T36" s="260"/>
       <c r="U36" s="52">
         <v>29</v>
       </c>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:22" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="233"/>
-      <c r="B37" s="137" t="s">
+    <row r="37" spans="1:22" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="281"/>
+      <c r="B37" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="124" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="67">
@@ -9091,21 +9033,21 @@
         <f>SUM(D37:O37)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="235"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="287"/>
       <c r="S37" s="39"/>
-      <c r="T37" s="251"/>
+      <c r="T37" s="261"/>
       <c r="U37" s="52">
         <v>30</v>
       </c>
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="233"/>
-      <c r="B38" s="137" t="s">
+      <c r="A38" s="281"/>
+      <c r="B38" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="124" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="67">
@@ -9160,21 +9102,21 @@
         <f>SUM(D38:O38)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="235"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="287"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="251"/>
+      <c r="T38" s="261"/>
       <c r="U38" s="52">
         <v>31</v>
       </c>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="234"/>
+      <c r="A39" s="285"/>
       <c r="B39" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="124" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="67">
@@ -9229,51 +9171,51 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="235"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="287"/>
       <c r="S39" s="39"/>
-      <c r="T39" s="251"/>
+      <c r="T39" s="261"/>
       <c r="U39" s="52">
         <v>32</v>
       </c>
       <c r="V39" s="49"/>
     </row>
     <row r="40" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="217" t="s">
+      <c r="A40" s="315" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="218"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-      <c r="O40" s="218"/>
-      <c r="P40" s="219"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="235"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="251"/>
+      <c r="B40" s="316"/>
+      <c r="C40" s="316"/>
+      <c r="D40" s="316"/>
+      <c r="E40" s="316"/>
+      <c r="F40" s="316"/>
+      <c r="G40" s="316"/>
+      <c r="H40" s="316"/>
+      <c r="I40" s="316"/>
+      <c r="J40" s="316"/>
+      <c r="K40" s="316"/>
+      <c r="L40" s="316"/>
+      <c r="M40" s="316"/>
+      <c r="N40" s="316"/>
+      <c r="O40" s="316"/>
+      <c r="P40" s="317"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="287"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="261"/>
       <c r="U40" s="52">
         <v>18</v>
       </c>
       <c r="V40" s="47"/>
     </row>
     <row r="41" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="331" t="s">
+      <c r="A41" s="187" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="115" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="38"/>
@@ -9292,54 +9234,54 @@
         <f>SUM(D41:O41)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="86" t="str">
+      <c r="Q41" s="83" t="str">
         <f>CONCATENATE(IF(D41&gt;D39," * Enrolled in OVC Program FPT01-29 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(E41&gt;E39," * Enrolled in OVC Program FPT01-29 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(F41&gt;F39," * Enrolled in OVC Program FPT01-29 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(G41&gt;G39," * Enrolled in OVC Program FPT01-29 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(H41&gt;H39," * Enrolled in OVC Program FPT01-29 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(I41&gt;I39," * Enrolled in OVC Program FPT01-29 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(J41&gt;J39," * Enrolled in OVC Program FPT01-29 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(K41&gt;K39," * Enrolled in OVC Program FPT01-29 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(L41&gt;L39," * Enrolled in OVC Program FPT01-29 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(M41&gt;M39," * Enrolled in OVC Program FPT01-29 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(N41&gt;N39," * Enrolled in OVC Program FPT01-29 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(O41&gt;O39," * Enrolled in OVC Program FPT01-29 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R41" s="235"/>
+      <c r="R41" s="287"/>
       <c r="S41" s="39"/>
-      <c r="T41" s="251"/>
+      <c r="T41" s="261"/>
       <c r="U41" s="52">
         <v>29</v>
       </c>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="217" t="s">
+      <c r="A42" s="315" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
-      <c r="O42" s="218"/>
-      <c r="P42" s="219"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="235"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="251"/>
+      <c r="B42" s="316"/>
+      <c r="C42" s="316"/>
+      <c r="D42" s="316"/>
+      <c r="E42" s="316"/>
+      <c r="F42" s="316"/>
+      <c r="G42" s="316"/>
+      <c r="H42" s="316"/>
+      <c r="I42" s="316"/>
+      <c r="J42" s="316"/>
+      <c r="K42" s="316"/>
+      <c r="L42" s="316"/>
+      <c r="M42" s="316"/>
+      <c r="N42" s="316"/>
+      <c r="O42" s="316"/>
+      <c r="P42" s="317"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="287"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="261"/>
       <c r="U42" s="52">
         <v>18</v>
       </c>
       <c r="V42" s="47"/>
     </row>
     <row r="43" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="254" t="s">
+      <c r="A43" s="263" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="115" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="38"/>
@@ -9358,24 +9300,24 @@
         <f>SUM(D43:O43)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="86" t="str">
+      <c r="Q43" s="83" t="str">
         <f>CONCATENATE(IF(D43+D44&gt;D39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(E43+E44&gt;E39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(F43+F44&gt;F39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(G43+G44&gt;G39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(H43+H44&gt;H39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(I43+I44&gt;I39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(J43+J44&gt;J39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(K43+K44&gt;K39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(L43+L44&gt;L39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(M43+M44&gt;M39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(N43+N44&gt;N39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(O43+O44&gt;O39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R43" s="235"/>
+      <c r="R43" s="287"/>
       <c r="S43" s="39"/>
-      <c r="T43" s="251"/>
+      <c r="T43" s="261"/>
       <c r="U43" s="52">
         <v>31</v>
       </c>
       <c r="V43" s="49"/>
     </row>
     <row r="44" spans="1:22" s="7" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="255"/>
+      <c r="A44" s="264"/>
       <c r="B44" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="115" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="38"/>
@@ -9394,34 +9336,34 @@
         <f>SUM(D44:O44)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="236"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="288"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="252"/>
+      <c r="T44" s="262"/>
       <c r="U44" s="52">
         <v>32</v>
       </c>
       <c r="V44" s="49"/>
     </row>
     <row r="45" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="315" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="218"/>
-      <c r="D45" s="218"/>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="218"/>
-      <c r="I45" s="218"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="218"/>
-      <c r="L45" s="218"/>
-      <c r="M45" s="218"/>
-      <c r="N45" s="218"/>
-      <c r="O45" s="218"/>
-      <c r="P45" s="219"/>
+      <c r="B45" s="316"/>
+      <c r="C45" s="316"/>
+      <c r="D45" s="316"/>
+      <c r="E45" s="316"/>
+      <c r="F45" s="316"/>
+      <c r="G45" s="316"/>
+      <c r="H45" s="316"/>
+      <c r="I45" s="316"/>
+      <c r="J45" s="316"/>
+      <c r="K45" s="316"/>
+      <c r="L45" s="316"/>
+      <c r="M45" s="316"/>
+      <c r="N45" s="316"/>
+      <c r="O45" s="316"/>
+      <c r="P45" s="317"/>
       <c r="Q45" s="64"/>
       <c r="R45" s="60"/>
       <c r="S45" s="64"/>
@@ -9432,13 +9374,13 @@
       <c r="V45" s="47"/>
     </row>
     <row r="46" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="273" t="s">
+      <c r="A46" s="282" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="115" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="38"/>
@@ -9457,16 +9399,16 @@
         <f>SUM(D46:O46)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="150" t="str">
+      <c r="Q46" s="147" t="str">
         <f>CONCATENATE(IF(D46&gt;D43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(E46&gt;E43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(F46&gt;F43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(G46&gt;G43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(H46&gt;H43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(I46&gt;I43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(J46&gt;J43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(K46&gt;K43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(L46&gt;L43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(M46&gt;M43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(N46&gt;N43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(O46&gt;O43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R46" s="229" t="str">
+      <c r="R46" s="326" t="str">
         <f>CONCATENATE(Q46,Q47,Q49)</f>
         <v/>
       </c>
       <c r="S46" s="18"/>
-      <c r="T46" s="250" t="str">
+      <c r="T46" s="260" t="str">
         <f>CONCATENATE(S49,S51,S52,S55,S56)</f>
         <v/>
       </c>
@@ -9475,11 +9417,11 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="274"/>
+      <c r="A47" s="283"/>
       <c r="B47" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="118" t="s">
+      <c r="C47" s="115" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="38"/>
@@ -9498,40 +9440,40 @@
         <f>SUM(D47:O47)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="150" t="str">
+      <c r="Q47" s="147" t="str">
         <f>CONCATENATE(IF(D47&gt;D44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(E47&gt;E44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(F47&gt;F44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(G47&gt;G44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(H47&gt;H44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(I47&gt;I44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(J47&gt;J44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(K47&gt;K44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(L47&gt;L44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(M47&gt;M44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(N47&gt;N44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(O47&gt;O44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R47" s="230"/>
+      <c r="R47" s="327"/>
       <c r="S47" s="18"/>
-      <c r="T47" s="251"/>
+      <c r="T47" s="261"/>
       <c r="U47" s="52">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="220" t="s">
+      <c r="A48" s="318" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="218"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="218"/>
-      <c r="E48" s="218"/>
-      <c r="F48" s="218"/>
-      <c r="G48" s="218"/>
-      <c r="H48" s="218"/>
-      <c r="I48" s="218"/>
-      <c r="J48" s="218"/>
-      <c r="K48" s="218"/>
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
-      <c r="O48" s="218"/>
-      <c r="P48" s="219"/>
+      <c r="B48" s="316"/>
+      <c r="C48" s="316"/>
+      <c r="D48" s="316"/>
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="316"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="316"/>
+      <c r="K48" s="316"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="316"/>
+      <c r="N48" s="316"/>
+      <c r="O48" s="316"/>
+      <c r="P48" s="317"/>
       <c r="Q48" s="64"/>
-      <c r="R48" s="230"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="251"/>
+      <c r="R48" s="327"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="261"/>
       <c r="U48" s="52">
         <v>18</v>
       </c>
@@ -9544,7 +9486,7 @@
       <c r="B49" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="115" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="38"/>
@@ -9563,37 +9505,37 @@
         <f>SUM(D49:O49)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="151" t="str">
+      <c r="Q49" s="148" t="str">
         <f>CONCATENATE(IF(D46+D47&lt;D49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(E46+E47&lt;E49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(F46+F47&lt;F49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(G46+G47&lt;G49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(H46+H47&lt;H49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(I46+I47&lt;I49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(J46+J47&lt;J49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(K46+K47&lt;K49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(L46+L47&lt;L49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(M46+M47&lt;M49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(N46+N47&lt;N49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$N$6&amp;" "&amp;$N$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(O46+O47&lt;O49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$N$6&amp;" "&amp;$O$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R49" s="231"/>
+      <c r="R49" s="328"/>
       <c r="S49" s="18"/>
-      <c r="T49" s="252"/>
+      <c r="T49" s="262"/>
       <c r="U49" s="52">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="220" t="s">
+      <c r="A50" s="318" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="218"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="218"/>
-      <c r="J50" s="218"/>
-      <c r="K50" s="218"/>
-      <c r="L50" s="218"/>
-      <c r="M50" s="218"/>
-      <c r="N50" s="218"/>
-      <c r="O50" s="218"/>
-      <c r="P50" s="219"/>
-      <c r="Q50" s="162"/>
+      <c r="B50" s="316"/>
+      <c r="C50" s="316"/>
+      <c r="D50" s="316"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="316"/>
+      <c r="G50" s="316"/>
+      <c r="H50" s="316"/>
+      <c r="I50" s="316"/>
+      <c r="J50" s="316"/>
+      <c r="K50" s="316"/>
+      <c r="L50" s="316"/>
+      <c r="M50" s="316"/>
+      <c r="N50" s="316"/>
+      <c r="O50" s="316"/>
+      <c r="P50" s="317"/>
+      <c r="Q50" s="159"/>
       <c r="R50" s="60"/>
       <c r="S50" s="64"/>
       <c r="T50" s="61"/>
@@ -9603,13 +9545,13 @@
       <c r="V50" s="47"/>
     </row>
     <row r="51" spans="1:22" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="320" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="118" t="s">
+      <c r="C51" s="115" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="38"/>
@@ -9624,12 +9566,12 @@
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
       <c r="O51" s="38"/>
-      <c r="P51" s="159">
+      <c r="P51" s="156">
         <f>SUM(D51:O51)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="158"/>
-      <c r="R51" s="205" t="str">
+      <c r="Q51" s="155"/>
+      <c r="R51" s="292" t="str">
         <f>CONCATENATE(Q51,Q52,Q53)</f>
         <v/>
       </c>
@@ -9640,31 +9582,31 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="224"/>
-      <c r="B52" s="154" t="s">
+      <c r="A52" s="321"/>
+      <c r="B52" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="160">
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="150"/>
+      <c r="P52" s="157">
         <f>SUM(D52:O52)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="158"/>
-      <c r="R52" s="206"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="293"/>
       <c r="S52" s="18"/>
       <c r="T52" s="65"/>
       <c r="U52" s="52">
@@ -9672,94 +9614,94 @@
       </c>
     </row>
     <row r="53" spans="1:22" s="32" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="225"/>
-      <c r="B53" s="155" t="s">
+      <c r="A53" s="322"/>
+      <c r="B53" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="156">
+      <c r="D53" s="153">
         <f>D51+D52</f>
         <v>0</v>
       </c>
-      <c r="E53" s="156">
+      <c r="E53" s="153">
         <f t="shared" ref="E53:P53" si="14">E51+E52</f>
         <v>0</v>
       </c>
-      <c r="F53" s="156">
+      <c r="F53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G53" s="156">
+      <c r="G53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H53" s="156">
+      <c r="H53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I53" s="156">
+      <c r="I53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J53" s="156">
+      <c r="J53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K53" s="156">
+      <c r="K53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L53" s="156">
+      <c r="L53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M53" s="156">
+      <c r="M53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N53" s="156">
+      <c r="N53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O53" s="156">
+      <c r="O53" s="153">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P53" s="161">
+      <c r="P53" s="158">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="158" t="str">
+      <c r="Q53" s="155" t="str">
         <f>CONCATENATE(IF(D53&gt;D49," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(E53&gt;E49," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(F53&gt;F49," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(G53&gt;G49," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(H53&gt;H49," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(I53&gt;I49," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(J53&gt;J49," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(K53&gt;K49," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(L53&gt;L49," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(M53&gt;M49," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(N53&gt;N49," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(O53&gt;O49," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R53" s="207"/>
+      <c r="R53" s="294"/>
       <c r="S53" s="58"/>
-      <c r="T53" s="152"/>
+      <c r="T53" s="149"/>
       <c r="U53" s="52"/>
       <c r="V53" s="47"/>
     </row>
     <row r="54" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="217" t="s">
+      <c r="A54" s="315" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="218"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="221"/>
-      <c r="E54" s="221"/>
-      <c r="F54" s="221"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
-      <c r="J54" s="221"/>
-      <c r="K54" s="221"/>
-      <c r="L54" s="221"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="221"/>
-      <c r="O54" s="221"/>
-      <c r="P54" s="222"/>
+      <c r="B54" s="316"/>
+      <c r="C54" s="316"/>
+      <c r="D54" s="304"/>
+      <c r="E54" s="304"/>
+      <c r="F54" s="304"/>
+      <c r="G54" s="304"/>
+      <c r="H54" s="304"/>
+      <c r="I54" s="304"/>
+      <c r="J54" s="304"/>
+      <c r="K54" s="304"/>
+      <c r="L54" s="304"/>
+      <c r="M54" s="304"/>
+      <c r="N54" s="304"/>
+      <c r="O54" s="304"/>
+      <c r="P54" s="319"/>
       <c r="Q54" s="64"/>
       <c r="R54" s="60"/>
       <c r="S54" s="64"/>
@@ -9770,27 +9712,27 @@
       <c r="V54" s="47"/>
     </row>
     <row r="55" spans="1:22" ht="48.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="211" t="s">
+      <c r="A55" s="309" t="s">
         <v>105</v>
       </c>
       <c r="B55" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
       <c r="P55" s="67">
         <f>SUM(D55:O55)</f>
         <v>0</v>
@@ -9799,7 +9741,7 @@
         <f>CONCATENATE(IF((D55+D56+D57)&lt;&gt;D53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$D$6&amp;" "&amp;$D$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((E55+E56+E57)&lt;&gt;E53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$D$6&amp;" "&amp;$E$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((F55+F56+F57)&lt;&gt;F53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$F$6&amp;" "&amp;$F$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((G55+G56+G57)&lt;&gt;G53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$F$6&amp;" "&amp;$G$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((H55+H56+H57)&lt;&gt;H53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$H$6&amp;" "&amp;$H$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((I55+I56+I57)&lt;&gt;I53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$H$6&amp;" "&amp;$I$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((J55+J56+J57)&lt;&gt;J53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$J$6&amp;" "&amp;$J$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((K55+K56+K57)&lt;&gt;K53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$J$6&amp;" "&amp;$K$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((L55+L56+L57)&lt;&gt;L53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$L$6&amp;" "&amp;$L$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((M55+M56+M57)&lt;&gt;M53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$L$6&amp;" "&amp;$M$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((N55+N56+N57)&lt;&gt;N53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$N$6&amp;" "&amp;$N$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((O55+O56+O57)&lt;&gt;O53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$N$6&amp;" "&amp;$O$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R55" s="208" t="str">
+      <c r="R55" s="286" t="str">
         <f>CONCATENATE(Q55,Q56,Q57,Q58)</f>
         <v/>
       </c>
@@ -9810,31 +9752,31 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="212"/>
+      <c r="A56" s="310"/>
       <c r="B56" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
       <c r="P56" s="67">
         <f>SUM(D56:O56)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="163"/>
-      <c r="R56" s="209"/>
+      <c r="Q56" s="160"/>
+      <c r="R56" s="307"/>
       <c r="S56" s="21"/>
       <c r="T56" s="66"/>
       <c r="U56" s="52">
@@ -9842,34 +9784,34 @@
       </c>
     </row>
     <row r="57" spans="1:22" s="32" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="213"/>
+      <c r="A57" s="311"/>
       <c r="B57" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="127" t="s">
+      <c r="C57" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
       <c r="P57" s="67">
         <f>SUM(D57:O57)</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="163" t="str">
+      <c r="Q57" s="160" t="str">
         <f>CONCATENATE(IF(D53&lt;D57," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(E53&lt;E57," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(F53&lt;F57," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(G53&lt;G57," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(H53&lt;H57," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(I53&lt;I57," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(J53&lt;J57," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(K53&lt;K57," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(L53&lt;L57," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(M53&lt;M57," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(N53&lt;N57," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(O53&lt;O57," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R57" s="209"/>
+      <c r="R57" s="307"/>
       <c r="S57" s="58"/>
       <c r="T57" s="59"/>
       <c r="U57" s="52"/>
@@ -9882,54 +9824,54 @@
       <c r="B58" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="127" t="s">
+      <c r="C58" s="124" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
       <c r="P58" s="67">
         <f>SUM(D58:O58)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="163" t="str">
+      <c r="Q58" s="160" t="str">
         <f>CONCATENATE(IF(D58&gt;D57," * ON ART FPT01-41 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(E58&gt;E57," * ON ART FPT01-41 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(F58&gt;F57," * ON ART FPT01-41 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(G58&gt;G57," * ON ART FPT01-41 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(H58&gt;H57," * ON ART FPT01-41 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(I58&gt;I57," * ON ART FPT01-41 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(J58&gt;J57," * ON ART FPT01-41 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(K58&gt;K57," * ON ART FPT01-41 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(L58&gt;L57," * ON ART FPT01-41 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(M58&gt;M57," * ON ART FPT01-41 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(N58&gt;N57," * ON ART FPT01-41 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(O58&gt;O57," * ON ART FPT01-41 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R58" s="210"/>
+      <c r="R58" s="308"/>
       <c r="S58" s="58"/>
       <c r="T58" s="59"/>
       <c r="U58" s="52"/>
       <c r="V58" s="47"/>
     </row>
     <row r="59" spans="1:22" s="32" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="217" t="s">
+      <c r="A59" s="315" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="218"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221"/>
-      <c r="H59" s="221"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
-      <c r="K59" s="221"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="221"/>
-      <c r="N59" s="221"/>
-      <c r="O59" s="221"/>
-      <c r="P59" s="219"/>
+      <c r="B59" s="316"/>
+      <c r="C59" s="316"/>
+      <c r="D59" s="304"/>
+      <c r="E59" s="304"/>
+      <c r="F59" s="304"/>
+      <c r="G59" s="304"/>
+      <c r="H59" s="304"/>
+      <c r="I59" s="304"/>
+      <c r="J59" s="304"/>
+      <c r="K59" s="304"/>
+      <c r="L59" s="304"/>
+      <c r="M59" s="304"/>
+      <c r="N59" s="304"/>
+      <c r="O59" s="304"/>
+      <c r="P59" s="317"/>
       <c r="Q59" s="64"/>
       <c r="R59" s="60"/>
       <c r="S59" s="64"/>
@@ -9939,29 +9881,29 @@
       </c>
       <c r="V59" s="47"/>
     </row>
-    <row r="60" spans="1:22" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="214" t="s">
+    <row r="60" spans="1:22" s="32" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="312" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="127" t="s">
+      <c r="C60" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="77">
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="74">
         <f>SUM(D60:O60)</f>
         <v>0</v>
       </c>
@@ -9969,37 +9911,37 @@
         <f>CONCATENATE(IF(D60&gt;D57," * Assessed	FPT01-42 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(E60&gt;E57," * Assessed	FPT01-42 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(F60&gt;F57," * Assessed	FPT01-42 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(G60&gt;G57," * Assessed	FPT01-42 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(H60&gt;H57," * Assessed	FPT01-42 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(I60&gt;I57," * Assessed	FPT01-42 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(J60&gt;J57," * Assessed	FPT01-42 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(K60&gt;K57," * Assessed	FPT01-42 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(L60&gt;L57," * Assessed	FPT01-42 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(M60&gt;M57," * Assessed	FPT01-42 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(N60&gt;N57," * Assessed	FPT01-42 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(O60&gt;O57," * Assessed	FPT01-42 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R60" s="226" t="str">
+      <c r="R60" s="323" t="str">
         <f>CONCATENATE(Q60,Q61,Q62,Q63,Q64)</f>
         <v/>
       </c>
       <c r="S60" s="39"/>
-      <c r="T60" s="80"/>
+      <c r="T60" s="77"/>
       <c r="U60" s="52">
         <v>56</v>
       </c>
       <c r="V60" s="47"/>
     </row>
-    <row r="61" spans="1:22" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="215"/>
-      <c r="B61" s="75" t="s">
+    <row r="61" spans="1:22" s="32" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="313"/>
+      <c r="B61" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="118" t="s">
+      <c r="C61" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="180"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
+      <c r="D61" s="177"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
       <c r="P61" s="31">
         <f>SUM(D61:O61)</f>
         <v>0</v>
@@ -10008,66 +9950,66 @@
         <f>CONCATENATE(IF(D61&gt;D60," * Already enrolled in the OVC program FPT01-43 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(E61&gt;E60," * Already enrolled in the OVC program FPT01-43 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(F61&gt;F60," * Already enrolled in the OVC program FPT01-43 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(G61&gt;G60," * Already enrolled in the OVC program FPT01-43 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(H61&gt;H60," * Already enrolled in the OVC program FPT01-43 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(I61&gt;I60," * Already enrolled in the OVC program FPT01-43 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(J61&gt;J60," * Already enrolled in the OVC program FPT01-43 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(K61&gt;K60," * Already enrolled in the OVC program FPT01-43 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(L61&gt;L60," * Already enrolled in the OVC program FPT01-43 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(M61&gt;M60," * Already enrolled in the OVC program FPT01-43 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(N61&gt;N60," * Already enrolled in the OVC program FPT01-43 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(O61&gt;O60," * Already enrolled in the OVC program FPT01-43 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R61" s="227"/>
+      <c r="R61" s="324"/>
       <c r="S61" s="21"/>
-      <c r="T61" s="81"/>
+      <c r="T61" s="78"/>
       <c r="U61" s="52">
         <v>57</v>
       </c>
       <c r="V61" s="47"/>
     </row>
-    <row r="62" spans="1:22" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="215"/>
-      <c r="B62" s="74" t="s">
+    <row r="62" spans="1:22" s="32" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="313"/>
+      <c r="B62" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="118" t="s">
+      <c r="C62" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="181"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="78"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="75"/>
       <c r="Q62" s="27" t="str">
         <f>CONCATENATE(IF(D63+D64&gt;D62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(E63+E64&gt;E62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(F63+F64&gt;F62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(G63+G64&gt;G62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(H63+H64&gt;H62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(I63+I64&gt;I62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(J63+J64&gt;J62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(K63+K64&gt;K62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(L63+L64&gt;L62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(M63+M64&gt;M62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(N63+N64&gt;N62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(O63+O64&gt;O62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R62" s="227"/>
+      <c r="R62" s="324"/>
       <c r="S62" s="58"/>
-      <c r="T62" s="81"/>
+      <c r="T62" s="78"/>
       <c r="U62" s="52"/>
       <c r="V62" s="47"/>
     </row>
-    <row r="63" spans="1:22" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="215"/>
-      <c r="B63" s="76" t="s">
+    <row r="63" spans="1:22" s="32" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="313"/>
+      <c r="B63" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="181"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="77">
+      <c r="D63" s="178"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="74">
         <f>SUM(D63:O63)</f>
         <v>0</v>
       </c>
@@ -10075,42 +10017,42 @@
         <f>CONCATENATE(IF(D63&gt;D62," * Enrolled	FPT01-45 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(E63&gt;E62," * Enrolled	FPT01-45 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(F63&gt;F62," * Enrolled	FPT01-45 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(G63&gt;G62," * Enrolled	FPT01-45 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(H63&gt;H62," * Enrolled	FPT01-45 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(I63&gt;I62," * Enrolled	FPT01-45 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(J63&gt;J62," * Enrolled	FPT01-45 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(K63&gt;K62," * Enrolled	FPT01-45 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(L63&gt;L62," * Enrolled	FPT01-45 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(M63&gt;M62," * Enrolled	FPT01-45 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(N63&gt;N62," * Enrolled	FPT01-45 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(O63&gt;O62," * Enrolled	FPT01-45 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R63" s="227"/>
+      <c r="R63" s="324"/>
       <c r="S63" s="39"/>
-      <c r="T63" s="81"/>
+      <c r="T63" s="78"/>
       <c r="U63" s="52">
         <v>56</v>
       </c>
       <c r="V63" s="47"/>
     </row>
-    <row r="64" spans="1:22" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="216"/>
-      <c r="B64" s="75" t="s">
+    <row r="64" spans="1:22" s="32" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="314"/>
+      <c r="B64" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="C64" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="182"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
       <c r="P64" s="31">
         <f>SUM(D64:O64)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="27"/>
-      <c r="R64" s="228"/>
+      <c r="R64" s="325"/>
       <c r="S64" s="21"/>
-      <c r="T64" s="82"/>
+      <c r="T64" s="79"/>
       <c r="U64" s="52">
         <v>57</v>
       </c>
@@ -10138,1209 +10080,1217 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:22" s="56" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="293" t="s">
+      <c r="A68" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="294"/>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
-      <c r="E68" s="294"/>
-      <c r="F68" s="294"/>
-      <c r="G68" s="294"/>
-      <c r="H68" s="294"/>
-      <c r="I68" s="294"/>
-      <c r="J68" s="294"/>
-      <c r="K68" s="294"/>
-      <c r="L68" s="294"/>
-      <c r="M68" s="294"/>
-      <c r="N68" s="294"/>
-      <c r="O68" s="294"/>
-      <c r="P68" s="294"/>
-      <c r="Q68" s="294"/>
-      <c r="R68" s="294"/>
-      <c r="S68" s="294"/>
-      <c r="T68" s="295"/>
+      <c r="B68" s="211"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="211"/>
+      <c r="J68" s="211"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="211"/>
+      <c r="M68" s="211"/>
+      <c r="N68" s="211"/>
+      <c r="O68" s="211"/>
+      <c r="P68" s="211"/>
+      <c r="Q68" s="211"/>
+      <c r="R68" s="211"/>
+      <c r="S68" s="211"/>
+      <c r="T68" s="212"/>
       <c r="U68" s="55"/>
       <c r="V68" s="55"/>
     </row>
     <row r="69" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="318" t="str">
+      <c r="A69" s="235" t="str">
         <f>CONCATENATE(R60,R55,R51,R46,R36,R18,R8)</f>
         <v/>
       </c>
-      <c r="B69" s="319"/>
-      <c r="C69" s="319"/>
-      <c r="D69" s="319"/>
-      <c r="E69" s="319"/>
-      <c r="F69" s="319"/>
-      <c r="G69" s="319"/>
-      <c r="H69" s="319"/>
-      <c r="I69" s="319"/>
-      <c r="J69" s="319"/>
-      <c r="K69" s="296"/>
-      <c r="L69" s="296"/>
-      <c r="M69" s="296"/>
-      <c r="N69" s="296"/>
-      <c r="O69" s="296"/>
-      <c r="P69" s="296"/>
-      <c r="Q69" s="296"/>
-      <c r="R69" s="296"/>
-      <c r="S69" s="296"/>
-      <c r="T69" s="297"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="236"/>
+      <c r="F69" s="236"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="236"/>
+      <c r="J69" s="236"/>
+      <c r="K69" s="213"/>
+      <c r="L69" s="213"/>
+      <c r="M69" s="213"/>
+      <c r="N69" s="213"/>
+      <c r="O69" s="213"/>
+      <c r="P69" s="213"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="213"/>
+      <c r="S69" s="213"/>
+      <c r="T69" s="214"/>
     </row>
     <row r="70" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="320"/>
-      <c r="B70" s="321"/>
-      <c r="C70" s="321"/>
-      <c r="D70" s="321"/>
-      <c r="E70" s="321"/>
-      <c r="F70" s="321"/>
-      <c r="G70" s="321"/>
-      <c r="H70" s="321"/>
-      <c r="I70" s="321"/>
-      <c r="J70" s="321"/>
-      <c r="K70" s="298"/>
-      <c r="L70" s="298"/>
-      <c r="M70" s="298"/>
-      <c r="N70" s="298"/>
-      <c r="O70" s="298"/>
-      <c r="P70" s="298"/>
-      <c r="Q70" s="298"/>
-      <c r="R70" s="298"/>
-      <c r="S70" s="298"/>
-      <c r="T70" s="299"/>
+      <c r="A70" s="237"/>
+      <c r="B70" s="238"/>
+      <c r="C70" s="238"/>
+      <c r="D70" s="238"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="238"/>
+      <c r="G70" s="238"/>
+      <c r="H70" s="238"/>
+      <c r="I70" s="238"/>
+      <c r="J70" s="238"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="215"/>
+      <c r="P70" s="215"/>
+      <c r="Q70" s="215"/>
+      <c r="R70" s="215"/>
+      <c r="S70" s="215"/>
+      <c r="T70" s="216"/>
     </row>
     <row r="71" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="320"/>
-      <c r="B71" s="321"/>
-      <c r="C71" s="321"/>
-      <c r="D71" s="321"/>
-      <c r="E71" s="321"/>
-      <c r="F71" s="321"/>
-      <c r="G71" s="321"/>
-      <c r="H71" s="321"/>
-      <c r="I71" s="321"/>
-      <c r="J71" s="321"/>
-      <c r="K71" s="298"/>
-      <c r="L71" s="298"/>
-      <c r="M71" s="298"/>
-      <c r="N71" s="298"/>
-      <c r="O71" s="298"/>
-      <c r="P71" s="298"/>
-      <c r="Q71" s="298"/>
-      <c r="R71" s="298"/>
-      <c r="S71" s="298"/>
-      <c r="T71" s="299"/>
+      <c r="A71" s="237"/>
+      <c r="B71" s="238"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="238"/>
+      <c r="E71" s="238"/>
+      <c r="F71" s="238"/>
+      <c r="G71" s="238"/>
+      <c r="H71" s="238"/>
+      <c r="I71" s="238"/>
+      <c r="J71" s="238"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="215"/>
+      <c r="Q71" s="215"/>
+      <c r="R71" s="215"/>
+      <c r="S71" s="215"/>
+      <c r="T71" s="216"/>
     </row>
     <row r="72" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="320"/>
-      <c r="B72" s="321"/>
-      <c r="C72" s="321"/>
-      <c r="D72" s="321"/>
-      <c r="E72" s="321"/>
-      <c r="F72" s="321"/>
-      <c r="G72" s="321"/>
-      <c r="H72" s="321"/>
-      <c r="I72" s="321"/>
-      <c r="J72" s="321"/>
-      <c r="K72" s="298"/>
-      <c r="L72" s="298"/>
-      <c r="M72" s="298"/>
-      <c r="N72" s="298"/>
-      <c r="O72" s="298"/>
-      <c r="P72" s="298"/>
-      <c r="Q72" s="298"/>
-      <c r="R72" s="298"/>
-      <c r="S72" s="298"/>
-      <c r="T72" s="299"/>
+      <c r="A72" s="237"/>
+      <c r="B72" s="238"/>
+      <c r="C72" s="238"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="238"/>
+      <c r="F72" s="238"/>
+      <c r="G72" s="238"/>
+      <c r="H72" s="238"/>
+      <c r="I72" s="238"/>
+      <c r="J72" s="238"/>
+      <c r="K72" s="215"/>
+      <c r="L72" s="215"/>
+      <c r="M72" s="215"/>
+      <c r="N72" s="215"/>
+      <c r="O72" s="215"/>
+      <c r="P72" s="215"/>
+      <c r="Q72" s="215"/>
+      <c r="R72" s="215"/>
+      <c r="S72" s="215"/>
+      <c r="T72" s="216"/>
     </row>
     <row r="73" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="320"/>
-      <c r="B73" s="321"/>
-      <c r="C73" s="321"/>
-      <c r="D73" s="321"/>
-      <c r="E73" s="321"/>
-      <c r="F73" s="321"/>
-      <c r="G73" s="321"/>
-      <c r="H73" s="321"/>
-      <c r="I73" s="321"/>
-      <c r="J73" s="321"/>
-      <c r="K73" s="298"/>
-      <c r="L73" s="298"/>
-      <c r="M73" s="298"/>
-      <c r="N73" s="298"/>
-      <c r="O73" s="298"/>
-      <c r="P73" s="298"/>
-      <c r="Q73" s="298"/>
-      <c r="R73" s="298"/>
-      <c r="S73" s="298"/>
-      <c r="T73" s="299"/>
+      <c r="A73" s="237"/>
+      <c r="B73" s="238"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="238"/>
+      <c r="F73" s="238"/>
+      <c r="G73" s="238"/>
+      <c r="H73" s="238"/>
+      <c r="I73" s="238"/>
+      <c r="J73" s="238"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="215"/>
+      <c r="O73" s="215"/>
+      <c r="P73" s="215"/>
+      <c r="Q73" s="215"/>
+      <c r="R73" s="215"/>
+      <c r="S73" s="215"/>
+      <c r="T73" s="216"/>
     </row>
     <row r="74" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="320"/>
-      <c r="B74" s="321"/>
-      <c r="C74" s="321"/>
-      <c r="D74" s="321"/>
-      <c r="E74" s="321"/>
-      <c r="F74" s="321"/>
-      <c r="G74" s="321"/>
-      <c r="H74" s="321"/>
-      <c r="I74" s="321"/>
-      <c r="J74" s="321"/>
-      <c r="K74" s="298"/>
-      <c r="L74" s="298"/>
-      <c r="M74" s="298"/>
-      <c r="N74" s="298"/>
-      <c r="O74" s="298"/>
-      <c r="P74" s="298"/>
-      <c r="Q74" s="298"/>
-      <c r="R74" s="298"/>
-      <c r="S74" s="298"/>
-      <c r="T74" s="299"/>
+      <c r="A74" s="237"/>
+      <c r="B74" s="238"/>
+      <c r="C74" s="238"/>
+      <c r="D74" s="238"/>
+      <c r="E74" s="238"/>
+      <c r="F74" s="238"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="238"/>
+      <c r="I74" s="238"/>
+      <c r="J74" s="238"/>
+      <c r="K74" s="215"/>
+      <c r="L74" s="215"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="215"/>
+      <c r="O74" s="215"/>
+      <c r="P74" s="215"/>
+      <c r="Q74" s="215"/>
+      <c r="R74" s="215"/>
+      <c r="S74" s="215"/>
+      <c r="T74" s="216"/>
     </row>
     <row r="75" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="320"/>
-      <c r="B75" s="321"/>
-      <c r="C75" s="321"/>
-      <c r="D75" s="321"/>
-      <c r="E75" s="321"/>
-      <c r="F75" s="321"/>
-      <c r="G75" s="321"/>
-      <c r="H75" s="321"/>
-      <c r="I75" s="321"/>
-      <c r="J75" s="321"/>
-      <c r="K75" s="298"/>
-      <c r="L75" s="298"/>
-      <c r="M75" s="298"/>
-      <c r="N75" s="298"/>
-      <c r="O75" s="298"/>
-      <c r="P75" s="298"/>
-      <c r="Q75" s="298"/>
-      <c r="R75" s="298"/>
-      <c r="S75" s="298"/>
-      <c r="T75" s="299"/>
+      <c r="A75" s="237"/>
+      <c r="B75" s="238"/>
+      <c r="C75" s="238"/>
+      <c r="D75" s="238"/>
+      <c r="E75" s="238"/>
+      <c r="F75" s="238"/>
+      <c r="G75" s="238"/>
+      <c r="H75" s="238"/>
+      <c r="I75" s="238"/>
+      <c r="J75" s="238"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="215"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="215"/>
+      <c r="T75" s="216"/>
     </row>
     <row r="76" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="320"/>
-      <c r="B76" s="321"/>
-      <c r="C76" s="321"/>
-      <c r="D76" s="321"/>
-      <c r="E76" s="321"/>
-      <c r="F76" s="321"/>
-      <c r="G76" s="321"/>
-      <c r="H76" s="321"/>
-      <c r="I76" s="321"/>
-      <c r="J76" s="321"/>
-      <c r="K76" s="298"/>
-      <c r="L76" s="298"/>
-      <c r="M76" s="298"/>
-      <c r="N76" s="298"/>
-      <c r="O76" s="298"/>
-      <c r="P76" s="298"/>
-      <c r="Q76" s="298"/>
-      <c r="R76" s="298"/>
-      <c r="S76" s="298"/>
-      <c r="T76" s="299"/>
+      <c r="A76" s="237"/>
+      <c r="B76" s="238"/>
+      <c r="C76" s="238"/>
+      <c r="D76" s="238"/>
+      <c r="E76" s="238"/>
+      <c r="F76" s="238"/>
+      <c r="G76" s="238"/>
+      <c r="H76" s="238"/>
+      <c r="I76" s="238"/>
+      <c r="J76" s="238"/>
+      <c r="K76" s="215"/>
+      <c r="L76" s="215"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="215"/>
+      <c r="O76" s="215"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="215"/>
+      <c r="S76" s="215"/>
+      <c r="T76" s="216"/>
     </row>
     <row r="77" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="320"/>
-      <c r="B77" s="321"/>
-      <c r="C77" s="321"/>
-      <c r="D77" s="321"/>
-      <c r="E77" s="321"/>
-      <c r="F77" s="321"/>
-      <c r="G77" s="321"/>
-      <c r="H77" s="321"/>
-      <c r="I77" s="321"/>
-      <c r="J77" s="321"/>
-      <c r="K77" s="298"/>
-      <c r="L77" s="298"/>
-      <c r="M77" s="298"/>
-      <c r="N77" s="298"/>
-      <c r="O77" s="298"/>
-      <c r="P77" s="298"/>
-      <c r="Q77" s="298"/>
-      <c r="R77" s="298"/>
-      <c r="S77" s="298"/>
-      <c r="T77" s="299"/>
+      <c r="A77" s="237"/>
+      <c r="B77" s="238"/>
+      <c r="C77" s="238"/>
+      <c r="D77" s="238"/>
+      <c r="E77" s="238"/>
+      <c r="F77" s="238"/>
+      <c r="G77" s="238"/>
+      <c r="H77" s="238"/>
+      <c r="I77" s="238"/>
+      <c r="J77" s="238"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="215"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="215"/>
+      <c r="T77" s="216"/>
     </row>
     <row r="78" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="320"/>
-      <c r="B78" s="321"/>
-      <c r="C78" s="321"/>
-      <c r="D78" s="321"/>
-      <c r="E78" s="321"/>
-      <c r="F78" s="321"/>
-      <c r="G78" s="321"/>
-      <c r="H78" s="321"/>
-      <c r="I78" s="321"/>
-      <c r="J78" s="321"/>
-      <c r="K78" s="298"/>
-      <c r="L78" s="298"/>
-      <c r="M78" s="298"/>
-      <c r="N78" s="298"/>
-      <c r="O78" s="298"/>
-      <c r="P78" s="298"/>
-      <c r="Q78" s="298"/>
-      <c r="R78" s="298"/>
-      <c r="S78" s="298"/>
-      <c r="T78" s="299"/>
+      <c r="A78" s="237"/>
+      <c r="B78" s="238"/>
+      <c r="C78" s="238"/>
+      <c r="D78" s="238"/>
+      <c r="E78" s="238"/>
+      <c r="F78" s="238"/>
+      <c r="G78" s="238"/>
+      <c r="H78" s="238"/>
+      <c r="I78" s="238"/>
+      <c r="J78" s="238"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="215"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="215"/>
+      <c r="O78" s="215"/>
+      <c r="P78" s="215"/>
+      <c r="Q78" s="215"/>
+      <c r="R78" s="215"/>
+      <c r="S78" s="215"/>
+      <c r="T78" s="216"/>
     </row>
     <row r="79" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="320"/>
-      <c r="B79" s="321"/>
-      <c r="C79" s="321"/>
-      <c r="D79" s="321"/>
-      <c r="E79" s="321"/>
-      <c r="F79" s="321"/>
-      <c r="G79" s="321"/>
-      <c r="H79" s="321"/>
-      <c r="I79" s="321"/>
-      <c r="J79" s="321"/>
-      <c r="K79" s="298"/>
-      <c r="L79" s="298"/>
-      <c r="M79" s="298"/>
-      <c r="N79" s="298"/>
-      <c r="O79" s="298"/>
-      <c r="P79" s="298"/>
-      <c r="Q79" s="298"/>
-      <c r="R79" s="298"/>
-      <c r="S79" s="298"/>
-      <c r="T79" s="299"/>
+      <c r="A79" s="237"/>
+      <c r="B79" s="238"/>
+      <c r="C79" s="238"/>
+      <c r="D79" s="238"/>
+      <c r="E79" s="238"/>
+      <c r="F79" s="238"/>
+      <c r="G79" s="238"/>
+      <c r="H79" s="238"/>
+      <c r="I79" s="238"/>
+      <c r="J79" s="238"/>
+      <c r="K79" s="215"/>
+      <c r="L79" s="215"/>
+      <c r="M79" s="215"/>
+      <c r="N79" s="215"/>
+      <c r="O79" s="215"/>
+      <c r="P79" s="215"/>
+      <c r="Q79" s="215"/>
+      <c r="R79" s="215"/>
+      <c r="S79" s="215"/>
+      <c r="T79" s="216"/>
     </row>
     <row r="80" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="320"/>
-      <c r="B80" s="321"/>
-      <c r="C80" s="321"/>
-      <c r="D80" s="321"/>
-      <c r="E80" s="321"/>
-      <c r="F80" s="321"/>
-      <c r="G80" s="321"/>
-      <c r="H80" s="321"/>
-      <c r="I80" s="321"/>
-      <c r="J80" s="321"/>
-      <c r="K80" s="298"/>
-      <c r="L80" s="298"/>
-      <c r="M80" s="298"/>
-      <c r="N80" s="298"/>
-      <c r="O80" s="298"/>
-      <c r="P80" s="298"/>
-      <c r="Q80" s="298"/>
-      <c r="R80" s="298"/>
-      <c r="S80" s="298"/>
-      <c r="T80" s="299"/>
+      <c r="A80" s="237"/>
+      <c r="B80" s="238"/>
+      <c r="C80" s="238"/>
+      <c r="D80" s="238"/>
+      <c r="E80" s="238"/>
+      <c r="F80" s="238"/>
+      <c r="G80" s="238"/>
+      <c r="H80" s="238"/>
+      <c r="I80" s="238"/>
+      <c r="J80" s="238"/>
+      <c r="K80" s="215"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="215"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="215"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="215"/>
+      <c r="R80" s="215"/>
+      <c r="S80" s="215"/>
+      <c r="T80" s="216"/>
     </row>
     <row r="81" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="320"/>
-      <c r="B81" s="321"/>
-      <c r="C81" s="321"/>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
-      <c r="H81" s="321"/>
-      <c r="I81" s="321"/>
-      <c r="J81" s="321"/>
-      <c r="K81" s="298"/>
-      <c r="L81" s="298"/>
-      <c r="M81" s="298"/>
-      <c r="N81" s="298"/>
-      <c r="O81" s="298"/>
-      <c r="P81" s="298"/>
-      <c r="Q81" s="298"/>
-      <c r="R81" s="298"/>
-      <c r="S81" s="298"/>
-      <c r="T81" s="299"/>
+      <c r="A81" s="237"/>
+      <c r="B81" s="238"/>
+      <c r="C81" s="238"/>
+      <c r="D81" s="238"/>
+      <c r="E81" s="238"/>
+      <c r="F81" s="238"/>
+      <c r="G81" s="238"/>
+      <c r="H81" s="238"/>
+      <c r="I81" s="238"/>
+      <c r="J81" s="238"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
+      <c r="Q81" s="215"/>
+      <c r="R81" s="215"/>
+      <c r="S81" s="215"/>
+      <c r="T81" s="216"/>
     </row>
     <row r="82" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="320"/>
-      <c r="B82" s="321"/>
-      <c r="C82" s="321"/>
-      <c r="D82" s="321"/>
-      <c r="E82" s="321"/>
-      <c r="F82" s="321"/>
-      <c r="G82" s="321"/>
-      <c r="H82" s="321"/>
-      <c r="I82" s="321"/>
-      <c r="J82" s="321"/>
-      <c r="K82" s="298"/>
-      <c r="L82" s="298"/>
-      <c r="M82" s="298"/>
-      <c r="N82" s="298"/>
-      <c r="O82" s="298"/>
-      <c r="P82" s="298"/>
-      <c r="Q82" s="298"/>
-      <c r="R82" s="298"/>
-      <c r="S82" s="298"/>
-      <c r="T82" s="299"/>
+      <c r="A82" s="237"/>
+      <c r="B82" s="238"/>
+      <c r="C82" s="238"/>
+      <c r="D82" s="238"/>
+      <c r="E82" s="238"/>
+      <c r="F82" s="238"/>
+      <c r="G82" s="238"/>
+      <c r="H82" s="238"/>
+      <c r="I82" s="238"/>
+      <c r="J82" s="238"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="215"/>
+      <c r="N82" s="215"/>
+      <c r="O82" s="215"/>
+      <c r="P82" s="215"/>
+      <c r="Q82" s="215"/>
+      <c r="R82" s="215"/>
+      <c r="S82" s="215"/>
+      <c r="T82" s="216"/>
     </row>
     <row r="83" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="320"/>
-      <c r="B83" s="321"/>
-      <c r="C83" s="321"/>
-      <c r="D83" s="321"/>
-      <c r="E83" s="321"/>
-      <c r="F83" s="321"/>
-      <c r="G83" s="321"/>
-      <c r="H83" s="321"/>
-      <c r="I83" s="321"/>
-      <c r="J83" s="321"/>
-      <c r="K83" s="298"/>
-      <c r="L83" s="298"/>
-      <c r="M83" s="298"/>
-      <c r="N83" s="298"/>
-      <c r="O83" s="298"/>
-      <c r="P83" s="298"/>
-      <c r="Q83" s="298"/>
-      <c r="R83" s="298"/>
-      <c r="S83" s="298"/>
-      <c r="T83" s="299"/>
+      <c r="A83" s="237"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="238"/>
+      <c r="D83" s="238"/>
+      <c r="E83" s="238"/>
+      <c r="F83" s="238"/>
+      <c r="G83" s="238"/>
+      <c r="H83" s="238"/>
+      <c r="I83" s="238"/>
+      <c r="J83" s="238"/>
+      <c r="K83" s="215"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="215"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="215"/>
+      <c r="P83" s="215"/>
+      <c r="Q83" s="215"/>
+      <c r="R83" s="215"/>
+      <c r="S83" s="215"/>
+      <c r="T83" s="216"/>
     </row>
     <row r="84" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="320"/>
-      <c r="B84" s="321"/>
-      <c r="C84" s="321"/>
-      <c r="D84" s="321"/>
-      <c r="E84" s="321"/>
-      <c r="F84" s="321"/>
-      <c r="G84" s="321"/>
-      <c r="H84" s="321"/>
-      <c r="I84" s="321"/>
-      <c r="J84" s="321"/>
-      <c r="K84" s="298"/>
-      <c r="L84" s="298"/>
-      <c r="M84" s="298"/>
-      <c r="N84" s="298"/>
-      <c r="O84" s="298"/>
-      <c r="P84" s="298"/>
-      <c r="Q84" s="298"/>
-      <c r="R84" s="298"/>
-      <c r="S84" s="298"/>
-      <c r="T84" s="299"/>
+      <c r="A84" s="237"/>
+      <c r="B84" s="238"/>
+      <c r="C84" s="238"/>
+      <c r="D84" s="238"/>
+      <c r="E84" s="238"/>
+      <c r="F84" s="238"/>
+      <c r="G84" s="238"/>
+      <c r="H84" s="238"/>
+      <c r="I84" s="238"/>
+      <c r="J84" s="238"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="215"/>
+      <c r="N84" s="215"/>
+      <c r="O84" s="215"/>
+      <c r="P84" s="215"/>
+      <c r="Q84" s="215"/>
+      <c r="R84" s="215"/>
+      <c r="S84" s="215"/>
+      <c r="T84" s="216"/>
     </row>
     <row r="85" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="320"/>
-      <c r="B85" s="321"/>
-      <c r="C85" s="321"/>
-      <c r="D85" s="321"/>
-      <c r="E85" s="321"/>
-      <c r="F85" s="321"/>
-      <c r="G85" s="321"/>
-      <c r="H85" s="321"/>
-      <c r="I85" s="321"/>
-      <c r="J85" s="321"/>
-      <c r="K85" s="298"/>
-      <c r="L85" s="298"/>
-      <c r="M85" s="298"/>
-      <c r="N85" s="298"/>
-      <c r="O85" s="298"/>
-      <c r="P85" s="298"/>
-      <c r="Q85" s="298"/>
-      <c r="R85" s="298"/>
-      <c r="S85" s="298"/>
-      <c r="T85" s="299"/>
+      <c r="A85" s="237"/>
+      <c r="B85" s="238"/>
+      <c r="C85" s="238"/>
+      <c r="D85" s="238"/>
+      <c r="E85" s="238"/>
+      <c r="F85" s="238"/>
+      <c r="G85" s="238"/>
+      <c r="H85" s="238"/>
+      <c r="I85" s="238"/>
+      <c r="J85" s="238"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="215"/>
+      <c r="N85" s="215"/>
+      <c r="O85" s="215"/>
+      <c r="P85" s="215"/>
+      <c r="Q85" s="215"/>
+      <c r="R85" s="215"/>
+      <c r="S85" s="215"/>
+      <c r="T85" s="216"/>
     </row>
     <row r="86" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="320"/>
-      <c r="B86" s="321"/>
-      <c r="C86" s="321"/>
-      <c r="D86" s="321"/>
-      <c r="E86" s="321"/>
-      <c r="F86" s="321"/>
-      <c r="G86" s="321"/>
-      <c r="H86" s="321"/>
-      <c r="I86" s="321"/>
-      <c r="J86" s="321"/>
-      <c r="K86" s="298"/>
-      <c r="L86" s="298"/>
-      <c r="M86" s="298"/>
-      <c r="N86" s="298"/>
-      <c r="O86" s="298"/>
-      <c r="P86" s="298"/>
-      <c r="Q86" s="298"/>
-      <c r="R86" s="298"/>
-      <c r="S86" s="298"/>
-      <c r="T86" s="299"/>
+      <c r="A86" s="237"/>
+      <c r="B86" s="238"/>
+      <c r="C86" s="238"/>
+      <c r="D86" s="238"/>
+      <c r="E86" s="238"/>
+      <c r="F86" s="238"/>
+      <c r="G86" s="238"/>
+      <c r="H86" s="238"/>
+      <c r="I86" s="238"/>
+      <c r="J86" s="238"/>
+      <c r="K86" s="215"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="215"/>
+      <c r="N86" s="215"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
+      <c r="Q86" s="215"/>
+      <c r="R86" s="215"/>
+      <c r="S86" s="215"/>
+      <c r="T86" s="216"/>
     </row>
     <row r="87" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="320"/>
-      <c r="B87" s="321"/>
-      <c r="C87" s="321"/>
-      <c r="D87" s="321"/>
-      <c r="E87" s="321"/>
-      <c r="F87" s="321"/>
-      <c r="G87" s="321"/>
-      <c r="H87" s="321"/>
-      <c r="I87" s="321"/>
-      <c r="J87" s="321"/>
-      <c r="K87" s="298"/>
-      <c r="L87" s="298"/>
-      <c r="M87" s="298"/>
-      <c r="N87" s="298"/>
-      <c r="O87" s="298"/>
-      <c r="P87" s="298"/>
-      <c r="Q87" s="298"/>
-      <c r="R87" s="298"/>
-      <c r="S87" s="298"/>
-      <c r="T87" s="299"/>
+      <c r="A87" s="237"/>
+      <c r="B87" s="238"/>
+      <c r="C87" s="238"/>
+      <c r="D87" s="238"/>
+      <c r="E87" s="238"/>
+      <c r="F87" s="238"/>
+      <c r="G87" s="238"/>
+      <c r="H87" s="238"/>
+      <c r="I87" s="238"/>
+      <c r="J87" s="238"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="215"/>
+      <c r="N87" s="215"/>
+      <c r="O87" s="215"/>
+      <c r="P87" s="215"/>
+      <c r="Q87" s="215"/>
+      <c r="R87" s="215"/>
+      <c r="S87" s="215"/>
+      <c r="T87" s="216"/>
     </row>
     <row r="88" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="320"/>
-      <c r="B88" s="321"/>
-      <c r="C88" s="321"/>
-      <c r="D88" s="321"/>
-      <c r="E88" s="321"/>
-      <c r="F88" s="321"/>
-      <c r="G88" s="321"/>
-      <c r="H88" s="321"/>
-      <c r="I88" s="321"/>
-      <c r="J88" s="321"/>
-      <c r="K88" s="298"/>
-      <c r="L88" s="298"/>
-      <c r="M88" s="298"/>
-      <c r="N88" s="298"/>
-      <c r="O88" s="298"/>
-      <c r="P88" s="298"/>
-      <c r="Q88" s="298"/>
-      <c r="R88" s="298"/>
-      <c r="S88" s="298"/>
-      <c r="T88" s="299"/>
+      <c r="A88" s="237"/>
+      <c r="B88" s="238"/>
+      <c r="C88" s="238"/>
+      <c r="D88" s="238"/>
+      <c r="E88" s="238"/>
+      <c r="F88" s="238"/>
+      <c r="G88" s="238"/>
+      <c r="H88" s="238"/>
+      <c r="I88" s="238"/>
+      <c r="J88" s="238"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="215"/>
+      <c r="M88" s="215"/>
+      <c r="N88" s="215"/>
+      <c r="O88" s="215"/>
+      <c r="P88" s="215"/>
+      <c r="Q88" s="215"/>
+      <c r="R88" s="215"/>
+      <c r="S88" s="215"/>
+      <c r="T88" s="216"/>
     </row>
     <row r="89" spans="1:22" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="322"/>
-      <c r="B89" s="323"/>
-      <c r="C89" s="323"/>
-      <c r="D89" s="323"/>
-      <c r="E89" s="323"/>
-      <c r="F89" s="323"/>
-      <c r="G89" s="323"/>
-      <c r="H89" s="323"/>
-      <c r="I89" s="323"/>
-      <c r="J89" s="323"/>
-      <c r="K89" s="300"/>
-      <c r="L89" s="300"/>
-      <c r="M89" s="300"/>
-      <c r="N89" s="300"/>
-      <c r="O89" s="300"/>
-      <c r="P89" s="300"/>
-      <c r="Q89" s="300"/>
-      <c r="R89" s="300"/>
-      <c r="S89" s="300"/>
-      <c r="T89" s="301"/>
+      <c r="A89" s="239"/>
+      <c r="B89" s="240"/>
+      <c r="C89" s="240"/>
+      <c r="D89" s="240"/>
+      <c r="E89" s="240"/>
+      <c r="F89" s="240"/>
+      <c r="G89" s="240"/>
+      <c r="H89" s="240"/>
+      <c r="I89" s="240"/>
+      <c r="J89" s="240"/>
+      <c r="K89" s="217"/>
+      <c r="L89" s="217"/>
+      <c r="M89" s="217"/>
+      <c r="N89" s="217"/>
+      <c r="O89" s="217"/>
+      <c r="P89" s="217"/>
+      <c r="Q89" s="217"/>
+      <c r="R89" s="217"/>
+      <c r="S89" s="217"/>
+      <c r="T89" s="218"/>
     </row>
     <row r="90" spans="1:22" s="54" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A90" s="314" t="s">
+      <c r="A90" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="315"/>
-      <c r="C90" s="315"/>
-      <c r="D90" s="315"/>
-      <c r="E90" s="315"/>
-      <c r="F90" s="315"/>
-      <c r="G90" s="315"/>
-      <c r="H90" s="315"/>
-      <c r="I90" s="315"/>
-      <c r="J90" s="315"/>
-      <c r="K90" s="316"/>
-      <c r="L90" s="316"/>
-      <c r="M90" s="316"/>
-      <c r="N90" s="316"/>
-      <c r="O90" s="316"/>
-      <c r="P90" s="316"/>
-      <c r="Q90" s="316"/>
-      <c r="R90" s="316"/>
-      <c r="S90" s="316"/>
-      <c r="T90" s="317"/>
+      <c r="B90" s="232"/>
+      <c r="C90" s="232"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="232"/>
+      <c r="F90" s="232"/>
+      <c r="G90" s="232"/>
+      <c r="H90" s="232"/>
+      <c r="I90" s="232"/>
+      <c r="J90" s="232"/>
+      <c r="K90" s="233"/>
+      <c r="L90" s="233"/>
+      <c r="M90" s="233"/>
+      <c r="N90" s="233"/>
+      <c r="O90" s="233"/>
+      <c r="P90" s="233"/>
+      <c r="Q90" s="233"/>
+      <c r="R90" s="233"/>
+      <c r="S90" s="233"/>
+      <c r="T90" s="234"/>
       <c r="U90" s="53"/>
       <c r="V90" s="53"/>
     </row>
     <row r="91" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="302" t="e">
+      <c r="A91" s="219" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,T46,T8,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B91" s="303"/>
-      <c r="C91" s="303"/>
-      <c r="D91" s="303"/>
-      <c r="E91" s="303"/>
-      <c r="F91" s="303"/>
-      <c r="G91" s="303"/>
-      <c r="H91" s="303"/>
-      <c r="I91" s="303"/>
-      <c r="J91" s="303"/>
-      <c r="K91" s="308"/>
-      <c r="L91" s="308"/>
-      <c r="M91" s="308"/>
-      <c r="N91" s="308"/>
-      <c r="O91" s="308"/>
-      <c r="P91" s="308"/>
-      <c r="Q91" s="308"/>
-      <c r="R91" s="308"/>
-      <c r="S91" s="308"/>
-      <c r="T91" s="309"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="220"/>
+      <c r="K91" s="225"/>
+      <c r="L91" s="225"/>
+      <c r="M91" s="225"/>
+      <c r="N91" s="225"/>
+      <c r="O91" s="225"/>
+      <c r="P91" s="225"/>
+      <c r="Q91" s="225"/>
+      <c r="R91" s="225"/>
+      <c r="S91" s="225"/>
+      <c r="T91" s="226"/>
     </row>
     <row r="92" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="304"/>
-      <c r="B92" s="305"/>
-      <c r="C92" s="305"/>
-      <c r="D92" s="305"/>
-      <c r="E92" s="305"/>
-      <c r="F92" s="305"/>
-      <c r="G92" s="305"/>
-      <c r="H92" s="305"/>
-      <c r="I92" s="305"/>
-      <c r="J92" s="305"/>
-      <c r="K92" s="310"/>
-      <c r="L92" s="310"/>
-      <c r="M92" s="310"/>
-      <c r="N92" s="310"/>
-      <c r="O92" s="310"/>
-      <c r="P92" s="310"/>
-      <c r="Q92" s="310"/>
-      <c r="R92" s="310"/>
-      <c r="S92" s="310"/>
-      <c r="T92" s="311"/>
+      <c r="A92" s="221"/>
+      <c r="B92" s="222"/>
+      <c r="C92" s="222"/>
+      <c r="D92" s="222"/>
+      <c r="E92" s="222"/>
+      <c r="F92" s="222"/>
+      <c r="G92" s="222"/>
+      <c r="H92" s="222"/>
+      <c r="I92" s="222"/>
+      <c r="J92" s="222"/>
+      <c r="K92" s="227"/>
+      <c r="L92" s="227"/>
+      <c r="M92" s="227"/>
+      <c r="N92" s="227"/>
+      <c r="O92" s="227"/>
+      <c r="P92" s="227"/>
+      <c r="Q92" s="227"/>
+      <c r="R92" s="227"/>
+      <c r="S92" s="227"/>
+      <c r="T92" s="228"/>
     </row>
     <row r="93" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="304"/>
-      <c r="B93" s="305"/>
-      <c r="C93" s="305"/>
-      <c r="D93" s="305"/>
-      <c r="E93" s="305"/>
-      <c r="F93" s="305"/>
-      <c r="G93" s="305"/>
-      <c r="H93" s="305"/>
-      <c r="I93" s="305"/>
-      <c r="J93" s="305"/>
-      <c r="K93" s="310"/>
-      <c r="L93" s="310"/>
-      <c r="M93" s="310"/>
-      <c r="N93" s="310"/>
-      <c r="O93" s="310"/>
-      <c r="P93" s="310"/>
-      <c r="Q93" s="310"/>
-      <c r="R93" s="310"/>
-      <c r="S93" s="310"/>
-      <c r="T93" s="311"/>
+      <c r="A93" s="221"/>
+      <c r="B93" s="222"/>
+      <c r="C93" s="222"/>
+      <c r="D93" s="222"/>
+      <c r="E93" s="222"/>
+      <c r="F93" s="222"/>
+      <c r="G93" s="222"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
+      <c r="K93" s="227"/>
+      <c r="L93" s="227"/>
+      <c r="M93" s="227"/>
+      <c r="N93" s="227"/>
+      <c r="O93" s="227"/>
+      <c r="P93" s="227"/>
+      <c r="Q93" s="227"/>
+      <c r="R93" s="227"/>
+      <c r="S93" s="227"/>
+      <c r="T93" s="228"/>
     </row>
     <row r="94" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="304"/>
-      <c r="B94" s="305"/>
-      <c r="C94" s="305"/>
-      <c r="D94" s="305"/>
-      <c r="E94" s="305"/>
-      <c r="F94" s="305"/>
-      <c r="G94" s="305"/>
-      <c r="H94" s="305"/>
-      <c r="I94" s="305"/>
-      <c r="J94" s="305"/>
-      <c r="K94" s="310"/>
-      <c r="L94" s="310"/>
-      <c r="M94" s="310"/>
-      <c r="N94" s="310"/>
-      <c r="O94" s="310"/>
-      <c r="P94" s="310"/>
-      <c r="Q94" s="310"/>
-      <c r="R94" s="310"/>
-      <c r="S94" s="310"/>
-      <c r="T94" s="311"/>
+      <c r="A94" s="221"/>
+      <c r="B94" s="222"/>
+      <c r="C94" s="222"/>
+      <c r="D94" s="222"/>
+      <c r="E94" s="222"/>
+      <c r="F94" s="222"/>
+      <c r="G94" s="222"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
+      <c r="K94" s="227"/>
+      <c r="L94" s="227"/>
+      <c r="M94" s="227"/>
+      <c r="N94" s="227"/>
+      <c r="O94" s="227"/>
+      <c r="P94" s="227"/>
+      <c r="Q94" s="227"/>
+      <c r="R94" s="227"/>
+      <c r="S94" s="227"/>
+      <c r="T94" s="228"/>
     </row>
     <row r="95" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="304"/>
-      <c r="B95" s="305"/>
-      <c r="C95" s="305"/>
-      <c r="D95" s="305"/>
-      <c r="E95" s="305"/>
-      <c r="F95" s="305"/>
-      <c r="G95" s="305"/>
-      <c r="H95" s="305"/>
-      <c r="I95" s="305"/>
-      <c r="J95" s="305"/>
-      <c r="K95" s="310"/>
-      <c r="L95" s="310"/>
-      <c r="M95" s="310"/>
-      <c r="N95" s="310"/>
-      <c r="O95" s="310"/>
-      <c r="P95" s="310"/>
-      <c r="Q95" s="310"/>
-      <c r="R95" s="310"/>
-      <c r="S95" s="310"/>
-      <c r="T95" s="311"/>
+      <c r="A95" s="221"/>
+      <c r="B95" s="222"/>
+      <c r="C95" s="222"/>
+      <c r="D95" s="222"/>
+      <c r="E95" s="222"/>
+      <c r="F95" s="222"/>
+      <c r="G95" s="222"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="227"/>
+      <c r="L95" s="227"/>
+      <c r="M95" s="227"/>
+      <c r="N95" s="227"/>
+      <c r="O95" s="227"/>
+      <c r="P95" s="227"/>
+      <c r="Q95" s="227"/>
+      <c r="R95" s="227"/>
+      <c r="S95" s="227"/>
+      <c r="T95" s="228"/>
     </row>
     <row r="96" spans="1:22" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="304"/>
-      <c r="B96" s="305"/>
-      <c r="C96" s="305"/>
-      <c r="D96" s="305"/>
-      <c r="E96" s="305"/>
-      <c r="F96" s="305"/>
-      <c r="G96" s="305"/>
-      <c r="H96" s="305"/>
-      <c r="I96" s="305"/>
-      <c r="J96" s="305"/>
-      <c r="K96" s="310"/>
-      <c r="L96" s="310"/>
-      <c r="M96" s="310"/>
-      <c r="N96" s="310"/>
-      <c r="O96" s="310"/>
-      <c r="P96" s="310"/>
-      <c r="Q96" s="310"/>
-      <c r="R96" s="310"/>
-      <c r="S96" s="310"/>
-      <c r="T96" s="311"/>
+      <c r="A96" s="221"/>
+      <c r="B96" s="222"/>
+      <c r="C96" s="222"/>
+      <c r="D96" s="222"/>
+      <c r="E96" s="222"/>
+      <c r="F96" s="222"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
+      <c r="J96" s="222"/>
+      <c r="K96" s="227"/>
+      <c r="L96" s="227"/>
+      <c r="M96" s="227"/>
+      <c r="N96" s="227"/>
+      <c r="O96" s="227"/>
+      <c r="P96" s="227"/>
+      <c r="Q96" s="227"/>
+      <c r="R96" s="227"/>
+      <c r="S96" s="227"/>
+      <c r="T96" s="228"/>
     </row>
     <row r="97" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="304"/>
-      <c r="B97" s="305"/>
-      <c r="C97" s="305"/>
-      <c r="D97" s="305"/>
-      <c r="E97" s="305"/>
-      <c r="F97" s="305"/>
-      <c r="G97" s="305"/>
-      <c r="H97" s="305"/>
-      <c r="I97" s="305"/>
-      <c r="J97" s="305"/>
-      <c r="K97" s="310"/>
-      <c r="L97" s="310"/>
-      <c r="M97" s="310"/>
-      <c r="N97" s="310"/>
-      <c r="O97" s="310"/>
-      <c r="P97" s="310"/>
-      <c r="Q97" s="310"/>
-      <c r="R97" s="310"/>
-      <c r="S97" s="310"/>
-      <c r="T97" s="311"/>
+      <c r="A97" s="221"/>
+      <c r="B97" s="222"/>
+      <c r="C97" s="222"/>
+      <c r="D97" s="222"/>
+      <c r="E97" s="222"/>
+      <c r="F97" s="222"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
+      <c r="J97" s="222"/>
+      <c r="K97" s="227"/>
+      <c r="L97" s="227"/>
+      <c r="M97" s="227"/>
+      <c r="N97" s="227"/>
+      <c r="O97" s="227"/>
+      <c r="P97" s="227"/>
+      <c r="Q97" s="227"/>
+      <c r="R97" s="227"/>
+      <c r="S97" s="227"/>
+      <c r="T97" s="228"/>
     </row>
     <row r="98" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="304"/>
-      <c r="B98" s="305"/>
-      <c r="C98" s="305"/>
-      <c r="D98" s="305"/>
-      <c r="E98" s="305"/>
-      <c r="F98" s="305"/>
-      <c r="G98" s="305"/>
-      <c r="H98" s="305"/>
-      <c r="I98" s="305"/>
-      <c r="J98" s="305"/>
-      <c r="K98" s="310"/>
-      <c r="L98" s="310"/>
-      <c r="M98" s="310"/>
-      <c r="N98" s="310"/>
-      <c r="O98" s="310"/>
-      <c r="P98" s="310"/>
-      <c r="Q98" s="310"/>
-      <c r="R98" s="310"/>
-      <c r="S98" s="310"/>
-      <c r="T98" s="311"/>
+      <c r="A98" s="221"/>
+      <c r="B98" s="222"/>
+      <c r="C98" s="222"/>
+      <c r="D98" s="222"/>
+      <c r="E98" s="222"/>
+      <c r="F98" s="222"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
+      <c r="J98" s="222"/>
+      <c r="K98" s="227"/>
+      <c r="L98" s="227"/>
+      <c r="M98" s="227"/>
+      <c r="N98" s="227"/>
+      <c r="O98" s="227"/>
+      <c r="P98" s="227"/>
+      <c r="Q98" s="227"/>
+      <c r="R98" s="227"/>
+      <c r="S98" s="227"/>
+      <c r="T98" s="228"/>
     </row>
     <row r="99" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="304"/>
-      <c r="B99" s="305"/>
-      <c r="C99" s="305"/>
-      <c r="D99" s="305"/>
-      <c r="E99" s="305"/>
-      <c r="F99" s="305"/>
-      <c r="G99" s="305"/>
-      <c r="H99" s="305"/>
-      <c r="I99" s="305"/>
-      <c r="J99" s="305"/>
-      <c r="K99" s="310"/>
-      <c r="L99" s="310"/>
-      <c r="M99" s="310"/>
-      <c r="N99" s="310"/>
-      <c r="O99" s="310"/>
-      <c r="P99" s="310"/>
-      <c r="Q99" s="310"/>
-      <c r="R99" s="310"/>
-      <c r="S99" s="310"/>
-      <c r="T99" s="311"/>
+      <c r="A99" s="221"/>
+      <c r="B99" s="222"/>
+      <c r="C99" s="222"/>
+      <c r="D99" s="222"/>
+      <c r="E99" s="222"/>
+      <c r="F99" s="222"/>
+      <c r="G99" s="222"/>
+      <c r="H99" s="222"/>
+      <c r="I99" s="222"/>
+      <c r="J99" s="222"/>
+      <c r="K99" s="227"/>
+      <c r="L99" s="227"/>
+      <c r="M99" s="227"/>
+      <c r="N99" s="227"/>
+      <c r="O99" s="227"/>
+      <c r="P99" s="227"/>
+      <c r="Q99" s="227"/>
+      <c r="R99" s="227"/>
+      <c r="S99" s="227"/>
+      <c r="T99" s="228"/>
     </row>
     <row r="100" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="304"/>
-      <c r="B100" s="305"/>
-      <c r="C100" s="305"/>
-      <c r="D100" s="305"/>
-      <c r="E100" s="305"/>
-      <c r="F100" s="305"/>
-      <c r="G100" s="305"/>
-      <c r="H100" s="305"/>
-      <c r="I100" s="305"/>
-      <c r="J100" s="305"/>
-      <c r="K100" s="310"/>
-      <c r="L100" s="310"/>
-      <c r="M100" s="310"/>
-      <c r="N100" s="310"/>
-      <c r="O100" s="310"/>
-      <c r="P100" s="310"/>
-      <c r="Q100" s="310"/>
-      <c r="R100" s="310"/>
-      <c r="S100" s="310"/>
-      <c r="T100" s="311"/>
+      <c r="A100" s="221"/>
+      <c r="B100" s="222"/>
+      <c r="C100" s="222"/>
+      <c r="D100" s="222"/>
+      <c r="E100" s="222"/>
+      <c r="F100" s="222"/>
+      <c r="G100" s="222"/>
+      <c r="H100" s="222"/>
+      <c r="I100" s="222"/>
+      <c r="J100" s="222"/>
+      <c r="K100" s="227"/>
+      <c r="L100" s="227"/>
+      <c r="M100" s="227"/>
+      <c r="N100" s="227"/>
+      <c r="O100" s="227"/>
+      <c r="P100" s="227"/>
+      <c r="Q100" s="227"/>
+      <c r="R100" s="227"/>
+      <c r="S100" s="227"/>
+      <c r="T100" s="228"/>
     </row>
     <row r="101" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="304"/>
-      <c r="B101" s="305"/>
-      <c r="C101" s="305"/>
-      <c r="D101" s="305"/>
-      <c r="E101" s="305"/>
-      <c r="F101" s="305"/>
-      <c r="G101" s="305"/>
-      <c r="H101" s="305"/>
-      <c r="I101" s="305"/>
-      <c r="J101" s="305"/>
-      <c r="K101" s="310"/>
-      <c r="L101" s="310"/>
-      <c r="M101" s="310"/>
-      <c r="N101" s="310"/>
-      <c r="O101" s="310"/>
-      <c r="P101" s="310"/>
-      <c r="Q101" s="310"/>
-      <c r="R101" s="310"/>
-      <c r="S101" s="310"/>
-      <c r="T101" s="311"/>
+      <c r="A101" s="221"/>
+      <c r="B101" s="222"/>
+      <c r="C101" s="222"/>
+      <c r="D101" s="222"/>
+      <c r="E101" s="222"/>
+      <c r="F101" s="222"/>
+      <c r="G101" s="222"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="222"/>
+      <c r="J101" s="222"/>
+      <c r="K101" s="227"/>
+      <c r="L101" s="227"/>
+      <c r="M101" s="227"/>
+      <c r="N101" s="227"/>
+      <c r="O101" s="227"/>
+      <c r="P101" s="227"/>
+      <c r="Q101" s="227"/>
+      <c r="R101" s="227"/>
+      <c r="S101" s="227"/>
+      <c r="T101" s="228"/>
     </row>
     <row r="102" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="304"/>
-      <c r="B102" s="305"/>
-      <c r="C102" s="305"/>
-      <c r="D102" s="305"/>
-      <c r="E102" s="305"/>
-      <c r="F102" s="305"/>
-      <c r="G102" s="305"/>
-      <c r="H102" s="305"/>
-      <c r="I102" s="305"/>
-      <c r="J102" s="305"/>
-      <c r="K102" s="310"/>
-      <c r="L102" s="310"/>
-      <c r="M102" s="310"/>
-      <c r="N102" s="310"/>
-      <c r="O102" s="310"/>
-      <c r="P102" s="310"/>
-      <c r="Q102" s="310"/>
-      <c r="R102" s="310"/>
-      <c r="S102" s="310"/>
-      <c r="T102" s="311"/>
+      <c r="A102" s="221"/>
+      <c r="B102" s="222"/>
+      <c r="C102" s="222"/>
+      <c r="D102" s="222"/>
+      <c r="E102" s="222"/>
+      <c r="F102" s="222"/>
+      <c r="G102" s="222"/>
+      <c r="H102" s="222"/>
+      <c r="I102" s="222"/>
+      <c r="J102" s="222"/>
+      <c r="K102" s="227"/>
+      <c r="L102" s="227"/>
+      <c r="M102" s="227"/>
+      <c r="N102" s="227"/>
+      <c r="O102" s="227"/>
+      <c r="P102" s="227"/>
+      <c r="Q102" s="227"/>
+      <c r="R102" s="227"/>
+      <c r="S102" s="227"/>
+      <c r="T102" s="228"/>
     </row>
     <row r="103" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="304"/>
-      <c r="B103" s="305"/>
-      <c r="C103" s="305"/>
-      <c r="D103" s="305"/>
-      <c r="E103" s="305"/>
-      <c r="F103" s="305"/>
-      <c r="G103" s="305"/>
-      <c r="H103" s="305"/>
-      <c r="I103" s="305"/>
-      <c r="J103" s="305"/>
-      <c r="K103" s="310"/>
-      <c r="L103" s="310"/>
-      <c r="M103" s="310"/>
-      <c r="N103" s="310"/>
-      <c r="O103" s="310"/>
-      <c r="P103" s="310"/>
-      <c r="Q103" s="310"/>
-      <c r="R103" s="310"/>
-      <c r="S103" s="310"/>
-      <c r="T103" s="311"/>
+      <c r="A103" s="221"/>
+      <c r="B103" s="222"/>
+      <c r="C103" s="222"/>
+      <c r="D103" s="222"/>
+      <c r="E103" s="222"/>
+      <c r="F103" s="222"/>
+      <c r="G103" s="222"/>
+      <c r="H103" s="222"/>
+      <c r="I103" s="222"/>
+      <c r="J103" s="222"/>
+      <c r="K103" s="227"/>
+      <c r="L103" s="227"/>
+      <c r="M103" s="227"/>
+      <c r="N103" s="227"/>
+      <c r="O103" s="227"/>
+      <c r="P103" s="227"/>
+      <c r="Q103" s="227"/>
+      <c r="R103" s="227"/>
+      <c r="S103" s="227"/>
+      <c r="T103" s="228"/>
     </row>
     <row r="104" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="304"/>
-      <c r="B104" s="305"/>
-      <c r="C104" s="305"/>
-      <c r="D104" s="305"/>
-      <c r="E104" s="305"/>
-      <c r="F104" s="305"/>
-      <c r="G104" s="305"/>
-      <c r="H104" s="305"/>
-      <c r="I104" s="305"/>
-      <c r="J104" s="305"/>
-      <c r="K104" s="310"/>
-      <c r="L104" s="310"/>
-      <c r="M104" s="310"/>
-      <c r="N104" s="310"/>
-      <c r="O104" s="310"/>
-      <c r="P104" s="310"/>
-      <c r="Q104" s="310"/>
-      <c r="R104" s="310"/>
-      <c r="S104" s="310"/>
-      <c r="T104" s="311"/>
+      <c r="A104" s="221"/>
+      <c r="B104" s="222"/>
+      <c r="C104" s="222"/>
+      <c r="D104" s="222"/>
+      <c r="E104" s="222"/>
+      <c r="F104" s="222"/>
+      <c r="G104" s="222"/>
+      <c r="H104" s="222"/>
+      <c r="I104" s="222"/>
+      <c r="J104" s="222"/>
+      <c r="K104" s="227"/>
+      <c r="L104" s="227"/>
+      <c r="M104" s="227"/>
+      <c r="N104" s="227"/>
+      <c r="O104" s="227"/>
+      <c r="P104" s="227"/>
+      <c r="Q104" s="227"/>
+      <c r="R104" s="227"/>
+      <c r="S104" s="227"/>
+      <c r="T104" s="228"/>
     </row>
     <row r="105" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="304"/>
-      <c r="B105" s="305"/>
-      <c r="C105" s="305"/>
-      <c r="D105" s="305"/>
-      <c r="E105" s="305"/>
-      <c r="F105" s="305"/>
-      <c r="G105" s="305"/>
-      <c r="H105" s="305"/>
-      <c r="I105" s="305"/>
-      <c r="J105" s="305"/>
-      <c r="K105" s="310"/>
-      <c r="L105" s="310"/>
-      <c r="M105" s="310"/>
-      <c r="N105" s="310"/>
-      <c r="O105" s="310"/>
-      <c r="P105" s="310"/>
-      <c r="Q105" s="310"/>
-      <c r="R105" s="310"/>
-      <c r="S105" s="310"/>
-      <c r="T105" s="311"/>
+      <c r="A105" s="221"/>
+      <c r="B105" s="222"/>
+      <c r="C105" s="222"/>
+      <c r="D105" s="222"/>
+      <c r="E105" s="222"/>
+      <c r="F105" s="222"/>
+      <c r="G105" s="222"/>
+      <c r="H105" s="222"/>
+      <c r="I105" s="222"/>
+      <c r="J105" s="222"/>
+      <c r="K105" s="227"/>
+      <c r="L105" s="227"/>
+      <c r="M105" s="227"/>
+      <c r="N105" s="227"/>
+      <c r="O105" s="227"/>
+      <c r="P105" s="227"/>
+      <c r="Q105" s="227"/>
+      <c r="R105" s="227"/>
+      <c r="S105" s="227"/>
+      <c r="T105" s="228"/>
     </row>
     <row r="106" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="304"/>
-      <c r="B106" s="305"/>
-      <c r="C106" s="305"/>
-      <c r="D106" s="305"/>
-      <c r="E106" s="305"/>
-      <c r="F106" s="305"/>
-      <c r="G106" s="305"/>
-      <c r="H106" s="305"/>
-      <c r="I106" s="305"/>
-      <c r="J106" s="305"/>
-      <c r="K106" s="310"/>
-      <c r="L106" s="310"/>
-      <c r="M106" s="310"/>
-      <c r="N106" s="310"/>
-      <c r="O106" s="310"/>
-      <c r="P106" s="310"/>
-      <c r="Q106" s="310"/>
-      <c r="R106" s="310"/>
-      <c r="S106" s="310"/>
-      <c r="T106" s="311"/>
+      <c r="A106" s="221"/>
+      <c r="B106" s="222"/>
+      <c r="C106" s="222"/>
+      <c r="D106" s="222"/>
+      <c r="E106" s="222"/>
+      <c r="F106" s="222"/>
+      <c r="G106" s="222"/>
+      <c r="H106" s="222"/>
+      <c r="I106" s="222"/>
+      <c r="J106" s="222"/>
+      <c r="K106" s="227"/>
+      <c r="L106" s="227"/>
+      <c r="M106" s="227"/>
+      <c r="N106" s="227"/>
+      <c r="O106" s="227"/>
+      <c r="P106" s="227"/>
+      <c r="Q106" s="227"/>
+      <c r="R106" s="227"/>
+      <c r="S106" s="227"/>
+      <c r="T106" s="228"/>
     </row>
     <row r="107" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="304"/>
-      <c r="B107" s="305"/>
-      <c r="C107" s="305"/>
-      <c r="D107" s="305"/>
-      <c r="E107" s="305"/>
-      <c r="F107" s="305"/>
-      <c r="G107" s="305"/>
-      <c r="H107" s="305"/>
-      <c r="I107" s="305"/>
-      <c r="J107" s="305"/>
-      <c r="K107" s="310"/>
-      <c r="L107" s="310"/>
-      <c r="M107" s="310"/>
-      <c r="N107" s="310"/>
-      <c r="O107" s="310"/>
-      <c r="P107" s="310"/>
-      <c r="Q107" s="310"/>
-      <c r="R107" s="310"/>
-      <c r="S107" s="310"/>
-      <c r="T107" s="311"/>
+      <c r="A107" s="221"/>
+      <c r="B107" s="222"/>
+      <c r="C107" s="222"/>
+      <c r="D107" s="222"/>
+      <c r="E107" s="222"/>
+      <c r="F107" s="222"/>
+      <c r="G107" s="222"/>
+      <c r="H107" s="222"/>
+      <c r="I107" s="222"/>
+      <c r="J107" s="222"/>
+      <c r="K107" s="227"/>
+      <c r="L107" s="227"/>
+      <c r="M107" s="227"/>
+      <c r="N107" s="227"/>
+      <c r="O107" s="227"/>
+      <c r="P107" s="227"/>
+      <c r="Q107" s="227"/>
+      <c r="R107" s="227"/>
+      <c r="S107" s="227"/>
+      <c r="T107" s="228"/>
     </row>
     <row r="108" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="304"/>
-      <c r="B108" s="305"/>
-      <c r="C108" s="305"/>
-      <c r="D108" s="305"/>
-      <c r="E108" s="305"/>
-      <c r="F108" s="305"/>
-      <c r="G108" s="305"/>
-      <c r="H108" s="305"/>
-      <c r="I108" s="305"/>
-      <c r="J108" s="305"/>
-      <c r="K108" s="310"/>
-      <c r="L108" s="310"/>
-      <c r="M108" s="310"/>
-      <c r="N108" s="310"/>
-      <c r="O108" s="310"/>
-      <c r="P108" s="310"/>
-      <c r="Q108" s="310"/>
-      <c r="R108" s="310"/>
-      <c r="S108" s="310"/>
-      <c r="T108" s="311"/>
+      <c r="A108" s="221"/>
+      <c r="B108" s="222"/>
+      <c r="C108" s="222"/>
+      <c r="D108" s="222"/>
+      <c r="E108" s="222"/>
+      <c r="F108" s="222"/>
+      <c r="G108" s="222"/>
+      <c r="H108" s="222"/>
+      <c r="I108" s="222"/>
+      <c r="J108" s="222"/>
+      <c r="K108" s="227"/>
+      <c r="L108" s="227"/>
+      <c r="M108" s="227"/>
+      <c r="N108" s="227"/>
+      <c r="O108" s="227"/>
+      <c r="P108" s="227"/>
+      <c r="Q108" s="227"/>
+      <c r="R108" s="227"/>
+      <c r="S108" s="227"/>
+      <c r="T108" s="228"/>
     </row>
     <row r="109" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="304"/>
-      <c r="B109" s="305"/>
-      <c r="C109" s="305"/>
-      <c r="D109" s="305"/>
-      <c r="E109" s="305"/>
-      <c r="F109" s="305"/>
-      <c r="G109" s="305"/>
-      <c r="H109" s="305"/>
-      <c r="I109" s="305"/>
-      <c r="J109" s="305"/>
-      <c r="K109" s="310"/>
-      <c r="L109" s="310"/>
-      <c r="M109" s="310"/>
-      <c r="N109" s="310"/>
-      <c r="O109" s="310"/>
-      <c r="P109" s="310"/>
-      <c r="Q109" s="310"/>
-      <c r="R109" s="310"/>
-      <c r="S109" s="310"/>
-      <c r="T109" s="311"/>
+      <c r="A109" s="221"/>
+      <c r="B109" s="222"/>
+      <c r="C109" s="222"/>
+      <c r="D109" s="222"/>
+      <c r="E109" s="222"/>
+      <c r="F109" s="222"/>
+      <c r="G109" s="222"/>
+      <c r="H109" s="222"/>
+      <c r="I109" s="222"/>
+      <c r="J109" s="222"/>
+      <c r="K109" s="227"/>
+      <c r="L109" s="227"/>
+      <c r="M109" s="227"/>
+      <c r="N109" s="227"/>
+      <c r="O109" s="227"/>
+      <c r="P109" s="227"/>
+      <c r="Q109" s="227"/>
+      <c r="R109" s="227"/>
+      <c r="S109" s="227"/>
+      <c r="T109" s="228"/>
     </row>
     <row r="110" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="304"/>
-      <c r="B110" s="305"/>
-      <c r="C110" s="305"/>
-      <c r="D110" s="305"/>
-      <c r="E110" s="305"/>
-      <c r="F110" s="305"/>
-      <c r="G110" s="305"/>
-      <c r="H110" s="305"/>
-      <c r="I110" s="305"/>
-      <c r="J110" s="305"/>
-      <c r="K110" s="310"/>
-      <c r="L110" s="310"/>
-      <c r="M110" s="310"/>
-      <c r="N110" s="310"/>
-      <c r="O110" s="310"/>
-      <c r="P110" s="310"/>
-      <c r="Q110" s="310"/>
-      <c r="R110" s="310"/>
-      <c r="S110" s="310"/>
-      <c r="T110" s="311"/>
+      <c r="A110" s="221"/>
+      <c r="B110" s="222"/>
+      <c r="C110" s="222"/>
+      <c r="D110" s="222"/>
+      <c r="E110" s="222"/>
+      <c r="F110" s="222"/>
+      <c r="G110" s="222"/>
+      <c r="H110" s="222"/>
+      <c r="I110" s="222"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="227"/>
+      <c r="L110" s="227"/>
+      <c r="M110" s="227"/>
+      <c r="N110" s="227"/>
+      <c r="O110" s="227"/>
+      <c r="P110" s="227"/>
+      <c r="Q110" s="227"/>
+      <c r="R110" s="227"/>
+      <c r="S110" s="227"/>
+      <c r="T110" s="228"/>
     </row>
     <row r="111" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="304"/>
-      <c r="B111" s="305"/>
-      <c r="C111" s="305"/>
-      <c r="D111" s="305"/>
-      <c r="E111" s="305"/>
-      <c r="F111" s="305"/>
-      <c r="G111" s="305"/>
-      <c r="H111" s="305"/>
-      <c r="I111" s="305"/>
-      <c r="J111" s="305"/>
-      <c r="K111" s="310"/>
-      <c r="L111" s="310"/>
-      <c r="M111" s="310"/>
-      <c r="N111" s="310"/>
-      <c r="O111" s="310"/>
-      <c r="P111" s="310"/>
-      <c r="Q111" s="310"/>
-      <c r="R111" s="310"/>
-      <c r="S111" s="310"/>
-      <c r="T111" s="311"/>
+      <c r="A111" s="221"/>
+      <c r="B111" s="222"/>
+      <c r="C111" s="222"/>
+      <c r="D111" s="222"/>
+      <c r="E111" s="222"/>
+      <c r="F111" s="222"/>
+      <c r="G111" s="222"/>
+      <c r="H111" s="222"/>
+      <c r="I111" s="222"/>
+      <c r="J111" s="222"/>
+      <c r="K111" s="227"/>
+      <c r="L111" s="227"/>
+      <c r="M111" s="227"/>
+      <c r="N111" s="227"/>
+      <c r="O111" s="227"/>
+      <c r="P111" s="227"/>
+      <c r="Q111" s="227"/>
+      <c r="R111" s="227"/>
+      <c r="S111" s="227"/>
+      <c r="T111" s="228"/>
     </row>
     <row r="112" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="304"/>
-      <c r="B112" s="305"/>
-      <c r="C112" s="305"/>
-      <c r="D112" s="305"/>
-      <c r="E112" s="305"/>
-      <c r="F112" s="305"/>
-      <c r="G112" s="305"/>
-      <c r="H112" s="305"/>
-      <c r="I112" s="305"/>
-      <c r="J112" s="305"/>
-      <c r="K112" s="310"/>
-      <c r="L112" s="310"/>
-      <c r="M112" s="310"/>
-      <c r="N112" s="310"/>
-      <c r="O112" s="310"/>
-      <c r="P112" s="310"/>
-      <c r="Q112" s="310"/>
-      <c r="R112" s="310"/>
-      <c r="S112" s="310"/>
-      <c r="T112" s="311"/>
+      <c r="A112" s="221"/>
+      <c r="B112" s="222"/>
+      <c r="C112" s="222"/>
+      <c r="D112" s="222"/>
+      <c r="E112" s="222"/>
+      <c r="F112" s="222"/>
+      <c r="G112" s="222"/>
+      <c r="H112" s="222"/>
+      <c r="I112" s="222"/>
+      <c r="J112" s="222"/>
+      <c r="K112" s="227"/>
+      <c r="L112" s="227"/>
+      <c r="M112" s="227"/>
+      <c r="N112" s="227"/>
+      <c r="O112" s="227"/>
+      <c r="P112" s="227"/>
+      <c r="Q112" s="227"/>
+      <c r="R112" s="227"/>
+      <c r="S112" s="227"/>
+      <c r="T112" s="228"/>
     </row>
     <row r="113" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="304"/>
-      <c r="B113" s="305"/>
-      <c r="C113" s="305"/>
-      <c r="D113" s="305"/>
-      <c r="E113" s="305"/>
-      <c r="F113" s="305"/>
-      <c r="G113" s="305"/>
-      <c r="H113" s="305"/>
-      <c r="I113" s="305"/>
-      <c r="J113" s="305"/>
-      <c r="K113" s="310"/>
-      <c r="L113" s="310"/>
-      <c r="M113" s="310"/>
-      <c r="N113" s="310"/>
-      <c r="O113" s="310"/>
-      <c r="P113" s="310"/>
-      <c r="Q113" s="310"/>
-      <c r="R113" s="310"/>
-      <c r="S113" s="310"/>
-      <c r="T113" s="311"/>
+      <c r="A113" s="221"/>
+      <c r="B113" s="222"/>
+      <c r="C113" s="222"/>
+      <c r="D113" s="222"/>
+      <c r="E113" s="222"/>
+      <c r="F113" s="222"/>
+      <c r="G113" s="222"/>
+      <c r="H113" s="222"/>
+      <c r="I113" s="222"/>
+      <c r="J113" s="222"/>
+      <c r="K113" s="227"/>
+      <c r="L113" s="227"/>
+      <c r="M113" s="227"/>
+      <c r="N113" s="227"/>
+      <c r="O113" s="227"/>
+      <c r="P113" s="227"/>
+      <c r="Q113" s="227"/>
+      <c r="R113" s="227"/>
+      <c r="S113" s="227"/>
+      <c r="T113" s="228"/>
     </row>
     <row r="114" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A114" s="304"/>
-      <c r="B114" s="305"/>
-      <c r="C114" s="305"/>
-      <c r="D114" s="305"/>
-      <c r="E114" s="305"/>
-      <c r="F114" s="305"/>
-      <c r="G114" s="305"/>
-      <c r="H114" s="305"/>
-      <c r="I114" s="305"/>
-      <c r="J114" s="305"/>
-      <c r="K114" s="310"/>
-      <c r="L114" s="310"/>
-      <c r="M114" s="310"/>
-      <c r="N114" s="310"/>
-      <c r="O114" s="310"/>
-      <c r="P114" s="310"/>
-      <c r="Q114" s="310"/>
-      <c r="R114" s="310"/>
-      <c r="S114" s="310"/>
-      <c r="T114" s="311"/>
+      <c r="A114" s="221"/>
+      <c r="B114" s="222"/>
+      <c r="C114" s="222"/>
+      <c r="D114" s="222"/>
+      <c r="E114" s="222"/>
+      <c r="F114" s="222"/>
+      <c r="G114" s="222"/>
+      <c r="H114" s="222"/>
+      <c r="I114" s="222"/>
+      <c r="J114" s="222"/>
+      <c r="K114" s="227"/>
+      <c r="L114" s="227"/>
+      <c r="M114" s="227"/>
+      <c r="N114" s="227"/>
+      <c r="O114" s="227"/>
+      <c r="P114" s="227"/>
+      <c r="Q114" s="227"/>
+      <c r="R114" s="227"/>
+      <c r="S114" s="227"/>
+      <c r="T114" s="228"/>
     </row>
     <row r="115" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A115" s="304"/>
-      <c r="B115" s="305"/>
-      <c r="C115" s="305"/>
-      <c r="D115" s="305"/>
-      <c r="E115" s="305"/>
-      <c r="F115" s="305"/>
-      <c r="G115" s="305"/>
-      <c r="H115" s="305"/>
-      <c r="I115" s="305"/>
-      <c r="J115" s="305"/>
-      <c r="K115" s="310"/>
-      <c r="L115" s="310"/>
-      <c r="M115" s="310"/>
-      <c r="N115" s="310"/>
-      <c r="O115" s="310"/>
-      <c r="P115" s="310"/>
-      <c r="Q115" s="310"/>
-      <c r="R115" s="310"/>
-      <c r="S115" s="310"/>
-      <c r="T115" s="311"/>
+      <c r="A115" s="221"/>
+      <c r="B115" s="222"/>
+      <c r="C115" s="222"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="222"/>
+      <c r="F115" s="222"/>
+      <c r="G115" s="222"/>
+      <c r="H115" s="222"/>
+      <c r="I115" s="222"/>
+      <c r="J115" s="222"/>
+      <c r="K115" s="227"/>
+      <c r="L115" s="227"/>
+      <c r="M115" s="227"/>
+      <c r="N115" s="227"/>
+      <c r="O115" s="227"/>
+      <c r="P115" s="227"/>
+      <c r="Q115" s="227"/>
+      <c r="R115" s="227"/>
+      <c r="S115" s="227"/>
+      <c r="T115" s="228"/>
     </row>
     <row r="116" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="304"/>
-      <c r="B116" s="305"/>
-      <c r="C116" s="305"/>
-      <c r="D116" s="305"/>
-      <c r="E116" s="305"/>
-      <c r="F116" s="305"/>
-      <c r="G116" s="305"/>
-      <c r="H116" s="305"/>
-      <c r="I116" s="305"/>
-      <c r="J116" s="305"/>
-      <c r="K116" s="310"/>
-      <c r="L116" s="310"/>
-      <c r="M116" s="310"/>
-      <c r="N116" s="310"/>
-      <c r="O116" s="310"/>
-      <c r="P116" s="310"/>
-      <c r="Q116" s="310"/>
-      <c r="R116" s="310"/>
-      <c r="S116" s="310"/>
-      <c r="T116" s="311"/>
+      <c r="A116" s="221"/>
+      <c r="B116" s="222"/>
+      <c r="C116" s="222"/>
+      <c r="D116" s="222"/>
+      <c r="E116" s="222"/>
+      <c r="F116" s="222"/>
+      <c r="G116" s="222"/>
+      <c r="H116" s="222"/>
+      <c r="I116" s="222"/>
+      <c r="J116" s="222"/>
+      <c r="K116" s="227"/>
+      <c r="L116" s="227"/>
+      <c r="M116" s="227"/>
+      <c r="N116" s="227"/>
+      <c r="O116" s="227"/>
+      <c r="P116" s="227"/>
+      <c r="Q116" s="227"/>
+      <c r="R116" s="227"/>
+      <c r="S116" s="227"/>
+      <c r="T116" s="228"/>
     </row>
     <row r="117" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="304"/>
-      <c r="B117" s="305"/>
-      <c r="C117" s="305"/>
-      <c r="D117" s="305"/>
-      <c r="E117" s="305"/>
-      <c r="F117" s="305"/>
-      <c r="G117" s="305"/>
-      <c r="H117" s="305"/>
-      <c r="I117" s="305"/>
-      <c r="J117" s="305"/>
-      <c r="K117" s="310"/>
-      <c r="L117" s="310"/>
-      <c r="M117" s="310"/>
-      <c r="N117" s="310"/>
-      <c r="O117" s="310"/>
-      <c r="P117" s="310"/>
-      <c r="Q117" s="310"/>
-      <c r="R117" s="310"/>
-      <c r="S117" s="310"/>
-      <c r="T117" s="311"/>
+      <c r="A117" s="221"/>
+      <c r="B117" s="222"/>
+      <c r="C117" s="222"/>
+      <c r="D117" s="222"/>
+      <c r="E117" s="222"/>
+      <c r="F117" s="222"/>
+      <c r="G117" s="222"/>
+      <c r="H117" s="222"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="222"/>
+      <c r="K117" s="227"/>
+      <c r="L117" s="227"/>
+      <c r="M117" s="227"/>
+      <c r="N117" s="227"/>
+      <c r="O117" s="227"/>
+      <c r="P117" s="227"/>
+      <c r="Q117" s="227"/>
+      <c r="R117" s="227"/>
+      <c r="S117" s="227"/>
+      <c r="T117" s="228"/>
     </row>
     <row r="118" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="304"/>
-      <c r="B118" s="305"/>
-      <c r="C118" s="305"/>
-      <c r="D118" s="305"/>
-      <c r="E118" s="305"/>
-      <c r="F118" s="305"/>
-      <c r="G118" s="305"/>
-      <c r="H118" s="305"/>
-      <c r="I118" s="305"/>
-      <c r="J118" s="305"/>
-      <c r="K118" s="310"/>
-      <c r="L118" s="310"/>
-      <c r="M118" s="310"/>
-      <c r="N118" s="310"/>
-      <c r="O118" s="310"/>
-      <c r="P118" s="310"/>
-      <c r="Q118" s="310"/>
-      <c r="R118" s="310"/>
-      <c r="S118" s="310"/>
-      <c r="T118" s="311"/>
+      <c r="A118" s="221"/>
+      <c r="B118" s="222"/>
+      <c r="C118" s="222"/>
+      <c r="D118" s="222"/>
+      <c r="E118" s="222"/>
+      <c r="F118" s="222"/>
+      <c r="G118" s="222"/>
+      <c r="H118" s="222"/>
+      <c r="I118" s="222"/>
+      <c r="J118" s="222"/>
+      <c r="K118" s="227"/>
+      <c r="L118" s="227"/>
+      <c r="M118" s="227"/>
+      <c r="N118" s="227"/>
+      <c r="O118" s="227"/>
+      <c r="P118" s="227"/>
+      <c r="Q118" s="227"/>
+      <c r="R118" s="227"/>
+      <c r="S118" s="227"/>
+      <c r="T118" s="228"/>
     </row>
     <row r="119" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A119" s="304"/>
-      <c r="B119" s="305"/>
-      <c r="C119" s="305"/>
-      <c r="D119" s="305"/>
-      <c r="E119" s="305"/>
-      <c r="F119" s="305"/>
-      <c r="G119" s="305"/>
-      <c r="H119" s="305"/>
-      <c r="I119" s="305"/>
-      <c r="J119" s="305"/>
-      <c r="K119" s="310"/>
-      <c r="L119" s="310"/>
-      <c r="M119" s="310"/>
-      <c r="N119" s="310"/>
-      <c r="O119" s="310"/>
-      <c r="P119" s="310"/>
-      <c r="Q119" s="310"/>
-      <c r="R119" s="310"/>
-      <c r="S119" s="310"/>
-      <c r="T119" s="311"/>
+      <c r="A119" s="221"/>
+      <c r="B119" s="222"/>
+      <c r="C119" s="222"/>
+      <c r="D119" s="222"/>
+      <c r="E119" s="222"/>
+      <c r="F119" s="222"/>
+      <c r="G119" s="222"/>
+      <c r="H119" s="222"/>
+      <c r="I119" s="222"/>
+      <c r="J119" s="222"/>
+      <c r="K119" s="227"/>
+      <c r="L119" s="227"/>
+      <c r="M119" s="227"/>
+      <c r="N119" s="227"/>
+      <c r="O119" s="227"/>
+      <c r="P119" s="227"/>
+      <c r="Q119" s="227"/>
+      <c r="R119" s="227"/>
+      <c r="S119" s="227"/>
+      <c r="T119" s="228"/>
     </row>
     <row r="120" spans="1:20" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="306"/>
-      <c r="B120" s="307"/>
-      <c r="C120" s="307"/>
-      <c r="D120" s="307"/>
-      <c r="E120" s="307"/>
-      <c r="F120" s="307"/>
-      <c r="G120" s="307"/>
-      <c r="H120" s="307"/>
-      <c r="I120" s="307"/>
-      <c r="J120" s="307"/>
-      <c r="K120" s="312"/>
-      <c r="L120" s="312"/>
-      <c r="M120" s="312"/>
-      <c r="N120" s="312"/>
-      <c r="O120" s="312"/>
-      <c r="P120" s="312"/>
-      <c r="Q120" s="312"/>
-      <c r="R120" s="312"/>
-      <c r="S120" s="312"/>
-      <c r="T120" s="313"/>
+      <c r="A120" s="223"/>
+      <c r="B120" s="224"/>
+      <c r="C120" s="224"/>
+      <c r="D120" s="224"/>
+      <c r="E120" s="224"/>
+      <c r="F120" s="224"/>
+      <c r="G120" s="224"/>
+      <c r="H120" s="224"/>
+      <c r="I120" s="224"/>
+      <c r="J120" s="224"/>
+      <c r="K120" s="229"/>
+      <c r="L120" s="229"/>
+      <c r="M120" s="229"/>
+      <c r="N120" s="229"/>
+      <c r="O120" s="229"/>
+      <c r="P120" s="229"/>
+      <c r="Q120" s="229"/>
+      <c r="R120" s="229"/>
+      <c r="S120" s="229"/>
+      <c r="T120" s="230"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="66">
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="K68:T68"/>
-    <mergeCell ref="K69:T89"/>
-    <mergeCell ref="A91:J120"/>
-    <mergeCell ref="K91:T120"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="K90:T90"/>
-    <mergeCell ref="A69:J89"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="R60:R64"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="R36:R44"/>
+    <mergeCell ref="R8:R16"/>
+    <mergeCell ref="T8:T16"/>
+    <mergeCell ref="R18:R34"/>
+    <mergeCell ref="T18:T34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="T36:T44"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="T46:T49"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="L6:M6"/>
@@ -11357,247 +11307,239 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="R36:R44"/>
-    <mergeCell ref="R8:R16"/>
-    <mergeCell ref="T8:T16"/>
-    <mergeCell ref="R18:R34"/>
-    <mergeCell ref="T18:T34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="T36:T44"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="R60:R64"/>
-    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C4:T4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="K68:T68"/>
+    <mergeCell ref="K69:T89"/>
+    <mergeCell ref="A91:J120"/>
+    <mergeCell ref="K91:T120"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="K90:T90"/>
+    <mergeCell ref="A69:J89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q8:Q10">
-    <cfRule type="notContainsBlanks" dxfId="163" priority="1709">
+    <cfRule type="notContainsBlanks" dxfId="160" priority="1709">
       <formula>LEN(TRIM(Q8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q14">
-    <cfRule type="notContainsBlanks" dxfId="162" priority="1710">
+    <cfRule type="notContainsBlanks" dxfId="159" priority="1710">
       <formula>LEN(TRIM(Q13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:Q20 Q43">
-    <cfRule type="notContainsBlanks" dxfId="161" priority="1713">
+    <cfRule type="notContainsBlanks" dxfId="158" priority="1713">
       <formula>LEN(TRIM(Q19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="notContainsBlanks" dxfId="160" priority="1711">
+    <cfRule type="notContainsBlanks" dxfId="157" priority="1711">
       <formula>LEN(TRIM(Q21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46:Q47">
-    <cfRule type="notContainsBlanks" dxfId="159" priority="1698">
+    <cfRule type="notContainsBlanks" dxfId="156" priority="1698">
       <formula>LEN(TRIM(Q46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="notContainsBlanks" dxfId="158" priority="1653">
+    <cfRule type="notContainsBlanks" dxfId="155" priority="1653">
       <formula>LEN(TRIM(S21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:S53 S8:S10 S13:S16 S18:S21 S41 S43:S44 S46:S47 S55:S58 S49 T46 S23:S31 S34">
-    <cfRule type="notContainsBlanks" dxfId="157" priority="1650">
+    <cfRule type="notContainsBlanks" dxfId="154" priority="1650">
       <formula>LEN(TRIM(S8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46">
-    <cfRule type="notContainsBlanks" dxfId="156" priority="1643">
+    <cfRule type="notContainsBlanks" dxfId="153" priority="1643">
       <formula>LEN(TRIM(S46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8 R18 R51 R46 R55">
-    <cfRule type="notContainsBlanks" dxfId="155" priority="1879">
+    <cfRule type="notContainsBlanks" dxfId="152" priority="1879">
       <formula>LEN(TRIM(R8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P19 P46:P47 P11 D21:P21 P51:P52 P49 P55:P58">
-    <cfRule type="cellIs" dxfId="154" priority="1634" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1634" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="153" priority="1632" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1632" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="152" priority="1625" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="1625" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="notContainsBlanks" dxfId="151" priority="231">
+    <cfRule type="notContainsBlanks" dxfId="148" priority="231">
       <formula>LEN(TRIM(Q11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="notContainsBlanks" dxfId="150" priority="230">
+    <cfRule type="notContainsBlanks" dxfId="147" priority="230">
       <formula>LEN(TRIM(S11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q31">
-    <cfRule type="notContainsBlanks" dxfId="149" priority="227">
+    <cfRule type="notContainsBlanks" dxfId="146" priority="227">
       <formula>LEN(TRIM(Q26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="notContainsBlanks" dxfId="148" priority="226">
+    <cfRule type="notContainsBlanks" dxfId="145" priority="226">
       <formula>LEN(TRIM(Q34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="notContainsBlanks" dxfId="147" priority="225">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="225">
       <formula>LEN(TRIM(S34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:P31">
-    <cfRule type="cellIs" dxfId="146" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37:Q38">
-    <cfRule type="notContainsBlanks" dxfId="144" priority="218">
+    <cfRule type="notContainsBlanks" dxfId="142" priority="218">
       <formula>LEN(TRIM(Q37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="notContainsBlanks" dxfId="143" priority="217">
+    <cfRule type="notContainsBlanks" dxfId="141" priority="217">
       <formula>LEN(TRIM(Q39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39">
-    <cfRule type="notContainsBlanks" dxfId="142" priority="216">
+    <cfRule type="notContainsBlanks" dxfId="140" priority="216">
       <formula>LEN(TRIM(S39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:S39">
-    <cfRule type="notContainsBlanks" dxfId="141" priority="215">
+    <cfRule type="notContainsBlanks" dxfId="139" priority="215">
       <formula>LEN(TRIM(S36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36">
-    <cfRule type="notContainsBlanks" dxfId="140" priority="219">
+    <cfRule type="notContainsBlanks" dxfId="138" priority="219">
       <formula>LEN(TRIM(R36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:P37">
-    <cfRule type="cellIs" dxfId="139" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="214" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="cellIs" dxfId="138" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="137" priority="148">
+    <cfRule type="expression" dxfId="135" priority="148">
       <formula>P11&lt;P16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q34">
-    <cfRule type="notContainsBlanks" dxfId="135" priority="207">
+    <cfRule type="notContainsBlanks" dxfId="133" priority="207">
       <formula>LEN(TRIM(Q33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S34">
-    <cfRule type="notContainsBlanks" dxfId="134" priority="206">
+    <cfRule type="notContainsBlanks" dxfId="132" priority="206">
       <formula>LEN(TRIM(S32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="133" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P34">
-    <cfRule type="cellIs" dxfId="132" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="cellIs" dxfId="131" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="notContainsBlanks" dxfId="130" priority="194">
+    <cfRule type="notContainsBlanks" dxfId="128" priority="194">
       <formula>LEN(TRIM(Q44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44">
-    <cfRule type="notContainsBlanks" dxfId="129" priority="193">
+    <cfRule type="notContainsBlanks" dxfId="127" priority="193">
       <formula>LEN(TRIM(S44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="cellIs" dxfId="128" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:P44">
-    <cfRule type="cellIs" dxfId="127" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:O52">
-    <cfRule type="expression" dxfId="126" priority="186">
+    <cfRule type="expression" dxfId="124" priority="186">
       <formula>J55&gt;J52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:S62">
-    <cfRule type="notContainsBlanks" dxfId="125" priority="183">
+    <cfRule type="notContainsBlanks" dxfId="123" priority="183">
       <formula>LEN(TRIM(S60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R60">
-    <cfRule type="notContainsBlanks" dxfId="124" priority="184">
+    <cfRule type="notContainsBlanks" dxfId="122" priority="184">
       <formula>LEN(TRIM(R60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60:P62">
-    <cfRule type="cellIs" dxfId="123" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:S64">
-    <cfRule type="notContainsBlanks" dxfId="122" priority="179">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="179">
       <formula>LEN(TRIM(S63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63:P64">
-    <cfRule type="cellIs" dxfId="121" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="176">
+    <cfRule type="notContainsBlanks" dxfId="118" priority="176">
       <formula>LEN(TRIM(T8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12140,24 +12082,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA9366B03F6EC145B189534E5AC3D6E6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc27aaa6afa60559960f746ac0a40ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="dac3fa0a-9923-49c3-b4ba-df6390fa58ea" xmlns:ns4="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6816e770e34b85fcdcbb3032b3d95e9" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12391,10 +12315,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F27D016-ED29-4335-8911-6427F4BFA81E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4331761-FFFE-4F11-AA2E-B35F1517E21B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12418,21 +12372,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4331761-FFFE-4F11-AA2E-B35F1517E21B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F27D016-ED29-4335-8911-6427F4BFA81E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/web/FPT_Final.xlsx
+++ b/web/FPT_Final.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Feb!$A$1:$P$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Feb!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1560,7 +1560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -2759,12 +2759,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2926,182 +3016,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3116,46 +3032,7 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="4" borderId="97" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,9 +3084,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3318,20 +3192,11 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3384,9 +3249,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3402,275 +3264,86 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3680,22 +3353,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3710,6 +3371,465 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6431,7 +6551,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="196" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -6448,7 +6568,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
@@ -6463,7 +6583,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="67"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
@@ -6478,16 +6598,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="185"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="196" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -6504,7 +6624,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="31" t="s">
         <v>39</v>
       </c>
@@ -6519,7 +6639,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="29" t="s">
         <v>40</v>
       </c>
@@ -6534,16 +6654,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
     </row>
     <row r="11" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="191" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6560,7 +6680,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A12" s="71"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="31" t="s">
         <v>70</v>
       </c>
@@ -6575,7 +6695,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A13" s="71"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="29" t="s">
         <v>71</v>
       </c>
@@ -6590,16 +6710,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
     </row>
     <row r="15" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="202" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -6616,7 +6736,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="29" t="s">
         <v>185</v>
       </c>
@@ -6627,7 +6747,7 @@
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="29" t="s">
         <v>186</v>
       </c>
@@ -6638,7 +6758,7 @@
       <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="57.75" thickBot="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="49" t="s">
         <v>70</v>
       </c>
@@ -6653,7 +6773,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="29" t="s">
         <v>185</v>
       </c>
@@ -6664,7 +6784,7 @@
       <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="29" t="s">
         <v>186</v>
       </c>
@@ -6675,7 +6795,7 @@
       <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:22" ht="43.5" thickBot="1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="50" t="s">
         <v>71</v>
       </c>
@@ -6690,7 +6810,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A22" s="76"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="29" t="s">
         <v>185</v>
       </c>
@@ -6701,7 +6821,7 @@
       <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="204"/>
       <c r="B23" s="29" t="s">
         <v>186</v>
       </c>
@@ -6712,7 +6832,7 @@
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="199" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -6729,7 +6849,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="51" t="s">
         <v>188</v>
       </c>
@@ -6744,7 +6864,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A26" s="74"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="49" t="s">
         <v>187</v>
       </c>
@@ -6755,16 +6875,16 @@
       <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="185"/>
     </row>
     <row r="28" spans="1:22" ht="43.5" thickBot="1">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="191" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="29" t="s">
@@ -6781,7 +6901,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="57.75" thickBot="1">
-      <c r="A29" s="71"/>
+      <c r="A29" s="191"/>
       <c r="B29" s="31" t="s">
         <v>70</v>
       </c>
@@ -6796,7 +6916,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="39" customHeight="1" thickBot="1">
-      <c r="A30" s="71"/>
+      <c r="A30" s="191"/>
       <c r="B30" s="29" t="s">
         <v>71</v>
       </c>
@@ -6874,13 +6994,13 @@
       <c r="V31" s="61"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="185"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1">
       <c r="A33" s="33" t="s">
@@ -6900,16 +7020,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="185"/>
     </row>
     <row r="35" spans="1:5" ht="39" customHeight="1" thickBot="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="192" t="s">
         <v>122</v>
       </c>
       <c r="B35" s="45" t="s">
@@ -6926,7 +7046,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A36" s="83"/>
+      <c r="A36" s="192"/>
       <c r="B36" s="29" t="s">
         <v>88</v>
       </c>
@@ -6941,16 +7061,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="185"/>
     </row>
     <row r="38" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="189" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -6967,7 +7087,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A39" s="81"/>
+      <c r="A39" s="189"/>
       <c r="B39" s="29" t="s">
         <v>90</v>
       </c>
@@ -6982,13 +7102,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="185"/>
     </row>
     <row r="41" spans="1:5" ht="60.75" thickBot="1">
       <c r="A41" s="32" t="s">
@@ -7008,16 +7128,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
     </row>
     <row r="43" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="193" t="s">
         <v>125</v>
       </c>
       <c r="B43" s="64" t="s">
@@ -7034,7 +7154,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A44" s="85"/>
+      <c r="A44" s="194"/>
       <c r="B44" s="64" t="s">
         <v>93</v>
       </c>
@@ -7049,7 +7169,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" thickBot="1">
-      <c r="A45" s="86"/>
+      <c r="A45" s="195"/>
       <c r="B45" s="63" t="s">
         <v>200</v>
       </c>
@@ -7060,16 +7180,16 @@
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="185"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="190" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="29" t="s">
@@ -7086,7 +7206,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="82"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="29" t="s">
         <v>95</v>
       </c>
@@ -7101,7 +7221,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="82"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="29" t="s">
         <v>158</v>
       </c>
@@ -7133,16 +7253,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="185"/>
     </row>
     <row r="52" spans="1:5" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="186" t="s">
         <v>111</v>
       </c>
       <c r="B52" s="34" t="s">
@@ -7159,7 +7279,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A53" s="78"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="37" t="s">
         <v>107</v>
       </c>
@@ -7174,7 +7294,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A54" s="78"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="34" t="s">
         <v>108</v>
       </c>
@@ -7189,7 +7309,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A55" s="78"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="38" t="s">
         <v>109</v>
       </c>
@@ -7204,7 +7324,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A56" s="78"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="37" t="s">
         <v>110</v>
       </c>
@@ -7221,6 +7341,12 @@
   </sheetData>
   <autoFilter ref="A2:E2"/>
   <mergeCells count="22">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A15:A23"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A6:E6"/>
@@ -7237,12 +7363,6 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A15:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B15">
@@ -7389,11 +7509,11 @@
   <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="49" zoomScaleNormal="49" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="21" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A32" sqref="A32:E32"/>
       <selection pane="topRight" activeCell="A32" sqref="A32:E32"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:E32"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.35" customHeight="1"/>
@@ -7413,2247 +7533,2247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221" t="s">
+      <c r="C1" s="250"/>
+      <c r="D1" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223" t="s">
+      <c r="E1" s="252"/>
+      <c r="F1" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="224"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="221" t="s">
+      <c r="G1" s="237"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="225" t="s">
+      <c r="L1" s="252"/>
+      <c r="M1" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="226" t="s">
+      <c r="N1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="223">
+      <c r="O1" s="236">
         <v>2020</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="227" t="s">
+      <c r="P1" s="237"/>
+      <c r="Q1" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="118">
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="65">
         <v>0</v>
       </c>
       <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="34.35" hidden="1" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="118">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="65">
         <v>1</v>
       </c>
       <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" ht="34.35" hidden="1" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="230">
+      <c r="E3" s="150">
         <v>1</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="124">
+      <c r="G3" s="70">
         <v>1</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="124">
+      <c r="I3" s="70">
         <v>1</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="118">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="65">
         <v>2</v>
       </c>
       <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="253" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="233" t="s">
+      <c r="B4" s="254"/>
+      <c r="C4" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="233"/>
-      <c r="P4" s="233"/>
-      <c r="Q4" s="233"/>
-      <c r="R4" s="233"/>
-      <c r="S4" s="233"/>
-      <c r="T4" s="233"/>
-      <c r="U4" s="118">
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="238"/>
+      <c r="U4" s="65">
         <v>3</v>
       </c>
       <c r="V4" s="15"/>
     </row>
     <row r="5" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235"/>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235"/>
-      <c r="N5" s="235"/>
-      <c r="O5" s="235"/>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="235"/>
-      <c r="R5" s="236"/>
-      <c r="S5" s="235"/>
-      <c r="T5" s="237"/>
-      <c r="U5" s="126">
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="243"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="244"/>
+      <c r="U5" s="72">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" ht="34.35" customHeight="1">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128" t="s">
+      <c r="D6" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128" t="s">
+      <c r="G6" s="248"/>
+      <c r="H6" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129" t="s">
+      <c r="I6" s="248"/>
+      <c r="J6" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="128" t="s">
+      <c r="K6" s="265"/>
+      <c r="L6" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128" t="s">
+      <c r="M6" s="248"/>
+      <c r="N6" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="131" t="s">
+      <c r="O6" s="248"/>
+      <c r="P6" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="132" t="s">
+      <c r="Q6" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="240" t="s">
+      <c r="R6" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="133" t="s">
+      <c r="S6" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="134" t="s">
+      <c r="T6" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="126">
+      <c r="U6" s="72">
         <v>19</v>
       </c>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="275"/>
+      <c r="B7" s="273"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="L7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="136" t="s">
+      <c r="N7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="136" t="s">
+      <c r="O7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="243"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="126">
+      <c r="P7" s="263"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="240"/>
+      <c r="U7" s="72">
         <v>20</v>
       </c>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="279" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144" t="str">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77" t="str">
         <f>CONCATENATE(IF(P8&lt;P13," * TX_Curr Q3 FY 20 FPT01-01 "&amp;$P$6&amp;" should not be more than TX_Curr reviewed FPT01-05 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R8" s="246" t="str">
+      <c r="R8" s="284" t="str">
         <f>CONCATENATE(Q8,Q10,Q11,Q9,Q13,Q15,Q16)</f>
         <v/>
       </c>
-      <c r="S8" s="145"/>
-      <c r="T8" s="247" t="str">
+      <c r="S8" s="78"/>
+      <c r="T8" s="287" t="str">
         <f>CONCATENATE(S16,S15,S14,S13,S12,S11,S10,S9,S8)</f>
         <v/>
       </c>
-      <c r="U8" s="126">
+      <c r="U8" s="72">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A9" s="248"/>
-      <c r="B9" s="249" t="s">
+      <c r="A9" s="276"/>
+      <c r="B9" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="144" t="str">
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77" t="str">
         <f>CONCATENATE(IF(P9&lt;P14," * TX_Curr BaselineFPT01-02 "&amp;$P$6&amp;" should be more than or equal to TX_Curr reviewed FPT01-06 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R9" s="250"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="251"/>
-      <c r="U9" s="126">
+      <c r="R9" s="285"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="288"/>
+      <c r="U9" s="72">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A10" s="248"/>
-      <c r="B10" s="249" t="s">
+      <c r="A10" s="276"/>
+      <c r="B10" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="144" t="str">
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77" t="str">
         <f>CONCATENATE(IF(P10&lt;P15," * TX_Curr baseline FPT01-03 "&amp;$P$6&amp;" should be more than or equal to TX_Curr reviewed FPT01-07 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R10" s="250"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="251"/>
-      <c r="U10" s="126">
+      <c r="R10" s="285"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="288"/>
+      <c r="U10" s="72">
         <v>23</v>
       </c>
       <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A11" s="248"/>
-      <c r="B11" s="252" t="s">
+      <c r="A11" s="276"/>
+      <c r="B11" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151">
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84">
         <f t="shared" ref="P11" si="0">P8+P9+P10</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="126">
+      <c r="Q11" s="85"/>
+      <c r="R11" s="285"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="288"/>
+      <c r="U11" s="72">
         <v>17</v>
       </c>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A12" s="253" t="s">
+      <c r="A12" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="254"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="250"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="126">
+      <c r="B12" s="297"/>
+      <c r="C12" s="297"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="297"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="297"/>
+      <c r="N12" s="297"/>
+      <c r="O12" s="297"/>
+      <c r="P12" s="298"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="288"/>
+      <c r="U12" s="72">
         <v>18</v>
       </c>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A13" s="244" t="s">
+      <c r="A13" s="279" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="126">
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="301"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="288"/>
+      <c r="U13" s="72">
         <v>25</v>
       </c>
       <c r="V13" s="18"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A14" s="248"/>
-      <c r="B14" s="245" t="s">
+      <c r="A14" s="276"/>
+      <c r="B14" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="250"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="251"/>
-      <c r="U14" s="126">
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="288"/>
+      <c r="U14" s="72">
         <v>26</v>
       </c>
       <c r="V14" s="18"/>
     </row>
     <row r="15" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A15" s="248"/>
-      <c r="B15" s="245" t="s">
+      <c r="A15" s="276"/>
+      <c r="B15" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="250"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="126">
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="288"/>
+      <c r="U15" s="72">
         <v>27</v>
       </c>
       <c r="V15" s="18"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A16" s="248"/>
-      <c r="B16" s="252" t="s">
+      <c r="A16" s="276"/>
+      <c r="B16" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="151">
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84">
         <f t="shared" ref="P16" si="1">P13+P14+P15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="258"/>
-      <c r="S16" s="146"/>
-      <c r="T16" s="259"/>
-      <c r="U16" s="126">
+      <c r="Q16" s="85"/>
+      <c r="R16" s="286"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="289"/>
+      <c r="U16" s="72">
         <v>28</v>
       </c>
       <c r="V16" s="18"/>
     </row>
     <row r="17" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A17" s="253" t="s">
+      <c r="A17" s="296" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="254"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="254"/>
-      <c r="K17" s="254"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="254"/>
-      <c r="O17" s="254"/>
-      <c r="P17" s="255"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="260"/>
-      <c r="S17" s="261"/>
-      <c r="T17" s="262"/>
-      <c r="U17" s="126">
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="297"/>
+      <c r="I17" s="297"/>
+      <c r="J17" s="297"/>
+      <c r="K17" s="297"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="297"/>
+      <c r="N17" s="297"/>
+      <c r="O17" s="297"/>
+      <c r="P17" s="298"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="72">
         <v>18</v>
       </c>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A18" s="248" t="s">
+      <c r="A18" s="276" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164">
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96">
         <f>SUM(D18:O18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="152" t="str">
+      <c r="Q18" s="85" t="str">
         <f>CONCATENATE(IF(D23&gt;D18," * Known Status from WLHIV FPT01-13 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(E23&gt;E18," * Known Status from WLHIV FPT01-13 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(F23&gt;F18," * Known Status from WLHIV FPT01-13 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(G23&gt;G18," * Known Status from WLHIV FPT01-13 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(H23&gt;H18," * Known Status from WLHIV FPT01-13 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(I23&gt;I18," * Known Status from WLHIV FPT01-13 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(J23&gt;J18," * Known Status from WLHIV FPT01-13 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(K23&gt;K18," * Known Status from WLHIV FPT01-13 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(L23&gt;L18," * Known Status from WLHIV FPT01-13 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(M23&gt;M18," * Known Status from WLHIV FPT01-13 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(N23&gt;N18," * Known Status from WLHIV FPT01-13 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""),IF(O23&gt;O18," * Known Status from WLHIV FPT01-13 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total WLHIV FPT01-09"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R18" s="263" t="str">
+      <c r="R18" s="281" t="str">
         <f>CONCATENATE(Q18,Q19,Q20,Q21,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31)</f>
         <v/>
       </c>
-      <c r="S18" s="146"/>
-      <c r="T18" s="264"/>
-      <c r="U18" s="126">
+      <c r="S18" s="79"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="72">
         <v>29</v>
       </c>
       <c r="V18" s="18"/>
     </row>
     <row r="19" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A19" s="248"/>
-      <c r="B19" s="265" t="s">
+      <c r="A19" s="276"/>
+      <c r="B19" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="168">
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100">
         <f>SUM(D19:O19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="169" t="str">
+      <c r="Q19" s="101" t="str">
         <f>CONCATENATE(IF(D26&gt;D19," * Known Status from MLHIV FPT01-16 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(E26&gt;E19," * Known Status from MLHIV FPT01-16 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(F26&gt;F19," * Known Status from MLHIV FPT01-16 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(G26&gt;G19," * Known Status from MLHIV FPT01-16 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(H26&gt;H19," * Known Status from MLHIV FPT01-16 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(I26&gt;I19," * Known Status from MLHIV FPT01-16 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(J26&gt;J19," * Known Status from MLHIV FPT01-16 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(K26&gt;K19," * Known Status from MLHIV FPT01-16 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(L26&gt;L19," * Known Status from MLHIV FPT01-16 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(M26&gt;M19," * Known Status from MLHIV FPT01-16 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(N26&gt;N19," * Known Status from MLHIV FPT01-16 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""),IF(O26&gt;O19," * Known Status from MLHIV FPT01-16 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total MLHIV FPT01-10"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R19" s="266"/>
-      <c r="S19" s="146"/>
-      <c r="T19" s="267"/>
-      <c r="U19" s="126">
+      <c r="R19" s="282"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="291"/>
+      <c r="U19" s="72">
         <v>30</v>
       </c>
       <c r="V19" s="18"/>
     </row>
     <row r="20" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A20" s="248"/>
-      <c r="B20" s="268" t="s">
+      <c r="A20" s="276"/>
+      <c r="B20" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="168">
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="100">
         <f>SUM(D20:O20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="144" t="str">
+      <c r="Q20" s="77" t="str">
         <f>CONCATENATE(IF(D29&gt;D20," * Known Status from C/ALHIV FPT01-19 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(E29&gt;E20," * Known Status from C/ALHIV FPT01-19 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(F29&gt;F20," * Known Status from C/ALHIV FPT01-19 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(G29&gt;G20," * Known Status from C/ALHIV FPT01-19 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(H29&gt;H20," * Known Status from C/ALHIV FPT01-19 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(I29&gt;I20," * Known Status from C/ALHIV FPT01-19 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(J29&gt;J20," * Known Status from C/ALHIV FPT01-19 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(K29&gt;K20," * Known Status from C/ALHIV FPT01-19 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(L29&gt;L20," * Known Status from C/ALHIV FPT01-19 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(M29&gt;M20," * Known Status from C/ALHIV FPT01-19 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(N29&gt;N20," * Known Status from C/ALHIV FPT01-19 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""),IF(O29&gt;O20," * Known Status from C/ALHIV FPT01-19 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total C/ALHIV FPT01-11"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R20" s="266"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="267"/>
-      <c r="U20" s="126">
+      <c r="R20" s="282"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="291"/>
+      <c r="U20" s="72">
         <v>31</v>
       </c>
       <c r="V20" s="18"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A21" s="248"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="276"/>
+      <c r="B21" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D21" s="105">
         <f t="shared" ref="D21:O21" si="2">D18+D19+D20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="174">
+      <c r="E21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="174">
+      <c r="F21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="174">
+      <c r="G21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="174">
+      <c r="H21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="174">
+      <c r="I21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="174">
+      <c r="J21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="174">
+      <c r="K21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="174">
+      <c r="L21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="174">
+      <c r="M21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="174">
+      <c r="N21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="174">
+      <c r="O21" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="175">
+      <c r="P21" s="107">
         <f>P18+P19+P20</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="266"/>
-      <c r="S21" s="146"/>
-      <c r="T21" s="267"/>
-      <c r="U21" s="126">
+      <c r="Q21" s="101"/>
+      <c r="R21" s="282"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="291"/>
+      <c r="U21" s="72">
         <v>32</v>
       </c>
       <c r="V21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="254"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="269"/>
-      <c r="H22" s="269"/>
-      <c r="I22" s="269"/>
-      <c r="J22" s="269"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="269"/>
-      <c r="M22" s="269"/>
-      <c r="N22" s="269"/>
-      <c r="O22" s="269"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="266"/>
-      <c r="S22" s="257"/>
-      <c r="T22" s="267"/>
-      <c r="U22" s="126">
+      <c r="B22" s="297"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="300"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="282"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="291"/>
+      <c r="U22" s="72">
         <v>18</v>
       </c>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="33.4" customHeight="1" thickBot="1">
-      <c r="A23" s="271" t="s">
+      <c r="A23" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D23" s="109">
         <f>SUM(D24:D25)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="177">
+      <c r="E23" s="109">
         <f t="shared" ref="E23:O23" si="3">SUM(E24:E25)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="177">
+      <c r="F23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="177">
+      <c r="G23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H23" s="177">
+      <c r="H23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="177">
+      <c r="I23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="177">
+      <c r="J23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="177">
+      <c r="K23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="177">
+      <c r="L23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="177">
+      <c r="M23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="177">
+      <c r="N23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="177">
+      <c r="O23" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="178">
+      <c r="P23" s="110">
         <f>SUM(D23:O23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="266"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="267"/>
-      <c r="U23" s="126">
+      <c r="Q23" s="77"/>
+      <c r="R23" s="282"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="291"/>
+      <c r="U23" s="72">
         <v>29</v>
       </c>
       <c r="V23" s="18"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A24" s="272"/>
-      <c r="B24" s="273" t="s">
+      <c r="A24" s="294"/>
+      <c r="B24" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="167"/>
-      <c r="P24" s="178">
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="110">
         <f t="shared" ref="P24:P31" si="4">SUM(D24:O24)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="266"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="267"/>
-      <c r="U24" s="126"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="282"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="72"/>
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A25" s="272"/>
-      <c r="B25" s="273" t="s">
+      <c r="A25" s="294"/>
+      <c r="B25" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="165" t="s">
+      <c r="C25" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="167"/>
-      <c r="P25" s="178">
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="266"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="267"/>
-      <c r="U25" s="126"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="282"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="291"/>
+      <c r="U25" s="72"/>
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="34.15" customHeight="1" thickBot="1">
-      <c r="A26" s="272"/>
-      <c r="B26" s="180" t="s">
+      <c r="A26" s="294"/>
+      <c r="B26" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="165" t="s">
+      <c r="C26" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D26" s="109">
         <f>SUM(D27:D28)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="177">
+      <c r="E26" s="109">
         <f t="shared" ref="E26:O26" si="5">SUM(E27:E28)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="177">
+      <c r="F26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="177">
+      <c r="G26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H26" s="177">
+      <c r="H26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I26" s="177">
+      <c r="I26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J26" s="177">
+      <c r="J26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K26" s="177">
+      <c r="K26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="177">
+      <c r="L26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M26" s="177">
+      <c r="M26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="177">
+      <c r="N26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="177">
+      <c r="O26" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="178">
+      <c r="P26" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="266"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="267"/>
-      <c r="U26" s="126">
+      <c r="Q26" s="101"/>
+      <c r="R26" s="282"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="291"/>
+      <c r="U26" s="72">
         <v>30</v>
       </c>
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A27" s="272"/>
-      <c r="B27" s="273" t="s">
+      <c r="A27" s="294"/>
+      <c r="B27" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="178">
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="266"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="267"/>
-      <c r="U27" s="126"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="282"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="291"/>
+      <c r="U27" s="72"/>
       <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A28" s="272"/>
-      <c r="B28" s="273" t="s">
+      <c r="A28" s="294"/>
+      <c r="B28" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="178">
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="266"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="267"/>
-      <c r="U28" s="126"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="282"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="291"/>
+      <c r="U28" s="72"/>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A29" s="272"/>
-      <c r="B29" s="180" t="s">
+      <c r="A29" s="294"/>
+      <c r="B29" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="177">
+      <c r="D29" s="109">
         <f>SUM(D30:D31)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="177">
+      <c r="E29" s="109">
         <f t="shared" ref="E29:O29" si="6">SUM(E30:E31)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="177">
+      <c r="F29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="177">
+      <c r="G29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="177">
+      <c r="H29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="177">
+      <c r="I29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J29" s="177">
+      <c r="J29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K29" s="177">
+      <c r="K29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L29" s="177">
+      <c r="L29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M29" s="177">
+      <c r="M29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N29" s="177">
+      <c r="N29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O29" s="177">
+      <c r="O29" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="178">
+      <c r="P29" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="266"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="267"/>
-      <c r="U29" s="126">
+      <c r="Q29" s="77"/>
+      <c r="R29" s="282"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="291"/>
+      <c r="U29" s="72">
         <v>31</v>
       </c>
       <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A30" s="272"/>
-      <c r="B30" s="273" t="s">
+      <c r="A30" s="294"/>
+      <c r="B30" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-      <c r="P30" s="178">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="266"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="267"/>
-      <c r="U30" s="126"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="282"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="291"/>
+      <c r="U30" s="72"/>
       <c r="V30" s="18"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A31" s="274"/>
-      <c r="B31" s="273" t="s">
+      <c r="A31" s="295"/>
+      <c r="B31" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="165" t="s">
+      <c r="C31" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="178">
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="179"/>
-      <c r="R31" s="266"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="267"/>
-      <c r="U31" s="126"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="282"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="291"/>
+      <c r="U31" s="72"/>
       <c r="V31" s="18"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A32" s="271" t="s">
+      <c r="A32" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="275" t="s">
+      <c r="B32" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="165" t="s">
+      <c r="C32" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="177">
+      <c r="D32" s="109">
         <f t="shared" ref="D32:P32" si="7">SUM(D30,D27,D24)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="177">
+      <c r="E32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F32" s="177">
+      <c r="F32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="177">
+      <c r="G32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="177">
+      <c r="H32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I32" s="177">
+      <c r="I32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J32" s="177">
+      <c r="J32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K32" s="177">
+      <c r="K32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L32" s="177">
+      <c r="L32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M32" s="177">
+      <c r="M32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N32" s="177">
+      <c r="N32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O32" s="177">
+      <c r="O32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P32" s="177">
+      <c r="P32" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="266"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="126">
+      <c r="Q32" s="77"/>
+      <c r="R32" s="282"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="291"/>
+      <c r="U32" s="72">
         <v>29</v>
       </c>
       <c r="V32" s="18"/>
     </row>
     <row r="33" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A33" s="272"/>
-      <c r="B33" s="275" t="s">
+      <c r="A33" s="294"/>
+      <c r="B33" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="165" t="s">
+      <c r="C33" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="177">
+      <c r="D33" s="109">
         <f t="shared" ref="D33:P33" si="8">SUM(D31,D28,D25)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="177">
+      <c r="E33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F33" s="177">
+      <c r="F33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G33" s="177">
+      <c r="G33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="177">
+      <c r="H33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I33" s="177">
+      <c r="I33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J33" s="177">
+      <c r="J33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K33" s="177">
+      <c r="K33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33" s="177">
+      <c r="L33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M33" s="177">
+      <c r="M33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N33" s="177">
+      <c r="N33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O33" s="177">
+      <c r="O33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P33" s="177">
+      <c r="P33" s="109">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="266"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="126">
+      <c r="Q33" s="101"/>
+      <c r="R33" s="282"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="291"/>
+      <c r="U33" s="72">
         <v>30</v>
       </c>
       <c r="V33" s="18"/>
     </row>
     <row r="34" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A34" s="274"/>
-      <c r="B34" s="180" t="s">
+      <c r="A34" s="295"/>
+      <c r="B34" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="165" t="s">
+      <c r="C34" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="177">
+      <c r="D34" s="109">
         <f t="shared" ref="D34:P34" si="9">D33+D32</f>
         <v>0</v>
       </c>
-      <c r="E34" s="177">
+      <c r="E34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F34" s="177">
+      <c r="F34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G34" s="177">
+      <c r="G34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H34" s="177">
+      <c r="H34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="177">
+      <c r="I34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J34" s="177">
+      <c r="J34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K34" s="177">
+      <c r="K34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L34" s="177">
+      <c r="L34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M34" s="177">
+      <c r="M34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N34" s="177">
+      <c r="N34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O34" s="177">
+      <c r="O34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P34" s="177">
+      <c r="P34" s="109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="169"/>
-      <c r="R34" s="276"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="277"/>
-      <c r="U34" s="126">
+      <c r="Q34" s="101"/>
+      <c r="R34" s="283"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="292"/>
+      <c r="U34" s="72">
         <v>32</v>
       </c>
       <c r="V34" s="18"/>
     </row>
     <row r="35" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A35" s="278" t="s">
+      <c r="A35" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="177"/>
-      <c r="N35" s="177"/>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="260"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="262"/>
-      <c r="U35" s="126">
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="72">
         <v>18</v>
       </c>
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A36" s="244" t="s">
+      <c r="A36" s="279" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="275" t="s">
+      <c r="B36" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="165" t="s">
+      <c r="C36" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="177">
+      <c r="D36" s="109">
         <f>D18-D23</f>
         <v>0</v>
       </c>
-      <c r="E36" s="177">
+      <c r="E36" s="109">
         <f t="shared" ref="E36:O36" si="10">E18-E23</f>
         <v>0</v>
       </c>
-      <c r="F36" s="177">
+      <c r="F36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G36" s="177">
+      <c r="G36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="177">
+      <c r="H36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I36" s="177">
+      <c r="I36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J36" s="177">
+      <c r="J36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K36" s="177">
+      <c r="K36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L36" s="177">
+      <c r="L36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M36" s="177">
+      <c r="M36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N36" s="177">
+      <c r="N36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O36" s="177">
+      <c r="O36" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P36" s="177">
+      <c r="P36" s="109">
         <f>SUM(D36:O36)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="263" t="str">
+      <c r="Q36" s="77"/>
+      <c r="R36" s="281" t="str">
         <f>CONCATENATE(Q36,Q37,Q38,Q39,Q41,Q43,Q44)</f>
         <v/>
       </c>
-      <c r="S36" s="146"/>
-      <c r="T36" s="279"/>
-      <c r="U36" s="126">
+      <c r="S36" s="79"/>
+      <c r="T36" s="255"/>
+      <c r="U36" s="72">
         <v>29</v>
       </c>
       <c r="V36" s="18"/>
     </row>
     <row r="37" spans="1:22" s="6" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A37" s="248"/>
-      <c r="B37" s="275" t="s">
+      <c r="A37" s="276"/>
+      <c r="B37" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="165" t="s">
+      <c r="C37" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="177">
+      <c r="D37" s="109">
         <f>D19-D26</f>
         <v>0</v>
       </c>
-      <c r="E37" s="177">
+      <c r="E37" s="109">
         <f t="shared" ref="E37:O37" si="11">E19-E26</f>
         <v>0</v>
       </c>
-      <c r="F37" s="177">
+      <c r="F37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G37" s="177">
+      <c r="G37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H37" s="177">
+      <c r="H37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I37" s="177">
+      <c r="I37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J37" s="177">
+      <c r="J37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K37" s="177">
+      <c r="K37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L37" s="177">
+      <c r="L37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M37" s="177">
+      <c r="M37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N37" s="177">
+      <c r="N37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O37" s="177">
+      <c r="O37" s="109">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P37" s="177">
+      <c r="P37" s="109">
         <f>SUM(D37:O37)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="266"/>
-      <c r="S37" s="146"/>
-      <c r="T37" s="280"/>
-      <c r="U37" s="126">
+      <c r="Q37" s="101"/>
+      <c r="R37" s="282"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="256"/>
+      <c r="U37" s="72">
         <v>30</v>
       </c>
       <c r="V37" s="18"/>
     </row>
     <row r="38" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A38" s="248"/>
-      <c r="B38" s="275" t="s">
+      <c r="A38" s="276"/>
+      <c r="B38" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="177">
+      <c r="D38" s="109">
         <f>D20-D29</f>
         <v>0</v>
       </c>
-      <c r="E38" s="177">
+      <c r="E38" s="109">
         <f t="shared" ref="E38:O38" si="12">E20-E29</f>
         <v>0</v>
       </c>
-      <c r="F38" s="177">
+      <c r="F38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G38" s="177">
+      <c r="G38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H38" s="177">
+      <c r="H38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I38" s="177">
+      <c r="I38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J38" s="177">
+      <c r="J38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K38" s="177">
+      <c r="K38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L38" s="177">
+      <c r="L38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M38" s="177">
+      <c r="M38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N38" s="177">
+      <c r="N38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O38" s="177">
+      <c r="O38" s="109">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P38" s="177">
+      <c r="P38" s="109">
         <f>SUM(D38:O38)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="266"/>
-      <c r="S38" s="146"/>
-      <c r="T38" s="280"/>
-      <c r="U38" s="126">
+      <c r="Q38" s="77"/>
+      <c r="R38" s="282"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="256"/>
+      <c r="U38" s="72">
         <v>31</v>
       </c>
       <c r="V38" s="18"/>
     </row>
     <row r="39" spans="1:22" s="6" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A39" s="281"/>
-      <c r="B39" s="275" t="s">
+      <c r="A39" s="280"/>
+      <c r="B39" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="165" t="s">
+      <c r="C39" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="177">
+      <c r="D39" s="109">
         <f>D36+D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="177">
+      <c r="E39" s="109">
         <f t="shared" ref="E39:P39" si="13">E36+E37+E38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="177">
+      <c r="F39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G39" s="177">
+      <c r="G39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H39" s="177">
+      <c r="H39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I39" s="177">
+      <c r="I39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J39" s="177">
+      <c r="J39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K39" s="177">
+      <c r="K39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L39" s="177">
+      <c r="L39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M39" s="177">
+      <c r="M39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N39" s="177">
+      <c r="N39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O39" s="177">
+      <c r="O39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P39" s="177">
+      <c r="P39" s="109">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="266"/>
-      <c r="S39" s="146"/>
-      <c r="T39" s="280"/>
-      <c r="U39" s="126">
+      <c r="Q39" s="101"/>
+      <c r="R39" s="282"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="256"/>
+      <c r="U39" s="72">
         <v>32</v>
       </c>
       <c r="V39" s="18"/>
     </row>
     <row r="40" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A40" s="282" t="s">
+      <c r="A40" s="310" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="283"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="283"/>
-      <c r="E40" s="283"/>
-      <c r="F40" s="283"/>
-      <c r="G40" s="283"/>
-      <c r="H40" s="283"/>
-      <c r="I40" s="283"/>
-      <c r="J40" s="283"/>
-      <c r="K40" s="283"/>
-      <c r="L40" s="283"/>
-      <c r="M40" s="283"/>
-      <c r="N40" s="283"/>
-      <c r="O40" s="283"/>
-      <c r="P40" s="284"/>
-      <c r="Q40" s="285"/>
-      <c r="R40" s="266"/>
-      <c r="S40" s="256"/>
-      <c r="T40" s="280"/>
-      <c r="U40" s="126">
+      <c r="B40" s="311"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="311"/>
+      <c r="G40" s="311"/>
+      <c r="H40" s="311"/>
+      <c r="I40" s="311"/>
+      <c r="J40" s="311"/>
+      <c r="K40" s="311"/>
+      <c r="L40" s="311"/>
+      <c r="M40" s="311"/>
+      <c r="N40" s="311"/>
+      <c r="O40" s="311"/>
+      <c r="P40" s="312"/>
+      <c r="Q40" s="164"/>
+      <c r="R40" s="282"/>
+      <c r="S40" s="154"/>
+      <c r="T40" s="256"/>
+      <c r="U40" s="72">
         <v>18</v>
       </c>
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" s="6" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="183" t="s">
+      <c r="C41" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="185">
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="117">
         <f>SUM(D41:O41)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="186" t="str">
+      <c r="Q41" s="118" t="str">
         <f>CONCATENATE(IF(D41&gt;D39," * Enrolled in OVC Program FPT01-29 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(E41&gt;E39," * Enrolled in OVC Program FPT01-29 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(F41&gt;F39," * Enrolled in OVC Program FPT01-29 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(G41&gt;G39," * Enrolled in OVC Program FPT01-29 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(H41&gt;H39," * Enrolled in OVC Program FPT01-29 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(I41&gt;I39," * Enrolled in OVC Program FPT01-29 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(J41&gt;J39," * Enrolled in OVC Program FPT01-29 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(K41&gt;K39," * Enrolled in OVC Program FPT01-29 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(L41&gt;L39," * Enrolled in OVC Program FPT01-29 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(M41&gt;M39," * Enrolled in OVC Program FPT01-29 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(N41&gt;N39," * Enrolled in OVC Program FPT01-29 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(O41&gt;O39," * Enrolled in OVC Program FPT01-29 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R41" s="266"/>
-      <c r="S41" s="146"/>
-      <c r="T41" s="280"/>
-      <c r="U41" s="126">
+      <c r="R41" s="282"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="256"/>
+      <c r="U41" s="72">
         <v>29</v>
       </c>
       <c r="V41" s="18"/>
     </row>
     <row r="42" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A42" s="282" t="s">
+      <c r="A42" s="310" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="283"/>
-      <c r="C42" s="283"/>
-      <c r="D42" s="283"/>
-      <c r="E42" s="283"/>
-      <c r="F42" s="283"/>
-      <c r="G42" s="283"/>
-      <c r="H42" s="283"/>
-      <c r="I42" s="283"/>
-      <c r="J42" s="283"/>
-      <c r="K42" s="283"/>
-      <c r="L42" s="283"/>
-      <c r="M42" s="283"/>
-      <c r="N42" s="283"/>
-      <c r="O42" s="283"/>
-      <c r="P42" s="284"/>
-      <c r="Q42" s="285"/>
-      <c r="R42" s="266"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="280"/>
-      <c r="U42" s="126">
+      <c r="B42" s="311"/>
+      <c r="C42" s="311"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="311"/>
+      <c r="H42" s="311"/>
+      <c r="I42" s="311"/>
+      <c r="J42" s="311"/>
+      <c r="K42" s="311"/>
+      <c r="L42" s="311"/>
+      <c r="M42" s="311"/>
+      <c r="N42" s="311"/>
+      <c r="O42" s="311"/>
+      <c r="P42" s="312"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="282"/>
+      <c r="S42" s="154"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="72">
         <v>18</v>
       </c>
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A43" s="287" t="s">
+      <c r="A43" s="258" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="183" t="s">
+      <c r="C43" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="187">
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="119">
         <f>SUM(D43:O43)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="186" t="str">
+      <c r="Q43" s="118" t="str">
         <f>CONCATENATE(IF(D43+D44&gt;D39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(E43+E44&gt;E39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(F43+F44&gt;F39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(G43+G44&gt;G39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(H43+H44&gt;H39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(I43+I44&gt;I39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(J43+J44&gt;J39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(K43+K44&gt;K39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(L43+L44&gt;L39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(M43+M44&gt;M39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(N43+N44&gt;N39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""),IF(O43+O44&gt;O39," * children whose parents  were Contacted by clinic Staff (FPT01-30 ) + Contacted by OVC Staff (FPT01-31 ) "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Total No of children with unknown HIV Status FT01-28"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R43" s="266"/>
-      <c r="S43" s="146"/>
-      <c r="T43" s="280"/>
-      <c r="U43" s="126">
+      <c r="R43" s="282"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="256"/>
+      <c r="U43" s="72">
         <v>31</v>
       </c>
       <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22" s="6" customFormat="1" ht="27" thickBot="1">
-      <c r="A44" s="289"/>
-      <c r="B44" s="288" t="s">
+      <c r="A44" s="259"/>
+      <c r="B44" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="183" t="s">
+      <c r="C44" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="184"/>
-      <c r="E44" s="184"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="184"/>
-      <c r="M44" s="184"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="187">
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="119">
         <f>SUM(D44:O44)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="276"/>
-      <c r="S44" s="146"/>
-      <c r="T44" s="290"/>
-      <c r="U44" s="126">
+      <c r="Q44" s="120"/>
+      <c r="R44" s="283"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="257"/>
+      <c r="U44" s="72">
         <v>32</v>
       </c>
       <c r="V44" s="18"/>
     </row>
     <row r="45" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="310" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="283"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="283"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="284"/>
-      <c r="Q45" s="261"/>
-      <c r="R45" s="260"/>
-      <c r="S45" s="261"/>
-      <c r="T45" s="262"/>
-      <c r="U45" s="126">
+      <c r="B45" s="311"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="311"/>
+      <c r="H45" s="311"/>
+      <c r="I45" s="311"/>
+      <c r="J45" s="311"/>
+      <c r="K45" s="311"/>
+      <c r="L45" s="311"/>
+      <c r="M45" s="311"/>
+      <c r="N45" s="311"/>
+      <c r="O45" s="311"/>
+      <c r="P45" s="312"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="72">
         <v>18</v>
       </c>
       <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:22" ht="27" thickBot="1">
-      <c r="A46" s="291" t="s">
+      <c r="A46" s="277" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="288" t="s">
+      <c r="B46" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="183" t="s">
+      <c r="C46" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="184"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="189">
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="121">
         <f>SUM(D46:O46)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="190" t="str">
+      <c r="Q46" s="122" t="str">
         <f>CONCATENATE(IF(D46&gt;D43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(E46&gt;E43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(F46&gt;F43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(G46&gt;G43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(H46&gt;H43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(I46&gt;I43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(J46&gt;J43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(K46&gt;K43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(L46&gt;L43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(M46&gt;M43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(N46&gt;N43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""),IF(O46&gt;O43," * Contacted and reached by clinic Staff FPT01-32 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Contacted  by clinic Staff FT01-30"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R46" s="191" t="str">
+      <c r="R46" s="318" t="str">
         <f>CONCATENATE(Q46,Q47,Q49)</f>
         <v/>
       </c>
-      <c r="S46" s="146"/>
-      <c r="T46" s="279" t="str">
+      <c r="S46" s="79"/>
+      <c r="T46" s="255" t="str">
         <f>CONCATENATE(S49,S51,S52,S55,S56)</f>
         <v/>
       </c>
-      <c r="U46" s="126">
+      <c r="U46" s="72">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="27" thickBot="1">
-      <c r="A47" s="292"/>
-      <c r="B47" s="288" t="s">
+      <c r="A47" s="278"/>
+      <c r="B47" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="183" t="s">
+      <c r="C47" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="184"/>
-      <c r="L47" s="184"/>
-      <c r="M47" s="184"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="184"/>
-      <c r="P47" s="192">
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="123">
         <f>SUM(D47:O47)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="190" t="str">
+      <c r="Q47" s="122" t="str">
         <f>CONCATENATE(IF(D47&gt;D44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(E47&gt;E44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(F47&gt;F44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(G47&gt;G44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(H47&gt;H44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(I47&gt;I44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(J47&gt;J44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(K47&gt;K44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(L47&gt;L44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(M47&gt;M44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(N47&gt;N44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""),IF(O47&gt;O44," * Contacted and reached by OVC Staff FPT01-33 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Contacted  by OVC Staff FT01-31"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R47" s="193"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="280"/>
-      <c r="U47" s="126">
+      <c r="R47" s="319"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="256"/>
+      <c r="U47" s="72">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A48" s="293" t="s">
+      <c r="A48" s="313" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="283"/>
-      <c r="C48" s="283"/>
-      <c r="D48" s="283"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="283"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="283"/>
-      <c r="J48" s="283"/>
-      <c r="K48" s="283"/>
-      <c r="L48" s="283"/>
-      <c r="M48" s="283"/>
-      <c r="N48" s="283"/>
-      <c r="O48" s="283"/>
-      <c r="P48" s="284"/>
-      <c r="Q48" s="261"/>
-      <c r="R48" s="193"/>
-      <c r="S48" s="285"/>
-      <c r="T48" s="280"/>
-      <c r="U48" s="126">
+      <c r="B48" s="311"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+      <c r="G48" s="311"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="311"/>
+      <c r="J48" s="311"/>
+      <c r="K48" s="311"/>
+      <c r="L48" s="311"/>
+      <c r="M48" s="311"/>
+      <c r="N48" s="311"/>
+      <c r="O48" s="311"/>
+      <c r="P48" s="312"/>
+      <c r="Q48" s="157"/>
+      <c r="R48" s="319"/>
+      <c r="S48" s="164"/>
+      <c r="T48" s="256"/>
+      <c r="U48" s="72">
         <v>18</v>
       </c>
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" ht="64.900000000000006" customHeight="1" thickBot="1">
-      <c r="A49" s="294" t="s">
+      <c r="A49" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="288" t="s">
+      <c r="B49" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="183" t="s">
+      <c r="C49" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="184"/>
-      <c r="L49" s="184"/>
-      <c r="M49" s="184"/>
-      <c r="N49" s="184"/>
-      <c r="O49" s="184"/>
-      <c r="P49" s="189">
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="121">
         <f>SUM(D49:O49)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="194" t="str">
+      <c r="Q49" s="124" t="str">
         <f>CONCATENATE(IF(D46+D47&lt;D49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(E46+E47&lt;E49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(F46+F47&lt;F49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(G46+G47&lt;G49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(H46+H47&lt;H49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(I46+I47&lt;I49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(J46+J47&lt;J49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(K46+K47&lt;K49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(L46+L47&lt;L49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(M46+M47&lt;M49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(N46+N47&lt;N49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$N$6&amp;" "&amp;$N$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(O46+O47&lt;O49," * children whose parents  were reached by clinic Staff (FPT01-32 ) + children whose parents  were reached by OVC Staff (FPT01-33 ) "&amp;$N$6&amp;" "&amp;$O$7&amp;" is less than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R49" s="195"/>
-      <c r="S49" s="146"/>
-      <c r="T49" s="290"/>
-      <c r="U49" s="126">
+      <c r="R49" s="320"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="257"/>
+      <c r="U49" s="72">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A50" s="293" t="s">
+      <c r="A50" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="283"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="283"/>
-      <c r="E50" s="283"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="283"/>
-      <c r="H50" s="283"/>
-      <c r="I50" s="283"/>
-      <c r="J50" s="283"/>
-      <c r="K50" s="283"/>
-      <c r="L50" s="283"/>
-      <c r="M50" s="283"/>
-      <c r="N50" s="283"/>
-      <c r="O50" s="283"/>
-      <c r="P50" s="284"/>
-      <c r="Q50" s="295"/>
-      <c r="R50" s="260"/>
-      <c r="S50" s="261"/>
-      <c r="T50" s="262"/>
-      <c r="U50" s="126">
+      <c r="B50" s="311"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="311"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="311"/>
+      <c r="H50" s="311"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="311"/>
+      <c r="K50" s="311"/>
+      <c r="L50" s="311"/>
+      <c r="M50" s="311"/>
+      <c r="N50" s="311"/>
+      <c r="O50" s="311"/>
+      <c r="P50" s="312"/>
+      <c r="Q50" s="168"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="72">
         <v>18</v>
       </c>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" ht="43.9" customHeight="1" thickBot="1">
-      <c r="A51" s="296" t="s">
+      <c r="A51" s="315" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="288" t="s">
+      <c r="B51" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="183" t="s">
+      <c r="C51" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="184"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="184"/>
-      <c r="J51" s="184"/>
-      <c r="K51" s="184"/>
-      <c r="L51" s="184"/>
-      <c r="M51" s="184"/>
-      <c r="N51" s="184"/>
-      <c r="O51" s="184"/>
-      <c r="P51" s="196">
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="125">
         <f>SUM(D51:O51)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="197"/>
-      <c r="R51" s="247" t="str">
+      <c r="Q51" s="126"/>
+      <c r="R51" s="287" t="str">
         <f>CONCATENATE(Q51,Q52,Q53)</f>
         <v/>
       </c>
-      <c r="S51" s="146"/>
-      <c r="T51" s="297"/>
-      <c r="U51" s="126">
+      <c r="S51" s="79"/>
+      <c r="T51" s="169"/>
+      <c r="U51" s="72">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="47.65" customHeight="1" thickBot="1">
-      <c r="A52" s="298"/>
-      <c r="B52" s="299" t="s">
+      <c r="A52" s="316"/>
+      <c r="B52" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="183" t="s">
+      <c r="C52" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="198"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
-      <c r="H52" s="198"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="198"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="198"/>
-      <c r="N52" s="198"/>
-      <c r="O52" s="198"/>
-      <c r="P52" s="199">
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="127"/>
+      <c r="P52" s="128">
         <f>SUM(D52:O52)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="197"/>
-      <c r="R52" s="251"/>
-      <c r="S52" s="146"/>
-      <c r="T52" s="297"/>
-      <c r="U52" s="126">
+      <c r="Q52" s="126"/>
+      <c r="R52" s="288"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="169"/>
+      <c r="U52" s="72">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:22" s="10" customFormat="1" ht="47.65" customHeight="1" thickBot="1">
-      <c r="A53" s="300"/>
-      <c r="B53" s="301" t="s">
+      <c r="A53" s="317"/>
+      <c r="B53" s="171" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="165" t="s">
+      <c r="C53" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="200">
+      <c r="D53" s="129">
         <f>D51+D52</f>
         <v>0</v>
       </c>
-      <c r="E53" s="200">
+      <c r="E53" s="129">
         <f t="shared" ref="E53:P53" si="14">E51+E52</f>
         <v>0</v>
       </c>
-      <c r="F53" s="200">
+      <c r="F53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G53" s="200">
+      <c r="G53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H53" s="200">
+      <c r="H53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I53" s="200">
+      <c r="I53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J53" s="200">
+      <c r="J53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K53" s="200">
+      <c r="K53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L53" s="200">
+      <c r="L53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M53" s="200">
+      <c r="M53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N53" s="200">
+      <c r="N53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O53" s="200">
+      <c r="O53" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P53" s="201">
+      <c r="P53" s="130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="197" t="str">
+      <c r="Q53" s="126" t="str">
         <f>CONCATENATE(IF(D53&gt;D49," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(E53&gt;E49," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(F53&gt;F49," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(G53&gt;G49," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(H53&gt;H49," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(I53&gt;I49," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(J53&gt;J49," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(K53&gt;K49," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(L53&gt;L49," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(M53&gt;M49," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(N53&gt;N49," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""),IF(O53&gt;O49," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than No of children/adole with Consent given by required person FPT01-34"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R53" s="259"/>
-      <c r="S53" s="202"/>
-      <c r="T53" s="302"/>
-      <c r="U53" s="126"/>
+      <c r="R53" s="289"/>
+      <c r="S53" s="131"/>
+      <c r="T53" s="172"/>
+      <c r="U53" s="72"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A54" s="282" t="s">
+      <c r="A54" s="310" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="283"/>
-      <c r="C54" s="283"/>
-      <c r="D54" s="269"/>
-      <c r="E54" s="269"/>
-      <c r="F54" s="269"/>
-      <c r="G54" s="269"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="269"/>
-      <c r="J54" s="269"/>
-      <c r="K54" s="269"/>
-      <c r="L54" s="269"/>
-      <c r="M54" s="269"/>
-      <c r="N54" s="269"/>
-      <c r="O54" s="269"/>
-      <c r="P54" s="303"/>
-      <c r="Q54" s="261"/>
-      <c r="R54" s="260"/>
-      <c r="S54" s="261"/>
-      <c r="T54" s="262"/>
-      <c r="U54" s="126">
+      <c r="B54" s="311"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="299"/>
+      <c r="F54" s="299"/>
+      <c r="G54" s="299"/>
+      <c r="H54" s="299"/>
+      <c r="I54" s="299"/>
+      <c r="J54" s="299"/>
+      <c r="K54" s="299"/>
+      <c r="L54" s="299"/>
+      <c r="M54" s="299"/>
+      <c r="N54" s="299"/>
+      <c r="O54" s="299"/>
+      <c r="P54" s="314"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="156"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="158"/>
+      <c r="U54" s="72">
         <v>18</v>
       </c>
       <c r="V54" s="16"/>
@@ -9662,373 +9782,376 @@
       <c r="A55" s="304" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="288" t="s">
+      <c r="B55" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="165" t="s">
+      <c r="C55" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
-      <c r="H55" s="203"/>
-      <c r="I55" s="203"/>
-      <c r="J55" s="203"/>
-      <c r="K55" s="203"/>
-      <c r="L55" s="203"/>
-      <c r="M55" s="203"/>
-      <c r="N55" s="203"/>
-      <c r="O55" s="203"/>
-      <c r="P55" s="177">
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="109">
         <f>SUM(D55:O55)</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="204" t="str">
+      <c r="Q55" s="133" t="str">
         <f>CONCATENATE(IF((D55+D56+D57)&lt;&gt;D53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$D$6&amp;" "&amp;$D$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((E55+E56+E57)&lt;&gt;E53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$D$6&amp;" "&amp;$E$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((F55+F56+F57)&lt;&gt;F53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$F$6&amp;" "&amp;$F$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((G55+G56+G57)&lt;&gt;G53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$F$6&amp;" "&amp;$G$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((H55+H56+H57)&lt;&gt;H53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$H$6&amp;" "&amp;$H$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((I55+I56+I57)&lt;&gt;I53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$H$6&amp;" "&amp;$I$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((J55+J56+J57)&lt;&gt;J53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$J$6&amp;" "&amp;$J$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((K55+K56+K57)&lt;&gt;K53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$J$6&amp;" "&amp;$K$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((L55+L56+L57)&lt;&gt;L53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$L$6&amp;" "&amp;$L$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((M55+M56+M57)&lt;&gt;M53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$L$6&amp;" "&amp;$M$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((N55+N56+N57)&lt;&gt;N53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$N$6&amp;" "&amp;$N$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""),IF((O55+O56+O57)&lt;&gt;O53," * HIV -ve FPT1-38+ Indeterminate  FPT1-39 + HIV +ve FPT1-40 (FPT01-32 )   "&amp;$N$6&amp;" "&amp;$O$7&amp;" is not equal to Total Tested FPT1-37 "&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R55" s="263" t="str">
+      <c r="R55" s="281" t="str">
         <f>CONCATENATE(Q55,Q56,Q57,Q58)</f>
         <v/>
       </c>
-      <c r="S55" s="146"/>
-      <c r="T55" s="297"/>
-      <c r="U55" s="126">
+      <c r="S55" s="79"/>
+      <c r="T55" s="169"/>
+      <c r="U55" s="72">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="45" customHeight="1" thickBot="1">
       <c r="A56" s="305"/>
-      <c r="B56" s="288" t="s">
+      <c r="B56" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="165" t="s">
+      <c r="C56" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="203"/>
-      <c r="H56" s="203"/>
-      <c r="I56" s="203"/>
-      <c r="J56" s="203"/>
-      <c r="K56" s="203"/>
-      <c r="L56" s="203"/>
-      <c r="M56" s="203"/>
-      <c r="N56" s="203"/>
-      <c r="O56" s="203"/>
-      <c r="P56" s="177">
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="109">
         <f>SUM(D56:O56)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="205"/>
-      <c r="R56" s="306"/>
-      <c r="S56" s="206"/>
-      <c r="T56" s="307"/>
-      <c r="U56" s="126">
+      <c r="Q56" s="134"/>
+      <c r="R56" s="302"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="173"/>
+      <c r="U56" s="72">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A57" s="308"/>
-      <c r="B57" s="288" t="s">
+      <c r="A57" s="306"/>
+      <c r="B57" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="165" t="s">
+      <c r="C57" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="203"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="203"/>
-      <c r="J57" s="203"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="203"/>
-      <c r="M57" s="203"/>
-      <c r="N57" s="203"/>
-      <c r="O57" s="203"/>
-      <c r="P57" s="177">
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="109">
         <f>SUM(D57:O57)</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="205" t="str">
+      <c r="Q57" s="134" t="str">
         <f>CONCATENATE(IF(D53&lt;D57," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(E53&lt;E57," * Total Tested FPT01-37 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(F53&lt;F57," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(G53&lt;G57," * Total Tested FPT01-37 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(H53&lt;H57," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(I53&lt;I57," * Total Tested FPT01-37 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(J53&lt;J57," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(K53&lt;K57," * Total Tested FPT01-37 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(L53&lt;L57," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(M53&lt;M57," * Total Tested FPT01-37 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(N53&lt;N57," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""),IF(O53&lt;O57," * Total Tested FPT01-37 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is less than HIV +ve FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R57" s="306"/>
-      <c r="S57" s="202"/>
-      <c r="T57" s="309"/>
-      <c r="U57" s="126"/>
+      <c r="R57" s="302"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="174"/>
+      <c r="U57" s="72"/>
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" s="10" customFormat="1" ht="59.65" customHeight="1" thickBot="1">
-      <c r="A58" s="310" t="s">
+      <c r="A58" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="203"/>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="203"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="203"/>
-      <c r="K58" s="203"/>
-      <c r="L58" s="203"/>
-      <c r="M58" s="203"/>
-      <c r="N58" s="203"/>
-      <c r="O58" s="203"/>
-      <c r="P58" s="177">
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="109">
         <f>SUM(D58:O58)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="205" t="str">
+      <c r="Q58" s="134" t="str">
         <f>CONCATENATE(IF(D58&gt;D57," * ON ART FPT01-41 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(E58&gt;E57," * ON ART FPT01-41 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(F58&gt;F57," * ON ART FPT01-41 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(G58&gt;G57," * ON ART FPT01-41 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(H58&gt;H57," * ON ART FPT01-41 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(I58&gt;I57," * ON ART FPT01-41 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(J58&gt;J57," * ON ART FPT01-41 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(K58&gt;K57," * ON ART FPT01-41 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(L58&gt;L57," * ON ART FPT01-41 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(M58&gt;M57," * ON ART FPT01-41 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(N58&gt;N57," * ON ART FPT01-41 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(O58&gt;O57," * ON ART FPT01-41 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R58" s="312"/>
-      <c r="S58" s="202"/>
-      <c r="T58" s="309"/>
-      <c r="U58" s="126"/>
+      <c r="R58" s="303"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="174"/>
+      <c r="U58" s="72"/>
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" s="10" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A59" s="282" t="s">
+      <c r="A59" s="310" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="283"/>
-      <c r="C59" s="283"/>
-      <c r="D59" s="269"/>
-      <c r="E59" s="269"/>
-      <c r="F59" s="269"/>
-      <c r="G59" s="269"/>
-      <c r="H59" s="269"/>
-      <c r="I59" s="269"/>
-      <c r="J59" s="269"/>
-      <c r="K59" s="269"/>
-      <c r="L59" s="269"/>
-      <c r="M59" s="269"/>
-      <c r="N59" s="269"/>
-      <c r="O59" s="269"/>
-      <c r="P59" s="284"/>
-      <c r="Q59" s="261"/>
-      <c r="R59" s="260"/>
-      <c r="S59" s="261"/>
-      <c r="T59" s="262"/>
-      <c r="U59" s="126">
+      <c r="B59" s="311"/>
+      <c r="C59" s="299"/>
+      <c r="D59" s="299"/>
+      <c r="E59" s="299"/>
+      <c r="F59" s="299"/>
+      <c r="G59" s="299"/>
+      <c r="H59" s="299"/>
+      <c r="I59" s="299"/>
+      <c r="J59" s="299"/>
+      <c r="K59" s="299"/>
+      <c r="L59" s="299"/>
+      <c r="M59" s="299"/>
+      <c r="N59" s="299"/>
+      <c r="O59" s="299"/>
+      <c r="P59" s="312"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="157"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="72">
         <v>18</v>
       </c>
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" s="10" customFormat="1" ht="27" thickBot="1">
-      <c r="A60" s="313" t="s">
+      <c r="A60" s="307" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="288" t="s">
+      <c r="B60" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="321" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="203"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="203"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="203"/>
-      <c r="P60" s="207">
-        <f>SUM(D60:O60)</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="208" t="str">
+      <c r="D60" s="324"/>
+      <c r="E60" s="325"/>
+      <c r="F60" s="325"/>
+      <c r="G60" s="325"/>
+      <c r="H60" s="325"/>
+      <c r="I60" s="325"/>
+      <c r="J60" s="325"/>
+      <c r="K60" s="325"/>
+      <c r="L60" s="325"/>
+      <c r="M60" s="325"/>
+      <c r="N60" s="325"/>
+      <c r="O60" s="326"/>
+      <c r="P60" s="136">
+        <f t="shared" ref="P60:P62" si="15">SUM(D60:O60)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="137" t="str">
         <f>CONCATENATE(IF(D60&gt;D57," * Assessed	FPT01-42 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(E60&gt;E57," * Assessed	FPT01-42 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(F60&gt;F57," * Assessed	FPT01-42 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(G60&gt;G57," * Assessed	FPT01-42 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(H60&gt;H57," * Assessed	FPT01-42 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(I60&gt;I57," * Assessed	FPT01-42 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(J60&gt;J57," * Assessed	FPT01-42 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(K60&gt;K57," * Assessed	FPT01-42 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(L60&gt;L57," * Assessed	FPT01-42 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(M60&gt;M57," * Assessed	FPT01-42 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(N60&gt;N57," * Assessed	FPT01-42 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""),IF(O60&gt;O57," * Assessed	FPT01-42 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than HIV +ve  FPT01-40"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R60" s="191" t="str">
+      <c r="R60" s="318" t="str">
         <f>CONCATENATE(Q60,Q61,Q62,Q63,Q64)</f>
         <v/>
       </c>
-      <c r="S60" s="146"/>
-      <c r="T60" s="314"/>
-      <c r="U60" s="126">
+      <c r="S60" s="79"/>
+      <c r="T60" s="177"/>
+      <c r="U60" s="72">
         <v>56</v>
       </c>
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" s="10" customFormat="1" ht="27" thickBot="1">
-      <c r="A61" s="315"/>
-      <c r="B61" s="288" t="s">
+      <c r="A61" s="308"/>
+      <c r="B61" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="183" t="s">
+      <c r="C61" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="209"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="203"/>
-      <c r="K61" s="203"/>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203"/>
-      <c r="N61" s="203"/>
-      <c r="O61" s="203"/>
-      <c r="P61" s="210">
-        <f>SUM(D61:O61)</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="204" t="str">
+      <c r="D61" s="138"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
+      <c r="N61" s="132"/>
+      <c r="O61" s="327"/>
+      <c r="P61" s="136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="133" t="str">
         <f>CONCATENATE(IF(D61&gt;D60," * Already enrolled in the OVC program FPT01-43 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(E61&gt;E60," * Already enrolled in the OVC program FPT01-43 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(F61&gt;F60," * Already enrolled in the OVC program FPT01-43 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(G61&gt;G60," * Already enrolled in the OVC program FPT01-43 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(H61&gt;H60," * Already enrolled in the OVC program FPT01-43 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(I61&gt;I60," * Already enrolled in the OVC program FPT01-43 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(J61&gt;J60," * Already enrolled in the OVC program FPT01-43 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(K61&gt;K60," * Already enrolled in the OVC program FPT01-43 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(L61&gt;L60," * Already enrolled in the OVC program FPT01-43 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(M61&gt;M60," * Already enrolled in the OVC program FPT01-43 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(N61&gt;N60," * Already enrolled in the OVC program FPT01-43 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""),IF(O61&gt;O60," * Already enrolled in the OVC program FPT01-43 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Assesed FPT01-42"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R61" s="193"/>
-      <c r="S61" s="206"/>
-      <c r="T61" s="316"/>
-      <c r="U61" s="126">
+      <c r="R61" s="319"/>
+      <c r="S61" s="135"/>
+      <c r="T61" s="178"/>
+      <c r="U61" s="72">
         <v>57</v>
       </c>
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" s="10" customFormat="1" ht="27" thickBot="1">
-      <c r="A62" s="315"/>
-      <c r="B62" s="288" t="s">
+      <c r="A62" s="308"/>
+      <c r="B62" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="183" t="s">
+      <c r="C62" s="322" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="211"/>
-      <c r="E62" s="203"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="203"/>
-      <c r="H62" s="203"/>
-      <c r="I62" s="203"/>
-      <c r="J62" s="203"/>
-      <c r="K62" s="203"/>
-      <c r="L62" s="203"/>
-      <c r="M62" s="203"/>
-      <c r="N62" s="203"/>
-      <c r="O62" s="203"/>
-      <c r="P62" s="212"/>
-      <c r="Q62" s="204" t="str">
+      <c r="D62" s="140"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="327"/>
+      <c r="P62" s="136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="133" t="str">
         <f>CONCATENATE(IF(D63+D64&gt;D62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(E63+E64&gt;E62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(F63+F64&gt;F62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(G63+G64&gt;G62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(H63+H64&gt;H62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(I63+I64&gt;I62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(J63+J64&gt;J62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(K63+K64&gt;K62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(L63+L64&gt;L62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(M63+M64&gt;M62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(N63+N64&gt;N62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""),IF(O63+O64&gt;O62," * Enrolled FPT01-45+ Refused Treatment FPT01-46 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Offered FPT01-44"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R62" s="193"/>
-      <c r="S62" s="202"/>
-      <c r="T62" s="316"/>
-      <c r="U62" s="126"/>
+      <c r="R62" s="319"/>
+      <c r="S62" s="131"/>
+      <c r="T62" s="178"/>
+      <c r="U62" s="72"/>
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" s="10" customFormat="1" ht="27" thickBot="1">
-      <c r="A63" s="315"/>
-      <c r="B63" s="288" t="s">
+      <c r="A63" s="308"/>
+      <c r="B63" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="183" t="s">
+      <c r="C63" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="211"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="203"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="203"/>
-      <c r="K63" s="203"/>
-      <c r="L63" s="203"/>
-      <c r="M63" s="203"/>
-      <c r="N63" s="203"/>
-      <c r="O63" s="203"/>
-      <c r="P63" s="207">
+      <c r="D63" s="140"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="327"/>
+      <c r="P63" s="136">
         <f>SUM(D63:O63)</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="204" t="str">
+      <c r="Q63" s="133" t="str">
         <f>CONCATENATE(IF(D63&gt;D62," * Enrolled	FPT01-45 "&amp;$D$6&amp;" "&amp;$D$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(E63&gt;E62," * Enrolled	FPT01-45 "&amp;$D$6&amp;" "&amp;$E$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(F63&gt;F62," * Enrolled	FPT01-45 "&amp;$F$6&amp;" "&amp;$F$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(G63&gt;G62," * Enrolled	FPT01-45 "&amp;$F$6&amp;" "&amp;$G$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(H63&gt;H62," * Enrolled	FPT01-45 "&amp;$H$6&amp;" "&amp;$H$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(I63&gt;I62," * Enrolled	FPT01-45 "&amp;$H$6&amp;" "&amp;$I$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(J63&gt;J62," * Enrolled	FPT01-45 "&amp;$J$6&amp;" "&amp;$J$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(K63&gt;K62," * Enrolled	FPT01-45 "&amp;$J$6&amp;" "&amp;$K$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(L63&gt;L62," * Enrolled	FPT01-45 "&amp;$L$6&amp;" "&amp;$L$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(M63&gt;M62," * Enrolled	FPT01-45 "&amp;$L$6&amp;" "&amp;$M$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(N63&gt;N62," * Enrolled	FPT01-45 "&amp;$N$6&amp;" "&amp;$N$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""),IF(O63&gt;O62," * Enrolled	FPT01-45 "&amp;$N$6&amp;" "&amp;$O$7&amp;" is more than Offered	FPT01-44"&amp;CHAR(10),""))</f>
         <v/>
       </c>
-      <c r="R63" s="193"/>
-      <c r="S63" s="146"/>
-      <c r="T63" s="316"/>
-      <c r="U63" s="126">
+      <c r="R63" s="319"/>
+      <c r="S63" s="79"/>
+      <c r="T63" s="178"/>
+      <c r="U63" s="72">
         <v>56</v>
       </c>
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" s="10" customFormat="1" ht="27" thickBot="1">
-      <c r="A64" s="317"/>
-      <c r="B64" s="288" t="s">
+      <c r="A64" s="309"/>
+      <c r="B64" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="183" t="s">
+      <c r="C64" s="323" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="213"/>
-      <c r="E64" s="203"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="203"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="203"/>
-      <c r="J64" s="203"/>
-      <c r="K64" s="203"/>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203"/>
-      <c r="N64" s="203"/>
-      <c r="O64" s="203"/>
-      <c r="P64" s="210">
+      <c r="D64" s="141"/>
+      <c r="E64" s="328"/>
+      <c r="F64" s="328"/>
+      <c r="G64" s="328"/>
+      <c r="H64" s="328"/>
+      <c r="I64" s="328"/>
+      <c r="J64" s="328"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="329"/>
+      <c r="P64" s="139">
         <f>SUM(D64:O64)</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="204"/>
-      <c r="R64" s="195"/>
-      <c r="S64" s="206"/>
-      <c r="T64" s="318"/>
-      <c r="U64" s="126">
+      <c r="Q64" s="133"/>
+      <c r="R64" s="320"/>
+      <c r="S64" s="135"/>
+      <c r="T64" s="179"/>
+      <c r="U64" s="72">
         <v>57</v>
       </c>
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A65" s="319" t="s">
+      <c r="A65" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="320"/>
-      <c r="C65" s="214"/>
-      <c r="D65" s="215"/>
-      <c r="E65" s="215"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="215"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="120"/>
-      <c r="K65" s="215"/>
-      <c r="L65" s="120"/>
-      <c r="M65" s="215"/>
-      <c r="N65" s="215"/>
-      <c r="O65" s="215"/>
-      <c r="P65" s="215"/>
-      <c r="Q65" s="216"/>
-      <c r="R65" s="321"/>
-      <c r="S65" s="215"/>
-      <c r="T65" s="215"/>
-      <c r="U65" s="217"/>
+      <c r="B65" s="181"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="144"/>
+      <c r="R65" s="182"/>
+      <c r="S65" s="143"/>
+      <c r="T65" s="143"/>
+      <c r="U65" s="145"/>
     </row>
     <row r="67" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
       <c r="A67" s="23"/>
@@ -10041,1209 +10164,1217 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:22" s="22" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="89"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="206"/>
+      <c r="D68" s="206"/>
+      <c r="E68" s="206"/>
+      <c r="F68" s="206"/>
+      <c r="G68" s="206"/>
+      <c r="H68" s="206"/>
+      <c r="I68" s="206"/>
+      <c r="J68" s="206"/>
+      <c r="K68" s="206"/>
+      <c r="L68" s="206"/>
+      <c r="M68" s="206"/>
+      <c r="N68" s="206"/>
+      <c r="O68" s="206"/>
+      <c r="P68" s="206"/>
+      <c r="Q68" s="206"/>
+      <c r="R68" s="206"/>
+      <c r="S68" s="206"/>
+      <c r="T68" s="207"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
     </row>
     <row r="69" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A69" s="112" t="str">
+      <c r="A69" s="230" t="str">
         <f>CONCATENATE(R60,R55,R51,R46,R36,R18,R8)</f>
         <v/>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="91"/>
+      <c r="B69" s="231"/>
+      <c r="C69" s="231"/>
+      <c r="D69" s="231"/>
+      <c r="E69" s="231"/>
+      <c r="F69" s="231"/>
+      <c r="G69" s="231"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="231"/>
+      <c r="J69" s="231"/>
+      <c r="K69" s="208"/>
+      <c r="L69" s="208"/>
+      <c r="M69" s="208"/>
+      <c r="N69" s="208"/>
+      <c r="O69" s="208"/>
+      <c r="P69" s="208"/>
+      <c r="Q69" s="208"/>
+      <c r="R69" s="208"/>
+      <c r="S69" s="208"/>
+      <c r="T69" s="209"/>
     </row>
     <row r="70" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A70" s="114"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
-      <c r="P70" s="92"/>
-      <c r="Q70" s="92"/>
-      <c r="R70" s="92"/>
-      <c r="S70" s="92"/>
-      <c r="T70" s="93"/>
+      <c r="A70" s="232"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="233"/>
+      <c r="D70" s="233"/>
+      <c r="E70" s="233"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="233"/>
+      <c r="H70" s="233"/>
+      <c r="I70" s="233"/>
+      <c r="J70" s="233"/>
+      <c r="K70" s="210"/>
+      <c r="L70" s="210"/>
+      <c r="M70" s="210"/>
+      <c r="N70" s="210"/>
+      <c r="O70" s="210"/>
+      <c r="P70" s="210"/>
+      <c r="Q70" s="210"/>
+      <c r="R70" s="210"/>
+      <c r="S70" s="210"/>
+      <c r="T70" s="211"/>
     </row>
     <row r="71" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A71" s="114"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
-      <c r="O71" s="92"/>
-      <c r="P71" s="92"/>
-      <c r="Q71" s="92"/>
-      <c r="R71" s="92"/>
-      <c r="S71" s="92"/>
-      <c r="T71" s="93"/>
+      <c r="A71" s="232"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="233"/>
+      <c r="E71" s="233"/>
+      <c r="F71" s="233"/>
+      <c r="G71" s="233"/>
+      <c r="H71" s="233"/>
+      <c r="I71" s="233"/>
+      <c r="J71" s="233"/>
+      <c r="K71" s="210"/>
+      <c r="L71" s="210"/>
+      <c r="M71" s="210"/>
+      <c r="N71" s="210"/>
+      <c r="O71" s="210"/>
+      <c r="P71" s="210"/>
+      <c r="Q71" s="210"/>
+      <c r="R71" s="210"/>
+      <c r="S71" s="210"/>
+      <c r="T71" s="211"/>
     </row>
     <row r="72" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A72" s="114"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92"/>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="93"/>
+      <c r="A72" s="232"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="233"/>
+      <c r="E72" s="233"/>
+      <c r="F72" s="233"/>
+      <c r="G72" s="233"/>
+      <c r="H72" s="233"/>
+      <c r="I72" s="233"/>
+      <c r="J72" s="233"/>
+      <c r="K72" s="210"/>
+      <c r="L72" s="210"/>
+      <c r="M72" s="210"/>
+      <c r="N72" s="210"/>
+      <c r="O72" s="210"/>
+      <c r="P72" s="210"/>
+      <c r="Q72" s="210"/>
+      <c r="R72" s="210"/>
+      <c r="S72" s="210"/>
+      <c r="T72" s="211"/>
     </row>
     <row r="73" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A73" s="114"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
-      <c r="O73" s="92"/>
-      <c r="P73" s="92"/>
-      <c r="Q73" s="92"/>
-      <c r="R73" s="92"/>
-      <c r="S73" s="92"/>
-      <c r="T73" s="93"/>
+      <c r="A73" s="232"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="233"/>
+      <c r="H73" s="233"/>
+      <c r="I73" s="233"/>
+      <c r="J73" s="233"/>
+      <c r="K73" s="210"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="210"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210"/>
+      <c r="Q73" s="210"/>
+      <c r="R73" s="210"/>
+      <c r="S73" s="210"/>
+      <c r="T73" s="211"/>
     </row>
     <row r="74" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A74" s="114"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="115"/>
-      <c r="I74" s="115"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="92"/>
-      <c r="P74" s="92"/>
-      <c r="Q74" s="92"/>
-      <c r="R74" s="92"/>
-      <c r="S74" s="92"/>
-      <c r="T74" s="93"/>
+      <c r="A74" s="232"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
+      <c r="E74" s="233"/>
+      <c r="F74" s="233"/>
+      <c r="G74" s="233"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="233"/>
+      <c r="J74" s="233"/>
+      <c r="K74" s="210"/>
+      <c r="L74" s="210"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="210"/>
+      <c r="O74" s="210"/>
+      <c r="P74" s="210"/>
+      <c r="Q74" s="210"/>
+      <c r="R74" s="210"/>
+      <c r="S74" s="210"/>
+      <c r="T74" s="211"/>
     </row>
     <row r="75" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A75" s="114"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="115"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="92"/>
-      <c r="O75" s="92"/>
-      <c r="P75" s="92"/>
-      <c r="Q75" s="92"/>
-      <c r="R75" s="92"/>
-      <c r="S75" s="92"/>
-      <c r="T75" s="93"/>
+      <c r="A75" s="232"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="233"/>
+      <c r="D75" s="233"/>
+      <c r="E75" s="233"/>
+      <c r="F75" s="233"/>
+      <c r="G75" s="233"/>
+      <c r="H75" s="233"/>
+      <c r="I75" s="233"/>
+      <c r="J75" s="233"/>
+      <c r="K75" s="210"/>
+      <c r="L75" s="210"/>
+      <c r="M75" s="210"/>
+      <c r="N75" s="210"/>
+      <c r="O75" s="210"/>
+      <c r="P75" s="210"/>
+      <c r="Q75" s="210"/>
+      <c r="R75" s="210"/>
+      <c r="S75" s="210"/>
+      <c r="T75" s="211"/>
     </row>
     <row r="76" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A76" s="114"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
-      <c r="N76" s="92"/>
-      <c r="O76" s="92"/>
-      <c r="P76" s="92"/>
-      <c r="Q76" s="92"/>
-      <c r="R76" s="92"/>
-      <c r="S76" s="92"/>
-      <c r="T76" s="93"/>
+      <c r="A76" s="232"/>
+      <c r="B76" s="233"/>
+      <c r="C76" s="233"/>
+      <c r="D76" s="233"/>
+      <c r="E76" s="233"/>
+      <c r="F76" s="233"/>
+      <c r="G76" s="233"/>
+      <c r="H76" s="233"/>
+      <c r="I76" s="233"/>
+      <c r="J76" s="233"/>
+      <c r="K76" s="210"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="210"/>
+      <c r="N76" s="210"/>
+      <c r="O76" s="210"/>
+      <c r="P76" s="210"/>
+      <c r="Q76" s="210"/>
+      <c r="R76" s="210"/>
+      <c r="S76" s="210"/>
+      <c r="T76" s="211"/>
     </row>
     <row r="77" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A77" s="114"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
-      <c r="N77" s="92"/>
-      <c r="O77" s="92"/>
-      <c r="P77" s="92"/>
-      <c r="Q77" s="92"/>
-      <c r="R77" s="92"/>
-      <c r="S77" s="92"/>
-      <c r="T77" s="93"/>
+      <c r="A77" s="232"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="233"/>
+      <c r="D77" s="233"/>
+      <c r="E77" s="233"/>
+      <c r="F77" s="233"/>
+      <c r="G77" s="233"/>
+      <c r="H77" s="233"/>
+      <c r="I77" s="233"/>
+      <c r="J77" s="233"/>
+      <c r="K77" s="210"/>
+      <c r="L77" s="210"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="210"/>
+      <c r="O77" s="210"/>
+      <c r="P77" s="210"/>
+      <c r="Q77" s="210"/>
+      <c r="R77" s="210"/>
+      <c r="S77" s="210"/>
+      <c r="T77" s="211"/>
     </row>
     <row r="78" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="93"/>
+      <c r="A78" s="232"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="233"/>
+      <c r="D78" s="233"/>
+      <c r="E78" s="233"/>
+      <c r="F78" s="233"/>
+      <c r="G78" s="233"/>
+      <c r="H78" s="233"/>
+      <c r="I78" s="233"/>
+      <c r="J78" s="233"/>
+      <c r="K78" s="210"/>
+      <c r="L78" s="210"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="210"/>
+      <c r="O78" s="210"/>
+      <c r="P78" s="210"/>
+      <c r="Q78" s="210"/>
+      <c r="R78" s="210"/>
+      <c r="S78" s="210"/>
+      <c r="T78" s="211"/>
     </row>
     <row r="79" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A79" s="114"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
-      <c r="M79" s="92"/>
-      <c r="N79" s="92"/>
-      <c r="O79" s="92"/>
-      <c r="P79" s="92"/>
-      <c r="Q79" s="92"/>
-      <c r="R79" s="92"/>
-      <c r="S79" s="92"/>
-      <c r="T79" s="93"/>
+      <c r="A79" s="232"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="233"/>
+      <c r="D79" s="233"/>
+      <c r="E79" s="233"/>
+      <c r="F79" s="233"/>
+      <c r="G79" s="233"/>
+      <c r="H79" s="233"/>
+      <c r="I79" s="233"/>
+      <c r="J79" s="233"/>
+      <c r="K79" s="210"/>
+      <c r="L79" s="210"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="210"/>
+      <c r="O79" s="210"/>
+      <c r="P79" s="210"/>
+      <c r="Q79" s="210"/>
+      <c r="R79" s="210"/>
+      <c r="S79" s="210"/>
+      <c r="T79" s="211"/>
     </row>
     <row r="80" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A80" s="114"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="115"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="115"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="92"/>
-      <c r="O80" s="92"/>
-      <c r="P80" s="92"/>
-      <c r="Q80" s="92"/>
-      <c r="R80" s="92"/>
-      <c r="S80" s="92"/>
-      <c r="T80" s="93"/>
+      <c r="A80" s="232"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="233"/>
+      <c r="D80" s="233"/>
+      <c r="E80" s="233"/>
+      <c r="F80" s="233"/>
+      <c r="G80" s="233"/>
+      <c r="H80" s="233"/>
+      <c r="I80" s="233"/>
+      <c r="J80" s="233"/>
+      <c r="K80" s="210"/>
+      <c r="L80" s="210"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="210"/>
+      <c r="O80" s="210"/>
+      <c r="P80" s="210"/>
+      <c r="Q80" s="210"/>
+      <c r="R80" s="210"/>
+      <c r="S80" s="210"/>
+      <c r="T80" s="211"/>
     </row>
     <row r="81" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A81" s="114"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="92"/>
-      <c r="L81" s="92"/>
-      <c r="M81" s="92"/>
-      <c r="N81" s="92"/>
-      <c r="O81" s="92"/>
-      <c r="P81" s="92"/>
-      <c r="Q81" s="92"/>
-      <c r="R81" s="92"/>
-      <c r="S81" s="92"/>
-      <c r="T81" s="93"/>
+      <c r="A81" s="232"/>
+      <c r="B81" s="233"/>
+      <c r="C81" s="233"/>
+      <c r="D81" s="233"/>
+      <c r="E81" s="233"/>
+      <c r="F81" s="233"/>
+      <c r="G81" s="233"/>
+      <c r="H81" s="233"/>
+      <c r="I81" s="233"/>
+      <c r="J81" s="233"/>
+      <c r="K81" s="210"/>
+      <c r="L81" s="210"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="210"/>
+      <c r="O81" s="210"/>
+      <c r="P81" s="210"/>
+      <c r="Q81" s="210"/>
+      <c r="R81" s="210"/>
+      <c r="S81" s="210"/>
+      <c r="T81" s="211"/>
     </row>
     <row r="82" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A82" s="114"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="92"/>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="93"/>
+      <c r="A82" s="232"/>
+      <c r="B82" s="233"/>
+      <c r="C82" s="233"/>
+      <c r="D82" s="233"/>
+      <c r="E82" s="233"/>
+      <c r="F82" s="233"/>
+      <c r="G82" s="233"/>
+      <c r="H82" s="233"/>
+      <c r="I82" s="233"/>
+      <c r="J82" s="233"/>
+      <c r="K82" s="210"/>
+      <c r="L82" s="210"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="210"/>
+      <c r="O82" s="210"/>
+      <c r="P82" s="210"/>
+      <c r="Q82" s="210"/>
+      <c r="R82" s="210"/>
+      <c r="S82" s="210"/>
+      <c r="T82" s="211"/>
     </row>
     <row r="83" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A83" s="114"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="92"/>
-      <c r="M83" s="92"/>
-      <c r="N83" s="92"/>
-      <c r="O83" s="92"/>
-      <c r="P83" s="92"/>
-      <c r="Q83" s="92"/>
-      <c r="R83" s="92"/>
-      <c r="S83" s="92"/>
-      <c r="T83" s="93"/>
+      <c r="A83" s="232"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="233"/>
+      <c r="E83" s="233"/>
+      <c r="F83" s="233"/>
+      <c r="G83" s="233"/>
+      <c r="H83" s="233"/>
+      <c r="I83" s="233"/>
+      <c r="J83" s="233"/>
+      <c r="K83" s="210"/>
+      <c r="L83" s="210"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="210"/>
+      <c r="O83" s="210"/>
+      <c r="P83" s="210"/>
+      <c r="Q83" s="210"/>
+      <c r="R83" s="210"/>
+      <c r="S83" s="210"/>
+      <c r="T83" s="211"/>
     </row>
     <row r="84" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A84" s="114"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
-      <c r="O84" s="92"/>
-      <c r="P84" s="92"/>
-      <c r="Q84" s="92"/>
-      <c r="R84" s="92"/>
-      <c r="S84" s="92"/>
-      <c r="T84" s="93"/>
+      <c r="A84" s="232"/>
+      <c r="B84" s="233"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="233"/>
+      <c r="E84" s="233"/>
+      <c r="F84" s="233"/>
+      <c r="G84" s="233"/>
+      <c r="H84" s="233"/>
+      <c r="I84" s="233"/>
+      <c r="J84" s="233"/>
+      <c r="K84" s="210"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="210"/>
+      <c r="N84" s="210"/>
+      <c r="O84" s="210"/>
+      <c r="P84" s="210"/>
+      <c r="Q84" s="210"/>
+      <c r="R84" s="210"/>
+      <c r="S84" s="210"/>
+      <c r="T84" s="211"/>
     </row>
     <row r="85" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A85" s="114"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="115"/>
-      <c r="I85" s="115"/>
-      <c r="J85" s="115"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="92"/>
-      <c r="N85" s="92"/>
-      <c r="O85" s="92"/>
-      <c r="P85" s="92"/>
-      <c r="Q85" s="92"/>
-      <c r="R85" s="92"/>
-      <c r="S85" s="92"/>
-      <c r="T85" s="93"/>
+      <c r="A85" s="232"/>
+      <c r="B85" s="233"/>
+      <c r="C85" s="233"/>
+      <c r="D85" s="233"/>
+      <c r="E85" s="233"/>
+      <c r="F85" s="233"/>
+      <c r="G85" s="233"/>
+      <c r="H85" s="233"/>
+      <c r="I85" s="233"/>
+      <c r="J85" s="233"/>
+      <c r="K85" s="210"/>
+      <c r="L85" s="210"/>
+      <c r="M85" s="210"/>
+      <c r="N85" s="210"/>
+      <c r="O85" s="210"/>
+      <c r="P85" s="210"/>
+      <c r="Q85" s="210"/>
+      <c r="R85" s="210"/>
+      <c r="S85" s="210"/>
+      <c r="T85" s="211"/>
     </row>
     <row r="86" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="92"/>
-      <c r="N86" s="92"/>
-      <c r="O86" s="92"/>
-      <c r="P86" s="92"/>
-      <c r="Q86" s="92"/>
-      <c r="R86" s="92"/>
-      <c r="S86" s="92"/>
-      <c r="T86" s="93"/>
+      <c r="A86" s="232"/>
+      <c r="B86" s="233"/>
+      <c r="C86" s="233"/>
+      <c r="D86" s="233"/>
+      <c r="E86" s="233"/>
+      <c r="F86" s="233"/>
+      <c r="G86" s="233"/>
+      <c r="H86" s="233"/>
+      <c r="I86" s="233"/>
+      <c r="J86" s="233"/>
+      <c r="K86" s="210"/>
+      <c r="L86" s="210"/>
+      <c r="M86" s="210"/>
+      <c r="N86" s="210"/>
+      <c r="O86" s="210"/>
+      <c r="P86" s="210"/>
+      <c r="Q86" s="210"/>
+      <c r="R86" s="210"/>
+      <c r="S86" s="210"/>
+      <c r="T86" s="211"/>
     </row>
     <row r="87" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A87" s="114"/>
-      <c r="B87" s="115"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="115"/>
-      <c r="E87" s="115"/>
-      <c r="F87" s="115"/>
-      <c r="G87" s="115"/>
-      <c r="H87" s="115"/>
-      <c r="I87" s="115"/>
-      <c r="J87" s="115"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="92"/>
-      <c r="N87" s="92"/>
-      <c r="O87" s="92"/>
-      <c r="P87" s="92"/>
-      <c r="Q87" s="92"/>
-      <c r="R87" s="92"/>
-      <c r="S87" s="92"/>
-      <c r="T87" s="93"/>
+      <c r="A87" s="232"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="233"/>
+      <c r="D87" s="233"/>
+      <c r="E87" s="233"/>
+      <c r="F87" s="233"/>
+      <c r="G87" s="233"/>
+      <c r="H87" s="233"/>
+      <c r="I87" s="233"/>
+      <c r="J87" s="233"/>
+      <c r="K87" s="210"/>
+      <c r="L87" s="210"/>
+      <c r="M87" s="210"/>
+      <c r="N87" s="210"/>
+      <c r="O87" s="210"/>
+      <c r="P87" s="210"/>
+      <c r="Q87" s="210"/>
+      <c r="R87" s="210"/>
+      <c r="S87" s="210"/>
+      <c r="T87" s="211"/>
     </row>
     <row r="88" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A88" s="114"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="115"/>
-      <c r="D88" s="115"/>
-      <c r="E88" s="115"/>
-      <c r="F88" s="115"/>
-      <c r="G88" s="115"/>
-      <c r="H88" s="115"/>
-      <c r="I88" s="115"/>
-      <c r="J88" s="115"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="92"/>
-      <c r="N88" s="92"/>
-      <c r="O88" s="92"/>
-      <c r="P88" s="92"/>
-      <c r="Q88" s="92"/>
-      <c r="R88" s="92"/>
-      <c r="S88" s="92"/>
-      <c r="T88" s="93"/>
+      <c r="A88" s="232"/>
+      <c r="B88" s="233"/>
+      <c r="C88" s="233"/>
+      <c r="D88" s="233"/>
+      <c r="E88" s="233"/>
+      <c r="F88" s="233"/>
+      <c r="G88" s="233"/>
+      <c r="H88" s="233"/>
+      <c r="I88" s="233"/>
+      <c r="J88" s="233"/>
+      <c r="K88" s="210"/>
+      <c r="L88" s="210"/>
+      <c r="M88" s="210"/>
+      <c r="N88" s="210"/>
+      <c r="O88" s="210"/>
+      <c r="P88" s="210"/>
+      <c r="Q88" s="210"/>
+      <c r="R88" s="210"/>
+      <c r="S88" s="210"/>
+      <c r="T88" s="211"/>
     </row>
     <row r="89" spans="1:22" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A89" s="116"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="94"/>
-      <c r="L89" s="94"/>
-      <c r="M89" s="94"/>
-      <c r="N89" s="94"/>
-      <c r="O89" s="94"/>
-      <c r="P89" s="94"/>
-      <c r="Q89" s="94"/>
-      <c r="R89" s="94"/>
-      <c r="S89" s="94"/>
-      <c r="T89" s="95"/>
+      <c r="A89" s="234"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="235"/>
+      <c r="D89" s="235"/>
+      <c r="E89" s="235"/>
+      <c r="F89" s="235"/>
+      <c r="G89" s="235"/>
+      <c r="H89" s="235"/>
+      <c r="I89" s="235"/>
+      <c r="J89" s="235"/>
+      <c r="K89" s="212"/>
+      <c r="L89" s="212"/>
+      <c r="M89" s="212"/>
+      <c r="N89" s="212"/>
+      <c r="O89" s="212"/>
+      <c r="P89" s="212"/>
+      <c r="Q89" s="212"/>
+      <c r="R89" s="212"/>
+      <c r="S89" s="212"/>
+      <c r="T89" s="213"/>
     </row>
     <row r="90" spans="1:22" s="20" customFormat="1" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="109"/>
-      <c r="K90" s="110"/>
-      <c r="L90" s="110"/>
-      <c r="M90" s="110"/>
-      <c r="N90" s="110"/>
-      <c r="O90" s="110"/>
-      <c r="P90" s="110"/>
-      <c r="Q90" s="110"/>
-      <c r="R90" s="110"/>
-      <c r="S90" s="110"/>
-      <c r="T90" s="111"/>
+      <c r="B90" s="227"/>
+      <c r="C90" s="227"/>
+      <c r="D90" s="227"/>
+      <c r="E90" s="227"/>
+      <c r="F90" s="227"/>
+      <c r="G90" s="227"/>
+      <c r="H90" s="227"/>
+      <c r="I90" s="227"/>
+      <c r="J90" s="227"/>
+      <c r="K90" s="228"/>
+      <c r="L90" s="228"/>
+      <c r="M90" s="228"/>
+      <c r="N90" s="228"/>
+      <c r="O90" s="228"/>
+      <c r="P90" s="228"/>
+      <c r="Q90" s="228"/>
+      <c r="R90" s="228"/>
+      <c r="S90" s="228"/>
+      <c r="T90" s="229"/>
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
     </row>
     <row r="91" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A91" s="96" t="e">
+      <c r="A91" s="214" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,T46,T8,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="102"/>
-      <c r="L91" s="102"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="102"/>
-      <c r="O91" s="102"/>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="102"/>
-      <c r="S91" s="102"/>
-      <c r="T91" s="103"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
+      <c r="G91" s="215"/>
+      <c r="H91" s="215"/>
+      <c r="I91" s="215"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="220"/>
+      <c r="L91" s="220"/>
+      <c r="M91" s="220"/>
+      <c r="N91" s="220"/>
+      <c r="O91" s="220"/>
+      <c r="P91" s="220"/>
+      <c r="Q91" s="220"/>
+      <c r="R91" s="220"/>
+      <c r="S91" s="220"/>
+      <c r="T91" s="221"/>
     </row>
     <row r="92" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="99"/>
-      <c r="H92" s="99"/>
-      <c r="I92" s="99"/>
-      <c r="J92" s="99"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="104"/>
-      <c r="M92" s="104"/>
-      <c r="N92" s="104"/>
-      <c r="O92" s="104"/>
-      <c r="P92" s="104"/>
-      <c r="Q92" s="104"/>
-      <c r="R92" s="104"/>
-      <c r="S92" s="104"/>
-      <c r="T92" s="105"/>
+      <c r="A92" s="216"/>
+      <c r="B92" s="217"/>
+      <c r="C92" s="217"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="217"/>
+      <c r="F92" s="217"/>
+      <c r="G92" s="217"/>
+      <c r="H92" s="217"/>
+      <c r="I92" s="217"/>
+      <c r="J92" s="217"/>
+      <c r="K92" s="222"/>
+      <c r="L92" s="222"/>
+      <c r="M92" s="222"/>
+      <c r="N92" s="222"/>
+      <c r="O92" s="222"/>
+      <c r="P92" s="222"/>
+      <c r="Q92" s="222"/>
+      <c r="R92" s="222"/>
+      <c r="S92" s="222"/>
+      <c r="T92" s="223"/>
     </row>
     <row r="93" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="99"/>
-      <c r="H93" s="99"/>
-      <c r="I93" s="99"/>
-      <c r="J93" s="99"/>
-      <c r="K93" s="104"/>
-      <c r="L93" s="104"/>
-      <c r="M93" s="104"/>
-      <c r="N93" s="104"/>
-      <c r="O93" s="104"/>
-      <c r="P93" s="104"/>
-      <c r="Q93" s="104"/>
-      <c r="R93" s="104"/>
-      <c r="S93" s="104"/>
-      <c r="T93" s="105"/>
+      <c r="A93" s="216"/>
+      <c r="B93" s="217"/>
+      <c r="C93" s="217"/>
+      <c r="D93" s="217"/>
+      <c r="E93" s="217"/>
+      <c r="F93" s="217"/>
+      <c r="G93" s="217"/>
+      <c r="H93" s="217"/>
+      <c r="I93" s="217"/>
+      <c r="J93" s="217"/>
+      <c r="K93" s="222"/>
+      <c r="L93" s="222"/>
+      <c r="M93" s="222"/>
+      <c r="N93" s="222"/>
+      <c r="O93" s="222"/>
+      <c r="P93" s="222"/>
+      <c r="Q93" s="222"/>
+      <c r="R93" s="222"/>
+      <c r="S93" s="222"/>
+      <c r="T93" s="223"/>
     </row>
     <row r="94" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="99"/>
-      <c r="J94" s="99"/>
-      <c r="K94" s="104"/>
-      <c r="L94" s="104"/>
-      <c r="M94" s="104"/>
-      <c r="N94" s="104"/>
-      <c r="O94" s="104"/>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="104"/>
-      <c r="S94" s="104"/>
-      <c r="T94" s="105"/>
+      <c r="A94" s="216"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="217"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="217"/>
+      <c r="F94" s="217"/>
+      <c r="G94" s="217"/>
+      <c r="H94" s="217"/>
+      <c r="I94" s="217"/>
+      <c r="J94" s="217"/>
+      <c r="K94" s="222"/>
+      <c r="L94" s="222"/>
+      <c r="M94" s="222"/>
+      <c r="N94" s="222"/>
+      <c r="O94" s="222"/>
+      <c r="P94" s="222"/>
+      <c r="Q94" s="222"/>
+      <c r="R94" s="222"/>
+      <c r="S94" s="222"/>
+      <c r="T94" s="223"/>
     </row>
     <row r="95" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="104"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="104"/>
-      <c r="O95" s="104"/>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="105"/>
+      <c r="A95" s="216"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="217"/>
+      <c r="D95" s="217"/>
+      <c r="E95" s="217"/>
+      <c r="F95" s="217"/>
+      <c r="G95" s="217"/>
+      <c r="H95" s="217"/>
+      <c r="I95" s="217"/>
+      <c r="J95" s="217"/>
+      <c r="K95" s="222"/>
+      <c r="L95" s="222"/>
+      <c r="M95" s="222"/>
+      <c r="N95" s="222"/>
+      <c r="O95" s="222"/>
+      <c r="P95" s="222"/>
+      <c r="Q95" s="222"/>
+      <c r="R95" s="222"/>
+      <c r="S95" s="222"/>
+      <c r="T95" s="223"/>
     </row>
     <row r="96" spans="1:22" ht="34.35" customHeight="1">
-      <c r="A96" s="98"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
-      <c r="M96" s="104"/>
-      <c r="N96" s="104"/>
-      <c r="O96" s="104"/>
-      <c r="P96" s="104"/>
-      <c r="Q96" s="104"/>
-      <c r="R96" s="104"/>
-      <c r="S96" s="104"/>
-      <c r="T96" s="105"/>
+      <c r="A96" s="216"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="217"/>
+      <c r="D96" s="217"/>
+      <c r="E96" s="217"/>
+      <c r="F96" s="217"/>
+      <c r="G96" s="217"/>
+      <c r="H96" s="217"/>
+      <c r="I96" s="217"/>
+      <c r="J96" s="217"/>
+      <c r="K96" s="222"/>
+      <c r="L96" s="222"/>
+      <c r="M96" s="222"/>
+      <c r="N96" s="222"/>
+      <c r="O96" s="222"/>
+      <c r="P96" s="222"/>
+      <c r="Q96" s="222"/>
+      <c r="R96" s="222"/>
+      <c r="S96" s="222"/>
+      <c r="T96" s="223"/>
     </row>
     <row r="97" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A97" s="98"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="104"/>
-      <c r="L97" s="104"/>
-      <c r="M97" s="104"/>
-      <c r="N97" s="104"/>
-      <c r="O97" s="104"/>
-      <c r="P97" s="104"/>
-      <c r="Q97" s="104"/>
-      <c r="R97" s="104"/>
-      <c r="S97" s="104"/>
-      <c r="T97" s="105"/>
+      <c r="A97" s="216"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="217"/>
+      <c r="D97" s="217"/>
+      <c r="E97" s="217"/>
+      <c r="F97" s="217"/>
+      <c r="G97" s="217"/>
+      <c r="H97" s="217"/>
+      <c r="I97" s="217"/>
+      <c r="J97" s="217"/>
+      <c r="K97" s="222"/>
+      <c r="L97" s="222"/>
+      <c r="M97" s="222"/>
+      <c r="N97" s="222"/>
+      <c r="O97" s="222"/>
+      <c r="P97" s="222"/>
+      <c r="Q97" s="222"/>
+      <c r="R97" s="222"/>
+      <c r="S97" s="222"/>
+      <c r="T97" s="223"/>
     </row>
     <row r="98" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A98" s="98"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="99"/>
-      <c r="H98" s="99"/>
-      <c r="I98" s="99"/>
-      <c r="J98" s="99"/>
-      <c r="K98" s="104"/>
-      <c r="L98" s="104"/>
-      <c r="M98" s="104"/>
-      <c r="N98" s="104"/>
-      <c r="O98" s="104"/>
-      <c r="P98" s="104"/>
-      <c r="Q98" s="104"/>
-      <c r="R98" s="104"/>
-      <c r="S98" s="104"/>
-      <c r="T98" s="105"/>
+      <c r="A98" s="216"/>
+      <c r="B98" s="217"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
+      <c r="F98" s="217"/>
+      <c r="G98" s="217"/>
+      <c r="H98" s="217"/>
+      <c r="I98" s="217"/>
+      <c r="J98" s="217"/>
+      <c r="K98" s="222"/>
+      <c r="L98" s="222"/>
+      <c r="M98" s="222"/>
+      <c r="N98" s="222"/>
+      <c r="O98" s="222"/>
+      <c r="P98" s="222"/>
+      <c r="Q98" s="222"/>
+      <c r="R98" s="222"/>
+      <c r="S98" s="222"/>
+      <c r="T98" s="223"/>
     </row>
     <row r="99" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A99" s="98"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="104"/>
-      <c r="L99" s="104"/>
-      <c r="M99" s="104"/>
-      <c r="N99" s="104"/>
-      <c r="O99" s="104"/>
-      <c r="P99" s="104"/>
-      <c r="Q99" s="104"/>
-      <c r="R99" s="104"/>
-      <c r="S99" s="104"/>
-      <c r="T99" s="105"/>
+      <c r="A99" s="216"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="217"/>
+      <c r="G99" s="217"/>
+      <c r="H99" s="217"/>
+      <c r="I99" s="217"/>
+      <c r="J99" s="217"/>
+      <c r="K99" s="222"/>
+      <c r="L99" s="222"/>
+      <c r="M99" s="222"/>
+      <c r="N99" s="222"/>
+      <c r="O99" s="222"/>
+      <c r="P99" s="222"/>
+      <c r="Q99" s="222"/>
+      <c r="R99" s="222"/>
+      <c r="S99" s="222"/>
+      <c r="T99" s="223"/>
     </row>
     <row r="100" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
-      <c r="J100" s="99"/>
-      <c r="K100" s="104"/>
-      <c r="L100" s="104"/>
-      <c r="M100" s="104"/>
-      <c r="N100" s="104"/>
-      <c r="O100" s="104"/>
-      <c r="P100" s="104"/>
-      <c r="Q100" s="104"/>
-      <c r="R100" s="104"/>
-      <c r="S100" s="104"/>
-      <c r="T100" s="105"/>
+      <c r="A100" s="216"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="217"/>
+      <c r="D100" s="217"/>
+      <c r="E100" s="217"/>
+      <c r="F100" s="217"/>
+      <c r="G100" s="217"/>
+      <c r="H100" s="217"/>
+      <c r="I100" s="217"/>
+      <c r="J100" s="217"/>
+      <c r="K100" s="222"/>
+      <c r="L100" s="222"/>
+      <c r="M100" s="222"/>
+      <c r="N100" s="222"/>
+      <c r="O100" s="222"/>
+      <c r="P100" s="222"/>
+      <c r="Q100" s="222"/>
+      <c r="R100" s="222"/>
+      <c r="S100" s="222"/>
+      <c r="T100" s="223"/>
     </row>
     <row r="101" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A101" s="98"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="104"/>
-      <c r="L101" s="104"/>
-      <c r="M101" s="104"/>
-      <c r="N101" s="104"/>
-      <c r="O101" s="104"/>
-      <c r="P101" s="104"/>
-      <c r="Q101" s="104"/>
-      <c r="R101" s="104"/>
-      <c r="S101" s="104"/>
-      <c r="T101" s="105"/>
+      <c r="A101" s="216"/>
+      <c r="B101" s="217"/>
+      <c r="C101" s="217"/>
+      <c r="D101" s="217"/>
+      <c r="E101" s="217"/>
+      <c r="F101" s="217"/>
+      <c r="G101" s="217"/>
+      <c r="H101" s="217"/>
+      <c r="I101" s="217"/>
+      <c r="J101" s="217"/>
+      <c r="K101" s="222"/>
+      <c r="L101" s="222"/>
+      <c r="M101" s="222"/>
+      <c r="N101" s="222"/>
+      <c r="O101" s="222"/>
+      <c r="P101" s="222"/>
+      <c r="Q101" s="222"/>
+      <c r="R101" s="222"/>
+      <c r="S101" s="222"/>
+      <c r="T101" s="223"/>
     </row>
     <row r="102" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A102" s="98"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="99"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="99"/>
-      <c r="K102" s="104"/>
-      <c r="L102" s="104"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="104"/>
-      <c r="O102" s="104"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="104"/>
-      <c r="S102" s="104"/>
-      <c r="T102" s="105"/>
+      <c r="A102" s="216"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="217"/>
+      <c r="D102" s="217"/>
+      <c r="E102" s="217"/>
+      <c r="F102" s="217"/>
+      <c r="G102" s="217"/>
+      <c r="H102" s="217"/>
+      <c r="I102" s="217"/>
+      <c r="J102" s="217"/>
+      <c r="K102" s="222"/>
+      <c r="L102" s="222"/>
+      <c r="M102" s="222"/>
+      <c r="N102" s="222"/>
+      <c r="O102" s="222"/>
+      <c r="P102" s="222"/>
+      <c r="Q102" s="222"/>
+      <c r="R102" s="222"/>
+      <c r="S102" s="222"/>
+      <c r="T102" s="223"/>
     </row>
     <row r="103" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A103" s="98"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="99"/>
-      <c r="K103" s="104"/>
-      <c r="L103" s="104"/>
-      <c r="M103" s="104"/>
-      <c r="N103" s="104"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
-      <c r="S103" s="104"/>
-      <c r="T103" s="105"/>
+      <c r="A103" s="216"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="217"/>
+      <c r="D103" s="217"/>
+      <c r="E103" s="217"/>
+      <c r="F103" s="217"/>
+      <c r="G103" s="217"/>
+      <c r="H103" s="217"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="217"/>
+      <c r="K103" s="222"/>
+      <c r="L103" s="222"/>
+      <c r="M103" s="222"/>
+      <c r="N103" s="222"/>
+      <c r="O103" s="222"/>
+      <c r="P103" s="222"/>
+      <c r="Q103" s="222"/>
+      <c r="R103" s="222"/>
+      <c r="S103" s="222"/>
+      <c r="T103" s="223"/>
     </row>
     <row r="104" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A104" s="98"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="104"/>
-      <c r="L104" s="104"/>
-      <c r="M104" s="104"/>
-      <c r="N104" s="104"/>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
-      <c r="S104" s="104"/>
-      <c r="T104" s="105"/>
+      <c r="A104" s="216"/>
+      <c r="B104" s="217"/>
+      <c r="C104" s="217"/>
+      <c r="D104" s="217"/>
+      <c r="E104" s="217"/>
+      <c r="F104" s="217"/>
+      <c r="G104" s="217"/>
+      <c r="H104" s="217"/>
+      <c r="I104" s="217"/>
+      <c r="J104" s="217"/>
+      <c r="K104" s="222"/>
+      <c r="L104" s="222"/>
+      <c r="M104" s="222"/>
+      <c r="N104" s="222"/>
+      <c r="O104" s="222"/>
+      <c r="P104" s="222"/>
+      <c r="Q104" s="222"/>
+      <c r="R104" s="222"/>
+      <c r="S104" s="222"/>
+      <c r="T104" s="223"/>
     </row>
     <row r="105" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A105" s="98"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="99"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="104"/>
-      <c r="O105" s="104"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
-      <c r="S105" s="104"/>
-      <c r="T105" s="105"/>
+      <c r="A105" s="216"/>
+      <c r="B105" s="217"/>
+      <c r="C105" s="217"/>
+      <c r="D105" s="217"/>
+      <c r="E105" s="217"/>
+      <c r="F105" s="217"/>
+      <c r="G105" s="217"/>
+      <c r="H105" s="217"/>
+      <c r="I105" s="217"/>
+      <c r="J105" s="217"/>
+      <c r="K105" s="222"/>
+      <c r="L105" s="222"/>
+      <c r="M105" s="222"/>
+      <c r="N105" s="222"/>
+      <c r="O105" s="222"/>
+      <c r="P105" s="222"/>
+      <c r="Q105" s="222"/>
+      <c r="R105" s="222"/>
+      <c r="S105" s="222"/>
+      <c r="T105" s="223"/>
     </row>
     <row r="106" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A106" s="98"/>
-      <c r="B106" s="99"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="99"/>
-      <c r="H106" s="99"/>
-      <c r="I106" s="99"/>
-      <c r="J106" s="99"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
-      <c r="T106" s="105"/>
+      <c r="A106" s="216"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="217"/>
+      <c r="D106" s="217"/>
+      <c r="E106" s="217"/>
+      <c r="F106" s="217"/>
+      <c r="G106" s="217"/>
+      <c r="H106" s="217"/>
+      <c r="I106" s="217"/>
+      <c r="J106" s="217"/>
+      <c r="K106" s="222"/>
+      <c r="L106" s="222"/>
+      <c r="M106" s="222"/>
+      <c r="N106" s="222"/>
+      <c r="O106" s="222"/>
+      <c r="P106" s="222"/>
+      <c r="Q106" s="222"/>
+      <c r="R106" s="222"/>
+      <c r="S106" s="222"/>
+      <c r="T106" s="223"/>
     </row>
     <row r="107" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A107" s="98"/>
-      <c r="B107" s="99"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="99"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="99"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
-      <c r="T107" s="105"/>
+      <c r="A107" s="216"/>
+      <c r="B107" s="217"/>
+      <c r="C107" s="217"/>
+      <c r="D107" s="217"/>
+      <c r="E107" s="217"/>
+      <c r="F107" s="217"/>
+      <c r="G107" s="217"/>
+      <c r="H107" s="217"/>
+      <c r="I107" s="217"/>
+      <c r="J107" s="217"/>
+      <c r="K107" s="222"/>
+      <c r="L107" s="222"/>
+      <c r="M107" s="222"/>
+      <c r="N107" s="222"/>
+      <c r="O107" s="222"/>
+      <c r="P107" s="222"/>
+      <c r="Q107" s="222"/>
+      <c r="R107" s="222"/>
+      <c r="S107" s="222"/>
+      <c r="T107" s="223"/>
     </row>
     <row r="108" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A108" s="98"/>
-      <c r="B108" s="99"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="104"/>
-      <c r="L108" s="104"/>
-      <c r="M108" s="104"/>
-      <c r="N108" s="104"/>
-      <c r="O108" s="104"/>
-      <c r="P108" s="104"/>
-      <c r="Q108" s="104"/>
-      <c r="R108" s="104"/>
-      <c r="S108" s="104"/>
-      <c r="T108" s="105"/>
+      <c r="A108" s="216"/>
+      <c r="B108" s="217"/>
+      <c r="C108" s="217"/>
+      <c r="D108" s="217"/>
+      <c r="E108" s="217"/>
+      <c r="F108" s="217"/>
+      <c r="G108" s="217"/>
+      <c r="H108" s="217"/>
+      <c r="I108" s="217"/>
+      <c r="J108" s="217"/>
+      <c r="K108" s="222"/>
+      <c r="L108" s="222"/>
+      <c r="M108" s="222"/>
+      <c r="N108" s="222"/>
+      <c r="O108" s="222"/>
+      <c r="P108" s="222"/>
+      <c r="Q108" s="222"/>
+      <c r="R108" s="222"/>
+      <c r="S108" s="222"/>
+      <c r="T108" s="223"/>
     </row>
     <row r="109" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A109" s="98"/>
-      <c r="B109" s="99"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
-      <c r="G109" s="99"/>
-      <c r="H109" s="99"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="99"/>
-      <c r="K109" s="104"/>
-      <c r="L109" s="104"/>
-      <c r="M109" s="104"/>
-      <c r="N109" s="104"/>
-      <c r="O109" s="104"/>
-      <c r="P109" s="104"/>
-      <c r="Q109" s="104"/>
-      <c r="R109" s="104"/>
-      <c r="S109" s="104"/>
-      <c r="T109" s="105"/>
+      <c r="A109" s="216"/>
+      <c r="B109" s="217"/>
+      <c r="C109" s="217"/>
+      <c r="D109" s="217"/>
+      <c r="E109" s="217"/>
+      <c r="F109" s="217"/>
+      <c r="G109" s="217"/>
+      <c r="H109" s="217"/>
+      <c r="I109" s="217"/>
+      <c r="J109" s="217"/>
+      <c r="K109" s="222"/>
+      <c r="L109" s="222"/>
+      <c r="M109" s="222"/>
+      <c r="N109" s="222"/>
+      <c r="O109" s="222"/>
+      <c r="P109" s="222"/>
+      <c r="Q109" s="222"/>
+      <c r="R109" s="222"/>
+      <c r="S109" s="222"/>
+      <c r="T109" s="223"/>
     </row>
     <row r="110" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A110" s="98"/>
-      <c r="B110" s="99"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="99"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="99"/>
-      <c r="K110" s="104"/>
-      <c r="L110" s="104"/>
-      <c r="M110" s="104"/>
-      <c r="N110" s="104"/>
-      <c r="O110" s="104"/>
-      <c r="P110" s="104"/>
-      <c r="Q110" s="104"/>
-      <c r="R110" s="104"/>
-      <c r="S110" s="104"/>
-      <c r="T110" s="105"/>
+      <c r="A110" s="216"/>
+      <c r="B110" s="217"/>
+      <c r="C110" s="217"/>
+      <c r="D110" s="217"/>
+      <c r="E110" s="217"/>
+      <c r="F110" s="217"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="217"/>
+      <c r="I110" s="217"/>
+      <c r="J110" s="217"/>
+      <c r="K110" s="222"/>
+      <c r="L110" s="222"/>
+      <c r="M110" s="222"/>
+      <c r="N110" s="222"/>
+      <c r="O110" s="222"/>
+      <c r="P110" s="222"/>
+      <c r="Q110" s="222"/>
+      <c r="R110" s="222"/>
+      <c r="S110" s="222"/>
+      <c r="T110" s="223"/>
     </row>
     <row r="111" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A111" s="98"/>
-      <c r="B111" s="99"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="99"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="104"/>
-      <c r="L111" s="104"/>
-      <c r="M111" s="104"/>
-      <c r="N111" s="104"/>
-      <c r="O111" s="104"/>
-      <c r="P111" s="104"/>
-      <c r="Q111" s="104"/>
-      <c r="R111" s="104"/>
-      <c r="S111" s="104"/>
-      <c r="T111" s="105"/>
+      <c r="A111" s="216"/>
+      <c r="B111" s="217"/>
+      <c r="C111" s="217"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="217"/>
+      <c r="F111" s="217"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="217"/>
+      <c r="I111" s="217"/>
+      <c r="J111" s="217"/>
+      <c r="K111" s="222"/>
+      <c r="L111" s="222"/>
+      <c r="M111" s="222"/>
+      <c r="N111" s="222"/>
+      <c r="O111" s="222"/>
+      <c r="P111" s="222"/>
+      <c r="Q111" s="222"/>
+      <c r="R111" s="222"/>
+      <c r="S111" s="222"/>
+      <c r="T111" s="223"/>
     </row>
     <row r="112" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A112" s="98"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="99"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
-      <c r="H112" s="99"/>
-      <c r="I112" s="99"/>
-      <c r="J112" s="99"/>
-      <c r="K112" s="104"/>
-      <c r="L112" s="104"/>
-      <c r="M112" s="104"/>
-      <c r="N112" s="104"/>
-      <c r="O112" s="104"/>
-      <c r="P112" s="104"/>
-      <c r="Q112" s="104"/>
-      <c r="R112" s="104"/>
-      <c r="S112" s="104"/>
-      <c r="T112" s="105"/>
+      <c r="A112" s="216"/>
+      <c r="B112" s="217"/>
+      <c r="C112" s="217"/>
+      <c r="D112" s="217"/>
+      <c r="E112" s="217"/>
+      <c r="F112" s="217"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="217"/>
+      <c r="I112" s="217"/>
+      <c r="J112" s="217"/>
+      <c r="K112" s="222"/>
+      <c r="L112" s="222"/>
+      <c r="M112" s="222"/>
+      <c r="N112" s="222"/>
+      <c r="O112" s="222"/>
+      <c r="P112" s="222"/>
+      <c r="Q112" s="222"/>
+      <c r="R112" s="222"/>
+      <c r="S112" s="222"/>
+      <c r="T112" s="223"/>
     </row>
     <row r="113" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A113" s="98"/>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="104"/>
-      <c r="L113" s="104"/>
-      <c r="M113" s="104"/>
-      <c r="N113" s="104"/>
-      <c r="O113" s="104"/>
-      <c r="P113" s="104"/>
-      <c r="Q113" s="104"/>
-      <c r="R113" s="104"/>
-      <c r="S113" s="104"/>
-      <c r="T113" s="105"/>
+      <c r="A113" s="216"/>
+      <c r="B113" s="217"/>
+      <c r="C113" s="217"/>
+      <c r="D113" s="217"/>
+      <c r="E113" s="217"/>
+      <c r="F113" s="217"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="217"/>
+      <c r="I113" s="217"/>
+      <c r="J113" s="217"/>
+      <c r="K113" s="222"/>
+      <c r="L113" s="222"/>
+      <c r="M113" s="222"/>
+      <c r="N113" s="222"/>
+      <c r="O113" s="222"/>
+      <c r="P113" s="222"/>
+      <c r="Q113" s="222"/>
+      <c r="R113" s="222"/>
+      <c r="S113" s="222"/>
+      <c r="T113" s="223"/>
     </row>
     <row r="114" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A114" s="98"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="104"/>
-      <c r="L114" s="104"/>
-      <c r="M114" s="104"/>
-      <c r="N114" s="104"/>
-      <c r="O114" s="104"/>
-      <c r="P114" s="104"/>
-      <c r="Q114" s="104"/>
-      <c r="R114" s="104"/>
-      <c r="S114" s="104"/>
-      <c r="T114" s="105"/>
+      <c r="A114" s="216"/>
+      <c r="B114" s="217"/>
+      <c r="C114" s="217"/>
+      <c r="D114" s="217"/>
+      <c r="E114" s="217"/>
+      <c r="F114" s="217"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="217"/>
+      <c r="I114" s="217"/>
+      <c r="J114" s="217"/>
+      <c r="K114" s="222"/>
+      <c r="L114" s="222"/>
+      <c r="M114" s="222"/>
+      <c r="N114" s="222"/>
+      <c r="O114" s="222"/>
+      <c r="P114" s="222"/>
+      <c r="Q114" s="222"/>
+      <c r="R114" s="222"/>
+      <c r="S114" s="222"/>
+      <c r="T114" s="223"/>
     </row>
     <row r="115" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A115" s="98"/>
-      <c r="B115" s="99"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="99"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="99"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="104"/>
-      <c r="L115" s="104"/>
-      <c r="M115" s="104"/>
-      <c r="N115" s="104"/>
-      <c r="O115" s="104"/>
-      <c r="P115" s="104"/>
-      <c r="Q115" s="104"/>
-      <c r="R115" s="104"/>
-      <c r="S115" s="104"/>
-      <c r="T115" s="105"/>
+      <c r="A115" s="216"/>
+      <c r="B115" s="217"/>
+      <c r="C115" s="217"/>
+      <c r="D115" s="217"/>
+      <c r="E115" s="217"/>
+      <c r="F115" s="217"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="217"/>
+      <c r="I115" s="217"/>
+      <c r="J115" s="217"/>
+      <c r="K115" s="222"/>
+      <c r="L115" s="222"/>
+      <c r="M115" s="222"/>
+      <c r="N115" s="222"/>
+      <c r="O115" s="222"/>
+      <c r="P115" s="222"/>
+      <c r="Q115" s="222"/>
+      <c r="R115" s="222"/>
+      <c r="S115" s="222"/>
+      <c r="T115" s="223"/>
     </row>
     <row r="116" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A116" s="98"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="99"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="99"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="104"/>
-      <c r="L116" s="104"/>
-      <c r="M116" s="104"/>
-      <c r="N116" s="104"/>
-      <c r="O116" s="104"/>
-      <c r="P116" s="104"/>
-      <c r="Q116" s="104"/>
-      <c r="R116" s="104"/>
-      <c r="S116" s="104"/>
-      <c r="T116" s="105"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="217"/>
+      <c r="C116" s="217"/>
+      <c r="D116" s="217"/>
+      <c r="E116" s="217"/>
+      <c r="F116" s="217"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="217"/>
+      <c r="I116" s="217"/>
+      <c r="J116" s="217"/>
+      <c r="K116" s="222"/>
+      <c r="L116" s="222"/>
+      <c r="M116" s="222"/>
+      <c r="N116" s="222"/>
+      <c r="O116" s="222"/>
+      <c r="P116" s="222"/>
+      <c r="Q116" s="222"/>
+      <c r="R116" s="222"/>
+      <c r="S116" s="222"/>
+      <c r="T116" s="223"/>
     </row>
     <row r="117" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A117" s="98"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99"/>
-      <c r="F117" s="99"/>
-      <c r="G117" s="99"/>
-      <c r="H117" s="99"/>
-      <c r="I117" s="99"/>
-      <c r="J117" s="99"/>
-      <c r="K117" s="104"/>
-      <c r="L117" s="104"/>
-      <c r="M117" s="104"/>
-      <c r="N117" s="104"/>
-      <c r="O117" s="104"/>
-      <c r="P117" s="104"/>
-      <c r="Q117" s="104"/>
-      <c r="R117" s="104"/>
-      <c r="S117" s="104"/>
-      <c r="T117" s="105"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="217"/>
+      <c r="C117" s="217"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="217"/>
+      <c r="F117" s="217"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="217"/>
+      <c r="I117" s="217"/>
+      <c r="J117" s="217"/>
+      <c r="K117" s="222"/>
+      <c r="L117" s="222"/>
+      <c r="M117" s="222"/>
+      <c r="N117" s="222"/>
+      <c r="O117" s="222"/>
+      <c r="P117" s="222"/>
+      <c r="Q117" s="222"/>
+      <c r="R117" s="222"/>
+      <c r="S117" s="222"/>
+      <c r="T117" s="223"/>
     </row>
     <row r="118" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A118" s="98"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="104"/>
-      <c r="L118" s="104"/>
-      <c r="M118" s="104"/>
-      <c r="N118" s="104"/>
-      <c r="O118" s="104"/>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
-      <c r="R118" s="104"/>
-      <c r="S118" s="104"/>
-      <c r="T118" s="105"/>
+      <c r="A118" s="216"/>
+      <c r="B118" s="217"/>
+      <c r="C118" s="217"/>
+      <c r="D118" s="217"/>
+      <c r="E118" s="217"/>
+      <c r="F118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="217"/>
+      <c r="I118" s="217"/>
+      <c r="J118" s="217"/>
+      <c r="K118" s="222"/>
+      <c r="L118" s="222"/>
+      <c r="M118" s="222"/>
+      <c r="N118" s="222"/>
+      <c r="O118" s="222"/>
+      <c r="P118" s="222"/>
+      <c r="Q118" s="222"/>
+      <c r="R118" s="222"/>
+      <c r="S118" s="222"/>
+      <c r="T118" s="223"/>
     </row>
     <row r="119" spans="1:20" ht="34.35" customHeight="1">
-      <c r="A119" s="98"/>
-      <c r="B119" s="99"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="99"/>
-      <c r="H119" s="99"/>
-      <c r="I119" s="99"/>
-      <c r="J119" s="99"/>
-      <c r="K119" s="104"/>
-      <c r="L119" s="104"/>
-      <c r="M119" s="104"/>
-      <c r="N119" s="104"/>
-      <c r="O119" s="104"/>
-      <c r="P119" s="104"/>
-      <c r="Q119" s="104"/>
-      <c r="R119" s="104"/>
-      <c r="S119" s="104"/>
-      <c r="T119" s="105"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="217"/>
+      <c r="C119" s="217"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="217"/>
+      <c r="F119" s="217"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="217"/>
+      <c r="I119" s="217"/>
+      <c r="J119" s="217"/>
+      <c r="K119" s="222"/>
+      <c r="L119" s="222"/>
+      <c r="M119" s="222"/>
+      <c r="N119" s="222"/>
+      <c r="O119" s="222"/>
+      <c r="P119" s="222"/>
+      <c r="Q119" s="222"/>
+      <c r="R119" s="222"/>
+      <c r="S119" s="222"/>
+      <c r="T119" s="223"/>
     </row>
     <row r="120" spans="1:20" ht="34.35" customHeight="1" thickBot="1">
-      <c r="A120" s="100"/>
-      <c r="B120" s="101"/>
-      <c r="C120" s="101"/>
-      <c r="D120" s="101"/>
-      <c r="E120" s="101"/>
-      <c r="F120" s="101"/>
-      <c r="G120" s="101"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="101"/>
-      <c r="K120" s="106"/>
-      <c r="L120" s="106"/>
-      <c r="M120" s="106"/>
-      <c r="N120" s="106"/>
-      <c r="O120" s="106"/>
-      <c r="P120" s="106"/>
-      <c r="Q120" s="106"/>
-      <c r="R120" s="106"/>
-      <c r="S120" s="106"/>
-      <c r="T120" s="107"/>
+      <c r="A120" s="218"/>
+      <c r="B120" s="219"/>
+      <c r="C120" s="219"/>
+      <c r="D120" s="219"/>
+      <c r="E120" s="219"/>
+      <c r="F120" s="219"/>
+      <c r="G120" s="219"/>
+      <c r="H120" s="219"/>
+      <c r="I120" s="219"/>
+      <c r="J120" s="219"/>
+      <c r="K120" s="224"/>
+      <c r="L120" s="224"/>
+      <c r="M120" s="224"/>
+      <c r="N120" s="224"/>
+      <c r="O120" s="224"/>
+      <c r="P120" s="224"/>
+      <c r="Q120" s="224"/>
+      <c r="R120" s="224"/>
+      <c r="S120" s="224"/>
+      <c r="T120" s="225"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="66">
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="K68:T68"/>
-    <mergeCell ref="K69:T89"/>
-    <mergeCell ref="A91:J120"/>
-    <mergeCell ref="K91:T120"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="K90:T90"/>
-    <mergeCell ref="A69:J89"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="R60:R64"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="R36:R44"/>
+    <mergeCell ref="R8:R16"/>
+    <mergeCell ref="T8:T16"/>
+    <mergeCell ref="R18:R34"/>
+    <mergeCell ref="T18:T34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="T36:T44"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="T46:T49"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="L6:M6"/>
@@ -11260,35 +11391,27 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="R36:R44"/>
-    <mergeCell ref="R8:R16"/>
-    <mergeCell ref="T8:T16"/>
-    <mergeCell ref="R18:R34"/>
-    <mergeCell ref="T18:T34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="T36:T44"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="R60:R64"/>
-    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C4:T4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="K68:T68"/>
+    <mergeCell ref="K69:T89"/>
+    <mergeCell ref="A91:J120"/>
+    <mergeCell ref="K91:T120"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="K90:T90"/>
+    <mergeCell ref="A69:J89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q8:Q10">
@@ -11484,17 +11607,12 @@
       <formula>LEN(TRIM(R60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:P62">
-    <cfRule type="cellIs" dxfId="121" priority="182" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S63:S64">
     <cfRule type="notContainsBlanks" dxfId="120" priority="179">
       <formula>LEN(TRIM(S63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P63:P64">
+  <conditionalFormatting sqref="P60:P64">
     <cfRule type="cellIs" dxfId="119" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -12052,15 +12170,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA9366B03F6EC145B189534E5AC3D6E6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc27aaa6afa60559960f746ac0a40ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="dac3fa0a-9923-49c3-b4ba-df6390fa58ea" xmlns:ns4="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6816e770e34b85fcdcbb3032b3d95e9" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12294,6 +12403,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F27D016-ED29-4335-8911-6427F4BFA81E}">
   <ds:schemaRefs>
@@ -12303,24 +12421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9757ECA-E322-4B4F-A80B-F429838D8BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4331761-FFFE-4F11-AA2E-B35F1517E21B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12338,4 +12438,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9757ECA-E322-4B4F-A80B-F429838D8BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>